--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -24,7 +24,16 @@
     <t>AKTAV:FH</t>
   </si>
   <si>
+    <t>BBVA:SM</t>
+  </si>
+  <si>
     <t>BDM:IM</t>
+  </si>
+  <si>
+    <t>BKT:SM</t>
+  </si>
+  <si>
+    <t>BKUS:AV</t>
   </si>
 </sst>
 </file>
@@ -373,7 +382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -381,7 +390,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,8 +400,17 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,8 +423,17 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -419,8 +446,17 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -431,6 +467,84 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -445,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +567,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,8 +577,17 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,8 +600,17 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -489,10 +621,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -503,6 +644,84 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -517,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +744,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,8 +754,17 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,10 +775,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -561,10 +798,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -575,6 +821,84 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>BBVA:SM</t>
+  </si>
+  <si>
+    <t>BCP:PL</t>
   </si>
   <si>
     <t>BDM:IM</t>
@@ -382,7 +385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,7 +393,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,8 +412,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +438,11 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -455,8 +464,11 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -478,8 +490,11 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -501,8 +516,11 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -524,8 +542,11 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -545,6 +566,35 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -559,7 +609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +617,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,8 +636,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,8 +662,11 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -632,8 +688,11 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -655,8 +714,11 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -667,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -678,8 +740,11 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -701,8 +766,11 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -713,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -722,6 +790,35 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -736,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,7 +841,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,8 +860,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,13 +881,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -801,16 +904,19 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -824,62 +930,71 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -899,6 +1014,35 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>BKUS:AV</t>
+  </si>
+  <si>
+    <t>BMPS:IM</t>
+  </si>
+  <si>
+    <t>BNP:FP</t>
   </si>
 </sst>
 </file>
@@ -385,7 +391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -393,7 +399,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,8 +421,14 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,8 +453,14 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -467,8 +485,14 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -493,8 +517,14 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -519,8 +549,14 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -545,8 +581,14 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -571,8 +613,14 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -595,6 +643,76 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -609,7 +727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,7 +735,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,8 +757,14 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,8 +789,14 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -691,8 +821,14 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -717,8 +853,14 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,8 +885,14 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,8 +917,14 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -795,8 +949,14 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -819,6 +979,76 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -833,7 +1063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,7 +1071,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,8 +1093,14 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,8 +1125,14 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -915,8 +1157,14 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -941,8 +1189,14 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -967,8 +1221,14 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -993,8 +1253,14 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1019,8 +1285,14 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1043,6 +1315,76 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>BNP:FP</t>
+  </si>
+  <si>
+    <t>BOCY:CY</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +402,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,8 +430,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +465,11 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,8 +500,11 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -523,8 +535,11 @@
       <c r="J4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -555,8 +570,11 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -587,8 +605,11 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -619,8 +640,11 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -651,8 +675,11 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -683,8 +710,11 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -713,6 +743,44 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -727,7 +795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,7 +803,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,8 +831,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,8 +866,11 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -827,8 +901,11 @@
       <c r="J3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -859,8 +936,11 @@
       <c r="J4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -891,8 +971,11 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -923,8 +1006,11 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -955,8 +1041,11 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -987,8 +1076,11 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1111,11 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1049,6 +1144,44 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1063,7 +1196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,7 +1204,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,8 +1232,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,8 +1267,11 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1163,8 +1302,11 @@
       <c r="J3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1195,8 +1337,11 @@
       <c r="J4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1227,8 +1372,11 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1259,8 +1407,11 @@
       <c r="J6" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1291,8 +1442,11 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1323,8 +1477,11 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1355,8 +1512,11 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1385,6 +1545,44 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>BOCY:CY</t>
+  </si>
+  <si>
+    <t>BPE:IM</t>
+  </si>
+  <si>
+    <t>BPI:PL</t>
+  </si>
+  <si>
+    <t>BTUV:AV</t>
   </si>
 </sst>
 </file>
@@ -394,7 +403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,7 +411,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,8 +442,17 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +486,17 @@
       <c r="K2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -503,8 +530,17 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -538,8 +574,17 @@
       <c r="K4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -573,8 +618,17 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -608,8 +662,17 @@
       <c r="K6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -643,8 +706,17 @@
       <c r="K7" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -678,8 +750,17 @@
       <c r="K8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -713,8 +794,17 @@
       <c r="K9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -748,8 +838,17 @@
       <c r="K10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -781,6 +880,147 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -795,7 +1035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,7 +1043,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,8 +1074,17 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,8 +1118,17 @@
       <c r="K2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -904,8 +1162,17 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -939,8 +1206,17 @@
       <c r="K4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -974,8 +1250,17 @@
       <c r="K5" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1009,8 +1294,17 @@
       <c r="K6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1044,8 +1338,17 @@
       <c r="K7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1079,8 +1382,17 @@
       <c r="K8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1114,8 +1426,17 @@
       <c r="K9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1149,8 +1470,17 @@
       <c r="K10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1182,6 +1512,147 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1196,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1204,7 +1675,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1235,8 +1706,17 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1270,8 +1750,17 @@
       <c r="K2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1305,8 +1794,17 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1340,8 +1838,17 @@
       <c r="K4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1375,8 +1882,17 @@
       <c r="K5" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1410,8 +1926,17 @@
       <c r="K6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1445,8 +1970,17 @@
       <c r="K7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1480,8 +2014,17 @@
       <c r="K8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1515,8 +2058,17 @@
       <c r="K9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1550,8 +2102,17 @@
       <c r="K10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1583,6 +2144,147 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>BTUV:AV</t>
+  </si>
+  <si>
+    <t>CBK:GR</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +414,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +454,11 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,8 +501,11 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -539,8 +548,11 @@
       <c r="N3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -583,8 +595,11 @@
       <c r="N4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -627,8 +642,11 @@
       <c r="N5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -671,8 +689,11 @@
       <c r="N6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -715,8 +736,11 @@
       <c r="N7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -759,8 +783,11 @@
       <c r="N8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -803,8 +830,11 @@
       <c r="N9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -847,8 +877,11 @@
       <c r="N10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,8 +924,11 @@
       <c r="N11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -935,8 +971,11 @@
       <c r="N12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1018,11 @@
       <c r="N13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1021,6 +1063,56 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1035,7 +1127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,7 +1135,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,8 +1175,11 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,8 +1222,11 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1171,8 +1269,11 @@
       <c r="N3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1215,8 +1316,11 @@
       <c r="N4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1259,8 +1363,11 @@
       <c r="N5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1303,8 +1410,11 @@
       <c r="N6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1347,8 +1457,11 @@
       <c r="N7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1391,8 +1504,11 @@
       <c r="N8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1435,8 +1551,11 @@
       <c r="N9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1479,8 +1598,11 @@
       <c r="N10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1523,8 +1645,11 @@
       <c r="N11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1567,8 +1692,11 @@
       <c r="N12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1611,8 +1739,11 @@
       <c r="N13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1653,6 +1784,56 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1667,7 +1848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1675,7 +1856,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1715,8 +1896,11 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1759,8 +1943,11 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1803,8 +1990,11 @@
       <c r="N3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1847,8 +2037,11 @@
       <c r="N4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1891,8 +2084,11 @@
       <c r="N5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1935,8 +2131,11 @@
       <c r="N6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1979,8 +2178,11 @@
       <c r="N7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2023,8 +2225,11 @@
       <c r="N8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2067,8 +2272,11 @@
       <c r="N9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2111,8 +2319,11 @@
       <c r="N10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2155,8 +2366,11 @@
       <c r="N11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2199,8 +2413,11 @@
       <c r="N12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2243,8 +2460,11 @@
       <c r="N13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2285,6 +2505,56 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>CBK:GR</t>
+  </si>
+  <si>
+    <t>CE:IM</t>
+  </si>
+  <si>
+    <t>COM:GR</t>
   </si>
 </sst>
 </file>
@@ -406,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -414,7 +420,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,8 +463,14 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +516,14 @@
       <c r="O2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -551,8 +569,14 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -598,8 +622,14 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -645,8 +675,14 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -692,8 +728,14 @@
       <c r="O6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -739,8 +781,14 @@
       <c r="O7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -786,8 +834,14 @@
       <c r="O8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -833,8 +887,14 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -880,8 +940,14 @@
       <c r="O10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +993,14 @@
       <c r="O11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -974,8 +1046,14 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1021,8 +1099,14 @@
       <c r="O13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1068,8 +1152,14 @@
       <c r="O14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1113,6 +1203,118 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1127,7 +1329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,7 +1337,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1178,8 +1380,14 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1225,8 +1433,14 @@
       <c r="O2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1272,8 +1486,14 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1319,8 +1539,14 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1366,8 +1592,14 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1413,8 +1645,14 @@
       <c r="O6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1460,8 +1698,14 @@
       <c r="O7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1507,8 +1751,14 @@
       <c r="O8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1554,8 +1804,14 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1601,8 +1857,14 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1648,8 +1910,14 @@
       <c r="O11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1695,8 +1963,14 @@
       <c r="O12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1742,8 +2016,14 @@
       <c r="O13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1789,8 +2069,14 @@
       <c r="O14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1834,6 +2120,118 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1848,7 +2246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1856,7 +2254,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1899,8 +2297,14 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1946,8 +2350,14 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1993,8 +2403,14 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2040,8 +2456,14 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2087,8 +2509,14 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2134,8 +2562,14 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2181,8 +2615,14 @@
       <c r="O7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2228,8 +2668,14 @@
       <c r="O8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2275,8 +2721,14 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2322,8 +2774,14 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2369,8 +2827,14 @@
       <c r="O11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2416,8 +2880,14 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2463,8 +2933,14 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2510,8 +2986,14 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2555,6 +3037,118 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>COM:GR</t>
+  </si>
+  <si>
+    <t>CRG:IM</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -420,7 +423,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +472,11 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,8 +528,11 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -575,8 +584,11 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -628,8 +640,11 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -681,8 +696,11 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -734,8 +752,11 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -787,8 +808,11 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +864,11 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +920,11 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -946,8 +976,11 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -999,8 +1032,11 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1052,8 +1088,11 @@
       <c r="Q12" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1105,8 +1144,11 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1158,8 +1200,11 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,8 +1256,11 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1264,8 +1312,11 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1315,6 +1366,65 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1329,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,7 +1447,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1386,8 +1496,11 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1439,8 +1552,11 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1492,8 +1608,11 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1545,8 +1664,11 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1598,8 +1720,11 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1651,8 +1776,11 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1704,8 +1832,11 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1757,8 +1888,11 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1810,8 +1944,11 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1863,8 +2000,11 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1916,8 +2056,11 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1969,8 +2112,11 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2022,8 +2168,11 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2075,8 +2224,11 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2128,8 +2280,11 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2181,8 +2336,11 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2232,6 +2390,65 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2246,7 +2463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2254,7 +2471,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2303,8 +2520,11 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2356,8 +2576,11 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2409,8 +2632,11 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2462,8 +2688,11 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2515,8 +2744,11 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2568,8 +2800,11 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2621,8 +2856,11 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2674,8 +2912,11 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2727,8 +2968,11 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2780,8 +3024,11 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2833,8 +3080,11 @@
       <c r="Q11" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2886,8 +3136,11 @@
       <c r="Q12" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2939,8 +3192,11 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2992,8 +3248,11 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3045,8 +3304,11 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3098,8 +3360,11 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3149,6 +3414,65 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>CRG:IM</t>
+  </si>
+  <si>
+    <t>CVAL:IM</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +426,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +478,11 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,8 +537,11 @@
       <c r="R2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -587,8 +596,11 @@
       <c r="R3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -643,8 +655,11 @@
       <c r="R4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -699,8 +714,11 @@
       <c r="R5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -755,8 +773,11 @@
       <c r="R6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -811,8 +832,11 @@
       <c r="R7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +891,11 @@
       <c r="R8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +950,11 @@
       <c r="R9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -979,8 +1009,11 @@
       <c r="R10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1035,8 +1068,11 @@
       <c r="R11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1091,8 +1127,11 @@
       <c r="R12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1147,8 +1186,11 @@
       <c r="R13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1203,8 +1245,11 @@
       <c r="R14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1259,8 +1304,11 @@
       <c r="R15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1315,8 +1363,11 @@
       <c r="R16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1371,8 +1422,11 @@
       <c r="R17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,6 +1479,68 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1439,7 +1555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1447,7 +1563,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1499,8 +1615,11 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,8 +1674,11 @@
       <c r="R2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1611,8 +1733,11 @@
       <c r="R3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1667,8 +1792,11 @@
       <c r="R4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1723,8 +1851,11 @@
       <c r="R5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1779,8 +1910,11 @@
       <c r="R6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1835,8 +1969,11 @@
       <c r="R7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1891,8 +2028,11 @@
       <c r="R8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1947,8 +2087,11 @@
       <c r="R9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2003,8 +2146,11 @@
       <c r="R10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2059,8 +2205,11 @@
       <c r="R11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2115,8 +2264,11 @@
       <c r="R12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2171,8 +2323,11 @@
       <c r="R13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2227,8 +2382,11 @@
       <c r="R14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2283,8 +2441,11 @@
       <c r="R15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2339,8 +2500,11 @@
       <c r="R16" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2395,8 +2559,11 @@
       <c r="R17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2449,6 +2616,68 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2463,7 +2692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2471,7 +2700,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2523,8 +2752,11 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2579,8 +2811,11 @@
       <c r="R2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2635,8 +2870,11 @@
       <c r="R3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2691,8 +2929,11 @@
       <c r="R4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2747,8 +2988,11 @@
       <c r="R5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2803,8 +3047,11 @@
       <c r="R6" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2859,8 +3106,11 @@
       <c r="R7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2915,8 +3165,11 @@
       <c r="R8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2971,8 +3224,11 @@
       <c r="R9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3027,8 +3283,11 @@
       <c r="R10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3083,8 +3342,11 @@
       <c r="R11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3139,8 +3401,11 @@
       <c r="R12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3195,8 +3460,11 @@
       <c r="R13" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3251,8 +3519,11 @@
       <c r="R14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3307,8 +3578,11 @@
       <c r="R15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3363,8 +3637,11 @@
       <c r="R16" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3419,8 +3696,11 @@
       <c r="R17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3473,6 +3753,68 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>CVAL:IM</t>
+  </si>
+  <si>
+    <t>DPB:GR</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,7 +429,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,8 +484,11 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,8 +546,11 @@
       <c r="S2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -599,8 +608,11 @@
       <c r="S3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -658,8 +670,11 @@
       <c r="S4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -717,8 +732,11 @@
       <c r="S5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,8 +794,11 @@
       <c r="S6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -835,8 +856,11 @@
       <c r="S7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +918,11 @@
       <c r="S8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -953,8 +980,11 @@
       <c r="S9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,8 +1042,11 @@
       <c r="S10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1071,8 +1104,11 @@
       <c r="S11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1130,8 +1166,11 @@
       <c r="S12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1189,8 +1228,11 @@
       <c r="S13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1248,8 +1290,11 @@
       <c r="S14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1307,8 +1352,11 @@
       <c r="S15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1366,8 +1414,11 @@
       <c r="S16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1425,8 +1476,11 @@
       <c r="S17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1484,8 +1538,11 @@
       <c r="S18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1541,6 +1598,71 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1555,7 +1677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,7 +1685,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1618,8 +1740,11 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1677,8 +1802,11 @@
       <c r="S2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1736,8 +1864,11 @@
       <c r="S3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1795,8 +1926,11 @@
       <c r="S4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1854,8 +1988,11 @@
       <c r="S5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1913,8 +2050,11 @@
       <c r="S6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1972,8 +2112,11 @@
       <c r="S7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2031,8 +2174,11 @@
       <c r="S8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2090,8 +2236,11 @@
       <c r="S9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2149,8 +2298,11 @@
       <c r="S10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2208,8 +2360,11 @@
       <c r="S11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2267,8 +2422,11 @@
       <c r="S12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2326,8 +2484,11 @@
       <c r="S13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2385,8 +2546,11 @@
       <c r="S14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2444,8 +2608,11 @@
       <c r="S15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2503,8 +2670,11 @@
       <c r="S16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2562,8 +2732,11 @@
       <c r="S17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2621,8 +2794,11 @@
       <c r="S18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2678,6 +2854,71 @@
         <v>1</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2692,7 +2933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2700,7 +2941,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2755,8 +2996,11 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2814,8 +3058,11 @@
       <c r="S2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2873,8 +3120,11 @@
       <c r="S3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2932,8 +3182,11 @@
       <c r="S4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2991,8 +3244,11 @@
       <c r="S5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3050,8 +3306,11 @@
       <c r="S6" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3109,8 +3368,11 @@
       <c r="S7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3168,8 +3430,11 @@
       <c r="S8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3227,8 +3492,11 @@
       <c r="S9" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3286,8 +3554,11 @@
       <c r="S10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3345,8 +3616,11 @@
       <c r="S11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3404,8 +3678,11 @@
       <c r="S12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3463,8 +3740,11 @@
       <c r="S13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3522,8 +3802,11 @@
       <c r="S14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3581,8 +3864,11 @@
       <c r="S15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3640,8 +3926,11 @@
       <c r="S16" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3699,8 +3988,11 @@
       <c r="S17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3758,8 +4050,11 @@
       <c r="S18" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3815,6 +4110,71 @@
         <v>1</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>DPB:GR</t>
+  </si>
+  <si>
+    <t>EBS:AV</t>
+  </si>
+  <si>
+    <t>ETE:GA</t>
   </si>
 </sst>
 </file>
@@ -421,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +435,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,8 +493,14 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +561,14 @@
       <c r="T2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -611,8 +629,14 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -673,8 +697,14 @@
       <c r="T4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -735,8 +765,14 @@
       <c r="T5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,8 +833,14 @@
       <c r="T6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,8 +901,14 @@
       <c r="T7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,8 +969,14 @@
       <c r="T8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -983,8 +1037,14 @@
       <c r="T9" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1045,8 +1105,14 @@
       <c r="T10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1173,14 @@
       <c r="T11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1169,8 +1241,14 @@
       <c r="T12" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1231,8 +1309,14 @@
       <c r="T13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1293,8 +1377,14 @@
       <c r="T14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1355,8 +1445,14 @@
       <c r="T15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1417,8 +1513,14 @@
       <c r="T16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1581,14 @@
       <c r="T17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1541,8 +1649,14 @@
       <c r="T18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1603,8 +1717,14 @@
       <c r="T19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1663,6 +1783,148 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1677,7 +1939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1685,7 +1947,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1743,8 +2005,14 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1805,8 +2073,14 @@
       <c r="T2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1867,8 +2141,14 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1929,8 +2209,14 @@
       <c r="T4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1991,8 +2277,14 @@
       <c r="T5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2053,8 +2345,14 @@
       <c r="T6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2115,8 +2413,14 @@
       <c r="T7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2177,8 +2481,14 @@
       <c r="T8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2239,8 +2549,14 @@
       <c r="T9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2301,8 +2617,14 @@
       <c r="T10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2363,8 +2685,14 @@
       <c r="T11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2425,8 +2753,14 @@
       <c r="T12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2487,8 +2821,14 @@
       <c r="T13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2549,8 +2889,14 @@
       <c r="T14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2611,8 +2957,14 @@
       <c r="T15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2673,8 +3025,14 @@
       <c r="T16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2735,8 +3093,14 @@
       <c r="T17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2797,8 +3161,14 @@
       <c r="T18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2859,8 +3229,14 @@
       <c r="T19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2919,6 +3295,148 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2933,7 +3451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2941,7 +3459,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2999,8 +3517,14 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3061,8 +3585,14 @@
       <c r="T2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3123,8 +3653,14 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3185,8 +3721,14 @@
       <c r="T4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3247,8 +3789,14 @@
       <c r="T5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3309,8 +3857,14 @@
       <c r="T6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3371,8 +3925,14 @@
       <c r="T7" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3433,8 +3993,14 @@
       <c r="T8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3495,8 +4061,14 @@
       <c r="T9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3557,8 +4129,14 @@
       <c r="T10" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3619,8 +4197,14 @@
       <c r="T11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3681,8 +4265,14 @@
       <c r="T12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3743,8 +4333,14 @@
       <c r="T13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3805,8 +4401,14 @@
       <c r="T14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3867,8 +4469,14 @@
       <c r="T15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3929,8 +4537,14 @@
       <c r="T16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3991,8 +4605,14 @@
       <c r="T17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -4053,8 +4673,14 @@
       <c r="T18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -4115,8 +4741,14 @@
       <c r="T19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -4175,6 +4807,148 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>ETE:GA</t>
+  </si>
+  <si>
+    <t>EUROB:GA</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,7 +438,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,8 +502,11 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,8 +573,11 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -635,8 +644,11 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -703,8 +715,11 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -771,8 +786,11 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -839,8 +857,11 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +928,11 @@
       <c r="V7" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -975,8 +999,11 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1070,11 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1111,8 +1141,11 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1179,8 +1212,11 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1247,8 +1283,11 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1354,11 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1383,8 +1425,11 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1451,8 +1496,11 @@
       <c r="V15" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1519,8 +1567,11 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1587,8 +1638,11 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1655,8 +1709,11 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1723,8 +1780,11 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1791,8 +1851,11 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1859,8 +1922,11 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1925,6 +1991,80 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1939,7 +2079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1947,7 +2087,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2011,8 +2151,11 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2079,8 +2222,11 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2147,8 +2293,11 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2215,8 +2364,11 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2283,8 +2435,11 @@
       <c r="V5" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2351,8 +2506,11 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2419,8 +2577,11 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2487,8 +2648,11 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2555,8 +2719,11 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2623,8 +2790,11 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2691,8 +2861,11 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2759,8 +2932,11 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2827,8 +3003,11 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2895,8 +3074,11 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2963,8 +3145,11 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3031,8 +3216,11 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3099,8 +3287,11 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3167,8 +3358,11 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3235,8 +3429,11 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3303,8 +3500,11 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3371,8 +3571,11 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3437,6 +3640,80 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3451,7 +3728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3459,7 +3736,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3523,8 +3800,11 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3591,8 +3871,11 @@
       <c r="V2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3659,8 +3942,11 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3727,8 +4013,11 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3795,8 +4084,11 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3863,8 +4155,11 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3931,8 +4226,11 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3999,8 +4297,11 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4067,8 +4368,11 @@
       <c r="V9" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4135,8 +4439,11 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4203,8 +4510,11 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4271,8 +4581,11 @@
       <c r="V12" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4339,8 +4652,11 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -4407,8 +4723,11 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -4475,8 +4794,11 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -4543,8 +4865,11 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -4611,8 +4936,11 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -4679,8 +5007,11 @@
       <c r="V18" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -4747,8 +5078,11 @@
       <c r="V19" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -4815,8 +5149,11 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -4883,8 +5220,11 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -4949,6 +5289,80 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>EUROB:GA</t>
+  </si>
+  <si>
+    <t>HB:CY</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +441,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,8 +508,11 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -574,10 +580,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -647,8 +656,11 @@
       <c r="W3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -718,8 +730,11 @@
       <c r="W4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +804,11 @@
       <c r="W5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -860,8 +878,11 @@
       <c r="W6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -872,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -899,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -917,22 +938,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
         <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,8 +1026,11 @@
       <c r="W8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1050,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1062,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1073,8 +1100,11 @@
       <c r="W9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1085,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1142,10 +1172,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1215,25 +1248,28 @@
       <c r="W11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1245,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1275,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1286,8 +1322,11 @@
       <c r="W12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1319,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1357,19 +1396,22 @@
       <c r="W13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1378,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1387,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1402,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1428,8 +1470,11 @@
       <c r="W14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1467,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1494,13 +1539,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1541,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1570,8 +1618,11 @@
       <c r="W16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1582,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1641,8 +1692,11 @@
       <c r="W17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1662,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1686,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1712,13 +1766,16 @@
       <c r="W18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1745,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1754,13 +1811,13 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1783,8 +1840,11 @@
       <c r="W19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1822,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1852,10 +1912,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1899,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1920,13 +1983,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1996,28 +2062,31 @@
       <c r="W22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2026,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2041,10 +2110,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2059,12 +2128,89 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2079,7 +2225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2087,7 +2233,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2154,8 +2300,11 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2225,8 +2374,11 @@
       <c r="W2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2246,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2273,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -2296,8 +2448,11 @@
       <c r="W3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2367,8 +2522,11 @@
       <c r="W4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2436,10 +2594,13 @@
         <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2450,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2509,8 +2670,11 @@
       <c r="W6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2521,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2580,8 +2744,11 @@
       <c r="W7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2651,8 +2818,11 @@
       <c r="W8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2722,8 +2892,11 @@
       <c r="W9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2734,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -2767,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -2793,8 +2966,11 @@
       <c r="W10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2862,10 +3038,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2935,8 +3114,11 @@
       <c r="W12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3006,8 +3188,11 @@
       <c r="W13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3077,8 +3262,11 @@
       <c r="W14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3148,13 +3336,16 @@
       <c r="W15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -3175,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -3202,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -3219,8 +3410,11 @@
       <c r="W16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3228,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -3246,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -3290,8 +3484,11 @@
       <c r="W17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3361,8 +3558,11 @@
       <c r="W18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3415,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -3432,13 +3632,16 @@
       <c r="W19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -3453,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -3462,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -3486,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -3503,8 +3706,11 @@
       <c r="W20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3574,8 +3780,11 @@
       <c r="W21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3645,8 +3854,11 @@
       <c r="W22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3663,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -3714,6 +3926,83 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3728,7 +4017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3736,7 +4025,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3803,8 +4092,11 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3874,8 +4166,11 @@
       <c r="W2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3945,8 +4240,11 @@
       <c r="W3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4016,8 +4314,11 @@
       <c r="W4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4087,8 +4388,11 @@
       <c r="W5" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4158,8 +4462,11 @@
       <c r="W6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4229,8 +4536,11 @@
       <c r="W7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4300,8 +4610,11 @@
       <c r="W8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4371,8 +4684,11 @@
       <c r="W9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4442,8 +4758,11 @@
       <c r="W10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4513,8 +4832,11 @@
       <c r="W11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4584,8 +4906,11 @@
       <c r="W12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4655,8 +4980,11 @@
       <c r="W13" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -4726,8 +5054,11 @@
       <c r="W14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -4797,8 +5128,11 @@
       <c r="W15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -4868,8 +5202,11 @@
       <c r="W16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -4939,8 +5276,11 @@
       <c r="W17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -5010,8 +5350,11 @@
       <c r="W18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -5081,8 +5424,11 @@
       <c r="W19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -5152,8 +5498,11 @@
       <c r="W20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -5223,8 +5572,11 @@
       <c r="W21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -5294,8 +5646,11 @@
       <c r="W22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -5363,6 +5718,83 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
         <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1405,13 +1405,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1811,13 +1811,13 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -2071,22 +2071,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2110,10 +2110,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>1</v>
@@ -3345,7 +3345,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -3440,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>HB:CY</t>
+  </si>
+  <si>
+    <t>ISP:IM</t>
+  </si>
+  <si>
+    <t>KBC:BB</t>
+  </si>
+  <si>
+    <t>OBS:AV</t>
   </si>
 </sst>
 </file>
@@ -433,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +450,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +520,17 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,8 +603,17 @@
       <c r="X2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -659,8 +686,17 @@
       <c r="X3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -733,8 +769,17 @@
       <c r="X4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -807,8 +852,17 @@
       <c r="X5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -881,8 +935,17 @@
       <c r="X6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -955,8 +1018,17 @@
       <c r="X7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1101,17 @@
       <c r="X8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1103,8 +1184,17 @@
       <c r="X9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1177,8 +1267,17 @@
       <c r="X10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1251,8 +1350,17 @@
       <c r="X11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1325,8 +1433,17 @@
       <c r="X12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1399,8 +1516,17 @@
       <c r="X13" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1473,8 +1599,17 @@
       <c r="X14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1547,8 +1682,17 @@
       <c r="X15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1621,8 +1765,17 @@
       <c r="X16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1695,8 +1848,17 @@
       <c r="X17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1769,8 +1931,17 @@
       <c r="X18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1843,8 +2014,17 @@
       <c r="X19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1917,8 +2097,17 @@
       <c r="X20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1991,8 +2180,17 @@
       <c r="X21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2065,8 +2263,17 @@
       <c r="X22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2139,8 +2346,17 @@
       <c r="X23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2211,6 +2427,264 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2225,7 +2699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2233,7 +2707,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2303,8 +2777,17 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2377,8 +2860,17 @@
       <c r="X2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2451,8 +2943,17 @@
       <c r="X3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2525,8 +3026,17 @@
       <c r="X4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2599,8 +3109,17 @@
       <c r="X5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2673,8 +3192,17 @@
       <c r="X6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2747,8 +3275,17 @@
       <c r="X7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2821,8 +3358,17 @@
       <c r="X8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2895,8 +3441,17 @@
       <c r="X9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2969,8 +3524,17 @@
       <c r="X10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3043,8 +3607,17 @@
       <c r="X11" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3117,8 +3690,17 @@
       <c r="X12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3191,8 +3773,17 @@
       <c r="X13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3265,8 +3856,17 @@
       <c r="X14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3339,8 +3939,17 @@
       <c r="X15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3413,8 +4022,17 @@
       <c r="X16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3487,8 +4105,17 @@
       <c r="X17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3561,8 +4188,17 @@
       <c r="X18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3635,8 +4271,17 @@
       <c r="X19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3709,8 +4354,17 @@
       <c r="X20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3783,8 +4437,17 @@
       <c r="X21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3857,8 +4520,17 @@
       <c r="X22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3931,8 +4603,17 @@
       <c r="X23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -4003,6 +4684,264 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4017,7 +4956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4025,7 +4964,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4095,8 +5034,17 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4169,8 +5117,17 @@
       <c r="X2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4243,8 +5200,17 @@
       <c r="X3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4317,8 +5283,17 @@
       <c r="X4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4391,8 +5366,17 @@
       <c r="X5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4465,8 +5449,17 @@
       <c r="X6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4539,8 +5532,17 @@
       <c r="X7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4613,8 +5615,17 @@
       <c r="X8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4687,8 +5698,17 @@
       <c r="X9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4761,8 +5781,17 @@
       <c r="X10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4835,8 +5864,17 @@
       <c r="X11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4909,8 +5947,17 @@
       <c r="X12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4983,8 +6030,17 @@
       <c r="X13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -5057,8 +6113,17 @@
       <c r="X14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -5131,8 +6196,17 @@
       <c r="X15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -5205,8 +6279,17 @@
       <c r="X16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -5279,8 +6362,17 @@
       <c r="X17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -5353,8 +6445,17 @@
       <c r="X18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -5427,8 +6528,17 @@
       <c r="X19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -5501,8 +6611,17 @@
       <c r="X20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -5575,8 +6694,17 @@
       <c r="X21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -5649,8 +6777,17 @@
       <c r="X22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -5723,8 +6860,17 @@
       <c r="X23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -5795,6 +6941,264 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -7,8 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="2006-9-15_2008-9-15" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2010-6-30_2012-6-30" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Full Period" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2006-9-15_2008-9-15_RANK" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2010-6-30_2012-6-30" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2010-6-30_2012-6-30_RANK" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Full Period" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Full Period_RANK" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -94,6 +97,24 @@
   </si>
   <si>
     <t>OBS:AV</t>
+  </si>
+  <si>
+    <t>PEL:IM</t>
+  </si>
+  <si>
+    <t>PMI:IM</t>
+  </si>
+  <si>
+    <t>POP:SM</t>
+  </si>
+  <si>
+    <t>RBI:AV</t>
+  </si>
+  <si>
+    <t>SAB:SM</t>
+  </si>
+  <si>
+    <t>Number of Connections</t>
   </si>
 </sst>
 </file>
@@ -442,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +471,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,8 +550,23 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,8 +648,23 @@
       <c r="AA2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -695,8 +746,23 @@
       <c r="AA3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -778,8 +844,23 @@
       <c r="AA4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -861,8 +942,23 @@
       <c r="AA5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -944,8 +1040,23 @@
       <c r="AA6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1027,8 +1138,23 @@
       <c r="AA7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1110,8 +1236,23 @@
       <c r="AA8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1193,8 +1334,23 @@
       <c r="AA9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1276,8 +1432,23 @@
       <c r="AA10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1359,8 +1530,23 @@
       <c r="AA11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1442,8 +1628,23 @@
       <c r="AA12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1525,8 +1726,23 @@
       <c r="AA13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1608,8 +1824,23 @@
       <c r="AA14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1691,8 +1922,23 @@
       <c r="AA15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1774,8 +2020,23 @@
       <c r="AA16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1857,8 +2118,23 @@
       <c r="AA17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1940,8 +2216,23 @@
       <c r="AA18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2023,8 +2314,23 @@
       <c r="AA19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2106,8 +2412,23 @@
       <c r="AA20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2189,8 +2510,23 @@
       <c r="AA21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2272,8 +2608,23 @@
       <c r="AA22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2355,8 +2706,23 @@
       <c r="AA23" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2438,8 +2804,23 @@
       <c r="AA24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2521,8 +2902,23 @@
       <c r="AA25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2604,8 +3000,23 @@
       <c r="AA26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2685,6 +3096,511 @@
         <v>1</v>
       </c>
       <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,7 +3615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2707,2241 +3623,256 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4956,7 +3887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4964,7 +3895,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5043,8 +3974,23 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5055,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -5064,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -5088,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -5109,25 +4055,40 @@
         <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5141,13 +4102,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -5162,10 +4123,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -5174,16 +4135,16 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -5209,13 +4170,28 @@
       <c r="AA3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -5227,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5292,8 +4268,23 @@
       <c r="AA4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5313,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -5358,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
         <v>1</v>
@@ -5375,13 +4366,28 @@
       <c r="AA5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -5390,55 +4396,55 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -5458,8 +4464,23 @@
       <c r="AA6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -5470,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -5518,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -5541,8 +4562,23 @@
       <c r="AA7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -5622,10 +4658,25 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5660,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -5669,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -5681,16 +4732,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -5707,8 +4758,23 @@
       <c r="AA9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -5728,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -5767,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>1</v>
@@ -5782,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -5790,8 +4856,23 @@
       <c r="AA10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -5841,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -5862,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -5873,8 +4954,23 @@
       <c r="AA11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -5885,16 +4981,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -5918,13 +5014,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -5936,10 +5032,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -5956,8 +5052,23 @@
       <c r="AA12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -5968,16 +5079,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -6001,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -6010,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -6025,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -6039,13 +5150,28 @@
       <c r="AA13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -6084,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -6122,8 +5248,23 @@
       <c r="AA14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -6143,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -6185,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -6197,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -6205,8 +5346,23 @@
       <c r="AA15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -6241,13 +5397,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>1</v>
@@ -6262,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -6288,19 +5444,34 @@
       <c r="AA16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -6309,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -6324,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -6351,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -6363,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -6371,8 +5542,23 @@
       <c r="AA17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -6383,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -6392,13 +5578,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -6407,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -6416,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -6428,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -6437,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -6446,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
@@ -6454,8 +5640,23 @@
       <c r="AA18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -6469,10 +5670,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -6484,28 +5685,28 @@
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>1</v>
@@ -6517,10 +5718,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -6537,19 +5738,34 @@
       <c r="AA19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -6558,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -6567,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -6591,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -6620,8 +5836,23 @@
       <c r="AA20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -6665,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -6695,16 +5926,31 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -6715,10 +5961,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -6733,13 +5979,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -6748,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -6757,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -6786,8 +6032,23 @@
       <c r="AA22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -6804,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -6869,8 +6130,23 @@
       <c r="AA23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -6890,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -6926,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -6952,8 +6228,23 @@
       <c r="AA24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -7035,8 +6326,23 @@
       <c r="AA25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -7095,10 +6401,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -7118,8 +6424,23 @@
       <c r="AA26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -7130,10 +6451,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -7142,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -7163,13 +6484,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -7178,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -7199,6 +6520,4207 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:32">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>SAB:SM</t>
+  </si>
+  <si>
+    <t>SAN:SM</t>
+  </si>
+  <si>
+    <t>TATT:GA</t>
+  </si>
+  <si>
+    <t>TPEIR:GA</t>
+  </si>
+  <si>
+    <t>TUB:GR</t>
+  </si>
+  <si>
+    <t>UBI:IM</t>
   </si>
   <si>
     <t>Number of Connections</t>
@@ -463,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AK37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +486,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:37">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,8 +580,23 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,8 +693,23 @@
       <c r="AF2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -761,8 +806,23 @@
       <c r="AF3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -859,8 +919,23 @@
       <c r="AF4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -957,8 +1032,23 @@
       <c r="AF5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1055,8 +1145,23 @@
       <c r="AF6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1153,8 +1258,23 @@
       <c r="AF7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1251,8 +1371,23 @@
       <c r="AF8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1349,8 +1484,23 @@
       <c r="AF9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1447,8 +1597,23 @@
       <c r="AF10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1545,8 +1710,23 @@
       <c r="AF11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1643,8 +1823,23 @@
       <c r="AF12" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1741,8 +1936,23 @@
       <c r="AF13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1839,8 +2049,23 @@
       <c r="AF14" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1937,8 +2162,23 @@
       <c r="AF15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2035,8 +2275,23 @@
       <c r="AF16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2133,8 +2388,23 @@
       <c r="AF17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2231,8 +2501,23 @@
       <c r="AF18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2329,8 +2614,23 @@
       <c r="AF19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2427,8 +2727,23 @@
       <c r="AF20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2525,8 +2840,23 @@
       <c r="AF21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2623,8 +2953,23 @@
       <c r="AF22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2721,8 +3066,23 @@
       <c r="AF23" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2819,8 +3179,23 @@
       <c r="AF24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2917,8 +3292,23 @@
       <c r="AF25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -3015,8 +3405,23 @@
       <c r="AF26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3113,8 +3518,23 @@
       <c r="AF27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -3211,8 +3631,23 @@
       <c r="AF28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -3309,8 +3744,23 @@
       <c r="AF29" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -3407,8 +3857,23 @@
       <c r="AF30" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -3505,8 +3970,23 @@
       <c r="AF31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -3601,6 +4081,586 @@
         <v>0</v>
       </c>
       <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3615,7 +4675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3625,7 +4685,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3633,7 +4693,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3641,7 +4701,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3649,7 +4709,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3657,7 +4717,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3665,52 +4725,52 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>3</v>
@@ -3718,7 +4778,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n">
         <v>3</v>
@@ -3726,23 +4786,23 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16" t="n">
         <v>2</v>
@@ -3750,7 +4810,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -3758,87 +4818,87 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -3846,7 +4906,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -3854,7 +4914,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -3862,7 +4922,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -3870,9 +4930,49 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3887,7 +4987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AK37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3895,7 +4995,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:37">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3989,8 +5089,23 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4087,8 +5202,23 @@
       <c r="AF2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4185,8 +5315,23 @@
       <c r="AF3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4283,8 +5428,23 @@
       <c r="AF4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4381,8 +5541,23 @@
       <c r="AF5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4479,8 +5654,23 @@
       <c r="AF6" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4577,8 +5767,23 @@
       <c r="AF7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4675,8 +5880,23 @@
       <c r="AF8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4773,8 +5993,23 @@
       <c r="AF9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4871,8 +6106,23 @@
       <c r="AF10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4969,8 +6219,23 @@
       <c r="AF11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -5067,8 +6332,23 @@
       <c r="AF12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -5165,8 +6445,23 @@
       <c r="AF13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -5263,8 +6558,23 @@
       <c r="AF14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -5361,8 +6671,23 @@
       <c r="AF15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -5459,8 +6784,23 @@
       <c r="AF16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -5557,8 +6897,23 @@
       <c r="AF17" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -5655,8 +7010,23 @@
       <c r="AF18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -5753,8 +7123,23 @@
       <c r="AF19" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -5851,8 +7236,23 @@
       <c r="AF20" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -5949,8 +7349,23 @@
       <c r="AF21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -6047,8 +7462,23 @@
       <c r="AF22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -6145,8 +7575,23 @@
       <c r="AF23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -6243,8 +7688,23 @@
       <c r="AF24" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -6341,8 +7801,23 @@
       <c r="AF25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -6439,8 +7914,23 @@
       <c r="AF26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -6537,8 +8027,23 @@
       <c r="AF27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -6635,8 +8140,23 @@
       <c r="AF28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -6733,8 +8253,23 @@
       <c r="AF29" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -6831,8 +8366,23 @@
       <c r="AF30" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AG30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -6929,8 +8479,23 @@
       <c r="AF31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -7025,6 +8590,586 @@
         <v>0</v>
       </c>
       <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7039,7 +9184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7049,7 +9194,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7057,7 +9202,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7065,23 +9210,23 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7089,7 +9234,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7097,7 +9242,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7105,12 +9250,12 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>4</v>
@@ -7118,7 +9263,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -7126,10 +9271,10 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7137,39 +9282,39 @@
         <v>28</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7182,7 +9327,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -7190,7 +9335,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -7198,39 +9343,39 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -7238,7 +9383,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -7246,7 +9391,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -7254,7 +9399,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -7262,7 +9407,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -7270,7 +9415,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -7278,7 +9423,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -7286,7 +9431,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -7294,9 +9439,49 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7311,7 +9496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AK37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7319,7 +9504,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:37">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7413,8 +9598,23 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7511,8 +9711,23 @@
       <c r="AF2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -7609,8 +9824,23 @@
       <c r="AF3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -7707,8 +9937,23 @@
       <c r="AF4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -7805,8 +10050,23 @@
       <c r="AF5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -7903,8 +10163,23 @@
       <c r="AF6" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -8001,8 +10276,23 @@
       <c r="AF7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -8099,8 +10389,23 @@
       <c r="AF8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -8197,8 +10502,23 @@
       <c r="AF9" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -8295,8 +10615,23 @@
       <c r="AF10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -8393,8 +10728,23 @@
       <c r="AF11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -8491,8 +10841,23 @@
       <c r="AF12" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -8589,8 +10954,23 @@
       <c r="AF13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -8687,8 +11067,23 @@
       <c r="AF14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -8785,8 +11180,23 @@
       <c r="AF15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -8883,8 +11293,23 @@
       <c r="AF16" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -8981,8 +11406,23 @@
       <c r="AF17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -9079,8 +11519,23 @@
       <c r="AF18" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -9177,8 +11632,23 @@
       <c r="AF19" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -9275,8 +11745,23 @@
       <c r="AF20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -9373,8 +11858,23 @@
       <c r="AF21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -9471,8 +11971,23 @@
       <c r="AF22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -9569,8 +12084,23 @@
       <c r="AF23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -9667,8 +12197,23 @@
       <c r="AF24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -9765,8 +12310,23 @@
       <c r="AF25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -9863,8 +12423,23 @@
       <c r="AF26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -9961,8 +12536,23 @@
       <c r="AF27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -10059,8 +12649,23 @@
       <c r="AF28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -10157,8 +12762,23 @@
       <c r="AF29" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -10255,8 +12875,23 @@
       <c r="AF30" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -10353,8 +12988,23 @@
       <c r="AF31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AG31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -10449,6 +13099,586 @@
         <v>0</v>
       </c>
       <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10463,7 +13693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10473,23 +13703,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10497,7 +13727,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10505,7 +13735,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10513,55 +13743,55 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10569,15 +13799,15 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10598,15 +13828,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" t="n">
         <v>3</v>
@@ -10622,7 +13852,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B20" t="n">
         <v>3</v>
@@ -10638,39 +13868,39 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B26" t="n">
         <v>2</v>
@@ -10678,49 +13908,89 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -75,6 +75,9 @@
     <t>CVAL:IM</t>
   </si>
   <si>
+    <t>DEXB:BB</t>
+  </si>
+  <si>
     <t>DPB:GR</t>
   </si>
   <si>
@@ -127,6 +130,9 @@
   </si>
   <si>
     <t>UBI:IM</t>
+  </si>
+  <si>
+    <t>UCG:IM</t>
   </si>
   <si>
     <t>Number of Connections</t>
@@ -478,7 +484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK37"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +492,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:39">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,8 +601,14 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:37">
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -694,22 +706,28 @@
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:37">
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -821,8 +839,14 @@
       <c r="AK3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:37">
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -934,8 +958,14 @@
       <c r="AK4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:37">
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1036,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
@@ -1047,8 +1077,14 @@
       <c r="AK5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:37">
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1160,8 +1196,14 @@
       <c r="AK6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:37">
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1223,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
@@ -1232,22 +1274,22 @@
         <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1259,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>1</v>
@@ -1268,13 +1310,19 @@
         <v>1</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:37">
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1386,8 +1434,14 @@
       <c r="AK8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:37">
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1446,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1499,8 +1553,14 @@
       <c r="AK9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:37">
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1568,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1583,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1598,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>1</v>
@@ -1607,13 +1667,19 @@
         <v>1</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:37">
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1725,8 +1791,14 @@
       <c r="AK11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:37">
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1788,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1800,25 +1872,25 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>1</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
         <v>1</v>
@@ -1827,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
@@ -1836,10 +1908,16 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1910,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -1940,19 +2018,25 @@
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37">
+        <v>1</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2044,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
@@ -2053,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
@@ -2062,10 +2146,16 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2130,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -2166,19 +2256,25 @@
         <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>1</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:37">
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2279,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
@@ -2290,8 +2386,14 @@
       <c r="AK16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:37">
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2403,8 +2505,14 @@
       <c r="AK17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:37">
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2516,8 +2624,14 @@
       <c r="AK18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:37">
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2629,8 +2743,14 @@
       <c r="AK19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:37">
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2698,10 +2818,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2713,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -2734,16 +2854,22 @@
         <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" t="n">
         <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37">
+        <v>1</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2781,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2814,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2829,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -2855,8 +2981,14 @@
       <c r="AK21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:37">
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,28 +3100,34 @@
       <c r="AK22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:37">
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2998,13 +3136,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3013,10 +3151,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -3031,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3046,25 +3184,25 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -3079,36 +3217,42 @@
         <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -3117,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -3129,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -3147,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -3162,25 +3306,25 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24" t="n">
         <v>0</v>
@@ -3194,8 +3338,14 @@
       <c r="AK24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:37">
+      <c r="AL24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3221,10 +3371,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -3233,13 +3383,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -3263,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3272,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -3307,8 +3457,14 @@
       <c r="AK25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:37">
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -3346,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -3376,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -3388,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
@@ -3415,13 +3571,19 @@
         <v>0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:37">
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3489,16 +3651,16 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -3531,10 +3693,16 @@
         <v>0</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37">
+        <v>1</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -3569,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -3605,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -3614,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" t="n">
         <v>0</v>
@@ -3646,13 +3814,19 @@
       <c r="AK28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:37">
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -3682,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3759,13 +3933,19 @@
       <c r="AK29" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:37">
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -3798,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3825,10 +4005,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3861,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="n">
         <v>0</v>
@@ -3872,8 +4052,14 @@
       <c r="AK30" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:37">
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -3911,19 +4097,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3941,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3977,16 +4163,22 @@
         <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:37">
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -4003,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -4024,19 +4216,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4054,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -4063,13 +4255,13 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
         <v>0</v>
@@ -4087,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ32" t="n">
         <v>0</v>
@@ -4098,8 +4290,14 @@
       <c r="AK32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:37">
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -4116,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -4170,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -4179,13 +4377,13 @@
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -4203,16 +4401,22 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:37">
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -4250,13 +4454,13 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -4324,8 +4528,14 @@
       <c r="AK34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:37">
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -4420,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="n">
         <v>0</v>
@@ -4437,8 +4647,14 @@
       <c r="AK35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:37">
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -4482,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -4536,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH36" t="n">
         <v>0</v>
@@ -4550,8 +4766,14 @@
       <c r="AK36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:37">
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -4589,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -4655,12 +4877,256 @@
         <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" t="n">
         <v>0</v>
       </c>
       <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4675,7 +5141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4685,7 +5151,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4693,15 +5159,15 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4714,10 +5180,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4725,7 +5191,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4738,7 +5204,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B8" t="n">
         <v>5</v>
@@ -4746,7 +5212,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
         <v>5</v>
@@ -4762,7 +5228,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
@@ -4770,15 +5236,15 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
         <v>3</v>
@@ -4786,7 +5252,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -4794,7 +5260,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
@@ -4802,15 +5268,15 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -4818,7 +5284,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -4826,7 +5292,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -4834,7 +5300,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -4842,7 +5308,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -4850,10 +5316,10 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4866,7 +5332,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -4874,7 +5340,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -4882,7 +5348,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -4890,7 +5356,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -4898,23 +5364,23 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -4930,7 +5396,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -4938,7 +5404,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -4946,7 +5412,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -4954,7 +5420,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -4962,7 +5428,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -4970,9 +5436,25 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4987,7 +5469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK37"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4995,7 +5477,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:39">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5104,8 +5586,14 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:37">
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5167,10 +5655,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -5217,8 +5705,14 @@
       <c r="AK2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:37">
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5277,13 +5771,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -5292,13 +5786,13 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -5307,19 +5801,19 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
@@ -5328,10 +5822,16 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5443,8 +5943,14 @@
       <c r="AK4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:37">
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5509,13 +6015,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -5548,16 +6054,22 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:37">
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5619,10 +6131,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -5631,13 +6143,13 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
         <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -5646,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -5658,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -5669,8 +6181,14 @@
       <c r="AK6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:37">
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -5768,10 +6286,10 @@
         <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
@@ -5782,8 +6300,14 @@
       <c r="AK7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:37">
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -5895,8 +6419,14 @@
       <c r="AK8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:37">
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -6008,8 +6538,14 @@
       <c r="AK9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:37">
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -6071,10 +6607,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -6083,10 +6619,10 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -6121,8 +6657,14 @@
       <c r="AK10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:37">
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -6193,10 +6735,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -6234,8 +6776,14 @@
       <c r="AK11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:37">
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -6347,8 +6895,14 @@
       <c r="AK12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:37">
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -6460,8 +7014,14 @@
       <c r="AK13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:37">
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -6573,8 +7133,14 @@
       <c r="AK14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:37">
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -6686,8 +7252,14 @@
       <c r="AK15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:37">
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -6749,10 +7321,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -6761,22 +7333,22 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -6785,10 +7357,10 @@
         <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
@@ -6797,10 +7369,16 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -6859,13 +7437,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -6874,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -6886,22 +7464,22 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
         <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
@@ -6910,10 +7488,16 @@
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -7025,8 +7609,14 @@
       <c r="AK18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:37">
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -7100,34 +7690,34 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
@@ -7138,19 +7728,25 @@
       <c r="AK19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:37">
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -7159,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -7168,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -7183,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -7192,7 +7788,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -7213,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -7234,10 +7830,10 @@
         <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
@@ -7251,19 +7847,25 @@
       <c r="AK20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:37">
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -7272,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -7281,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -7305,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -7329,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
@@ -7344,16 +7946,16 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" t="n">
         <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
@@ -7364,8 +7966,14 @@
       <c r="AK21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:37">
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -7472,13 +8080,19 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:37">
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -7495,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -7588,10 +8202,16 @@
         <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -7608,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -7623,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -7647,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -7665,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -7686,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
         <v>0</v>
@@ -7703,8 +8323,14 @@
       <c r="AK24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:37">
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -7736,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -7760,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -7781,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -7802,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25" t="n">
         <v>0</v>
@@ -7816,8 +8442,14 @@
       <c r="AK25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:37">
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -7861,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -7929,8 +8561,14 @@
       <c r="AK26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:37">
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -7974,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -8042,8 +8680,14 @@
       <c r="AK27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:37">
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -8051,16 +8695,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -8069,25 +8713,25 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -8105,22 +8749,22 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -8129,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -8141,10 +8785,10 @@
         <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
         <v>0</v>
@@ -8155,8 +8799,14 @@
       <c r="AK28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:37">
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -8167,13 +8817,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -8182,25 +8832,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -8221,22 +8871,22 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -8245,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -8257,10 +8907,10 @@
         <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" t="n">
         <v>0</v>
@@ -8268,8 +8918,14 @@
       <c r="AK29" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:37">
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -8277,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -8301,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -8328,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -8364,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="n">
         <v>0</v>
@@ -8381,8 +9037,14 @@
       <c r="AK30" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:37">
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -8414,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -8426,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -8480,10 +9142,10 @@
         <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
@@ -8494,8 +9156,14 @@
       <c r="AK31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:37">
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -8539,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -8607,8 +9275,14 @@
       <c r="AK32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:37">
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -8720,8 +9394,14 @@
       <c r="AK33" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:37">
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -8738,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -8828,13 +9508,19 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:37">
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -8851,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -8935,19 +9621,25 @@
         <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" t="n">
         <v>0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37">
+        <v>1</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -9051,16 +9743,22 @@
         <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ36" t="n">
         <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:37">
+        <v>1</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -9071,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -9158,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH37" t="n">
         <v>0</v>
@@ -9170,6 +9868,250 @@
         <v>0</v>
       </c>
       <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9184,7 +10126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9194,15 +10136,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9210,7 +10152,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9218,7 +10160,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9226,20 +10168,20 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>9</v>
@@ -9250,15 +10192,15 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9266,12 +10208,12 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
@@ -9279,31 +10221,31 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
@@ -9311,7 +10253,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
         <v>2</v>
@@ -9319,34 +10261,34 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9359,7 +10301,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -9367,7 +10309,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -9375,47 +10317,47 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -9423,7 +10365,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -9431,7 +10373,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -9439,7 +10381,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -9447,7 +10389,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -9455,7 +10397,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -9463,7 +10405,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -9471,7 +10413,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -9479,9 +10421,25 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9496,7 +10454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK37"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9504,7 +10462,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:39">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9613,8 +10571,14 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:37">
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9676,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -9685,16 +10649,16 @@
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -9712,22 +10676,28 @@
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:37">
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -9789,10 +10759,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -9801,16 +10771,16 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
         <v>1</v>
@@ -9828,7 +10798,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
@@ -9837,10 +10807,16 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -9952,8 +10928,14 @@
       <c r="AK4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:37">
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -10021,10 +11003,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -10065,8 +11047,14 @@
       <c r="AK5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:37">
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -10140,16 +11128,16 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
         <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
         <v>1</v>
@@ -10158,16 +11146,16 @@
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -10176,10 +11164,16 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -10238,10 +11232,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -10271,10 +11265,10 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -10291,8 +11285,14 @@
       <c r="AK7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:37">
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -10372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -10404,8 +11404,14 @@
       <c r="AK8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:37">
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -10467,13 +11473,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -10488,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>1</v>
@@ -10497,13 +11503,13 @@
         <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -10515,10 +11521,16 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -10577,13 +11589,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -10630,8 +11642,14 @@
       <c r="AK10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:37">
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -10738,13 +11756,19 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37">
+        <v>1</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -10806,13 +11830,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -10827,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>1</v>
@@ -10836,10 +11860,10 @@
         <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
         <v>1</v>
@@ -10851,13 +11875,19 @@
         <v>1</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:37">
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -10925,10 +11955,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -10955,22 +11985,28 @@
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:37">
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -11082,8 +12118,14 @@
       <c r="AK14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:37">
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -11145,10 +12187,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -11157,10 +12199,10 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -11195,8 +12237,14 @@
       <c r="AK15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:37">
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -11258,10 +12306,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -11270,19 +12318,19 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -11297,7 +12345,7 @@
         <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
@@ -11306,10 +12354,16 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -11419,10 +12473,16 @@
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -11487,25 +12547,25 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
         <v>1</v>
@@ -11514,28 +12574,34 @@
         <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
         <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -11597,28 +12663,28 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
         <v>1</v>
@@ -11627,16 +12693,16 @@
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
@@ -11645,111 +12711,117 @@
         <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
@@ -11760,8 +12832,14 @@
       <c r="AK20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:37">
+      <c r="AL20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -11805,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -11835,7 +12913,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
         <v>1</v>
@@ -11873,8 +12951,14 @@
       <c r="AK21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:37">
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -11885,10 +12969,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -11903,13 +12987,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -11927,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -11951,10 +13035,10 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
@@ -11972,22 +13056,28 @@
         <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
         <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -11998,10 +13088,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -12016,13 +13106,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -12031,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -12040,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -12088,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
@@ -12097,10 +13187,16 @@
         <v>1</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -12120,7 +13216,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -12132,7 +13228,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -12174,7 +13270,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -12210,10 +13306,16 @@
         <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37">
+        <v>1</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -12233,7 +13335,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -12245,7 +13347,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -12290,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -12325,8 +13427,14 @@
       <c r="AK25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:37">
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -12370,7 +13478,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -12385,10 +13493,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -12438,8 +13546,14 @@
       <c r="AK26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:37">
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -12450,10 +13564,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -12462,7 +13576,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -12489,7 +13603,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -12498,13 +13612,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -12522,7 +13636,7 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
@@ -12551,8 +13665,14 @@
       <c r="AK27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:37">
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -12560,22 +13680,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -12584,13 +13704,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -12599,16 +13719,16 @@
         <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -12617,19 +13737,19 @@
         <v>1</v>
       </c>
       <c r="V28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -12653,19 +13773,25 @@
         <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ28" t="n">
         <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -12673,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -12682,7 +13808,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -12697,22 +13823,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -12721,31 +13847,31 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -12754,13 +13880,13 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
@@ -12769,16 +13895,22 @@
         <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:37">
+      <c r="AL29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -12789,7 +13921,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -12798,13 +13930,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -12843,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -12855,7 +13987,7 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -12876,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30" t="n">
         <v>0</v>
@@ -12890,8 +14022,14 @@
       <c r="AK30" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:37">
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -12902,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -12917,10 +14055,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -12935,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -12953,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -12965,16 +14103,16 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
@@ -12989,7 +14127,7 @@
         <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="n">
         <v>0</v>
@@ -13003,19 +14141,25 @@
       <c r="AK31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:37">
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -13024,7 +14168,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -13033,7 +14177,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -13048,7 +14192,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -13069,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -13081,16 +14225,16 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -13105,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI32" t="n">
         <v>0</v>
@@ -13116,28 +14260,34 @@
       <c r="AK32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:37">
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -13229,8 +14379,14 @@
       <c r="AK33" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:37">
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -13241,7 +14397,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -13250,7 +14406,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -13337,13 +14493,19 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:37">
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -13360,7 +14522,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -13378,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -13396,7 +14558,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -13450,13 +14612,19 @@
         <v>0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37">
+        <v>1</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -13491,7 +14659,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -13509,7 +14677,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -13566,10 +14734,16 @@
         <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:37">
+        <v>1</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -13580,7 +14754,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -13589,7 +14763,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -13634,7 +14808,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -13673,12 +14847,256 @@
         <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" t="n">
         <v>0</v>
       </c>
       <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13693,7 +15111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13703,31 +15121,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -13735,23 +15153,23 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -13759,15 +15177,15 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -13775,100 +15193,100 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="n">
         <v>8</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B22" t="n">
         <v>3</v>
@@ -13876,7 +15294,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B23" t="n">
         <v>3</v>
@@ -13884,7 +15302,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="n">
         <v>3</v>
@@ -13892,7 +15310,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B25" t="n">
         <v>3</v>
@@ -13900,23 +15318,23 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B28" t="n">
         <v>2</v>
@@ -13924,7 +15342,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B29" t="n">
         <v>2</v>
@@ -13932,7 +15350,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B30" t="n">
         <v>2</v>
@@ -13940,7 +15358,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>2</v>
@@ -13948,23 +15366,23 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -13972,7 +15390,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -13980,17 +15398,33 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>ACA:FP</t>
   </si>
   <si>
     <t>AKTAV:FH</t>
+  </si>
+  <si>
+    <t>ALPHA:GA</t>
   </si>
   <si>
     <t>BBVA:SM</t>
@@ -484,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM39"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +495,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,8 +610,11 @@
       <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:39">
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -709,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -726,8 +732,11 @@
       <c r="AM2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:39">
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -845,8 +854,11 @@
       <c r="AM3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:39">
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -964,8 +976,11 @@
       <c r="AM4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:39">
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1069,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
@@ -1083,8 +1098,11 @@
       <c r="AM5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:39">
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
@@ -1202,8 +1220,11 @@
       <c r="AM6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1229,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1268,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1283,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1304,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
@@ -1321,8 +1342,11 @@
       <c r="AM7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1351,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1390,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1405,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1426,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
@@ -1440,8 +1464,11 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1479,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1503,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1559,8 +1586,11 @@
       <c r="AM9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1571,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1601,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1625,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1646,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1661,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
@@ -1678,8 +1708,11 @@
       <c r="AM10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:39">
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1690,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1753,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1768,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1783,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
@@ -1797,28 +1830,31 @@
       <c r="AM11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:39">
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1827,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1842,13 +1878,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1857,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1875,31 +1911,31 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
@@ -1911,18 +1947,21 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1931,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1964,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1979,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1991,34 +2030,34 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" t="n">
         <v>1</v>
@@ -2027,16 +2066,19 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2056,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2065,13 +2107,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2113,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2131,19 +2173,19 @@
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" t="n">
         <v>0</v>
@@ -2152,10 +2194,13 @@
         <v>1</v>
       </c>
       <c r="AM14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2169,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -2178,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -2187,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2223,10 +2268,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -2253,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15" t="n">
         <v>1</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
@@ -2271,10 +2316,13 @@
         <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2285,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -2315,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2345,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -2378,13 +2426,13 @@
         <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
@@ -2392,8 +2440,11 @@
       <c r="AM16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:39">
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2500,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17" t="n">
         <v>0</v>
@@ -2511,8 +2562,11 @@
       <c r="AM17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:39">
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2630,13 +2684,16 @@
       <c r="AM18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:39">
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2651,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2672,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2681,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2749,13 +2806,16 @@
       <c r="AM19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:39">
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2773,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2788,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2803,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2821,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2854,13 +2914,13 @@
         <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
         <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
         <v>0</v>
@@ -2868,8 +2928,11 @@
       <c r="AM20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:39">
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2880,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2907,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2940,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -2955,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -2976,19 +3039,22 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:39">
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3029,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -3062,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -3077,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
@@ -3106,8 +3172,11 @@
       <c r="AM22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:39">
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3225,28 +3294,31 @@
       <c r="AM23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:39">
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -3255,13 +3327,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -3270,10 +3342,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -3291,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -3306,25 +3378,25 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
         <v>0</v>
@@ -3339,18 +3411,21 @@
         <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -3359,43 +3434,43 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3413,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3428,25 +3503,25 @@
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
@@ -3461,10 +3536,13 @@
         <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -3493,16 +3571,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -3511,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -3535,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -3544,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
@@ -3582,8 +3660,11 @@
       <c r="AM26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:39">
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3594,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -3624,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -3654,10 +3735,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -3666,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
@@ -3693,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="AK27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" t="n">
         <v>0</v>
@@ -3701,8 +3782,11 @@
       <c r="AM27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:39">
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -3773,16 +3857,16 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
         <v>0</v>
@@ -3815,13 +3899,16 @@
         <v>0</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:39">
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -3856,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3895,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
@@ -3904,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
@@ -3939,13 +4026,16 @@
       <c r="AM29" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:39">
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -3978,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -4058,13 +4148,16 @@
       <c r="AM30" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:39">
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -4097,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -4127,10 +4220,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -4163,10 +4256,10 @@
         <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
         <v>0</v>
@@ -4177,8 +4270,11 @@
       <c r="AM31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:39">
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -4189,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -4219,16 +4315,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4249,10 +4345,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -4285,10 +4381,10 @@
         <v>0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32" t="n">
         <v>0</v>
@@ -4296,8 +4392,11 @@
       <c r="AM32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:39">
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -4314,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -4335,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -4344,13 +4443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -4368,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -4377,13 +4476,13 @@
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -4401,10 +4500,10 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
@@ -4413,10 +4512,13 @@
         <v>0</v>
       </c>
       <c r="AM33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -4427,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -4436,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -4454,10 +4556,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -4490,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
@@ -4499,13 +4601,13 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
@@ -4523,10 +4625,10 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" t="n">
         <v>0</v>
@@ -4534,8 +4636,11 @@
       <c r="AM34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:39">
+      <c r="AN34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -4576,10 +4681,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -4653,8 +4758,11 @@
       <c r="AM35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:39">
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -4698,10 +4806,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -4752,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
         <v>0</v>
@@ -4772,8 +4880,11 @@
       <c r="AM36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:39">
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -4820,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -4874,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI37" t="n">
         <v>0</v>
@@ -4891,8 +5002,11 @@
       <c r="AM37" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:39">
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -4930,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -4999,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" t="n">
         <v>0</v>
@@ -5010,8 +5124,11 @@
       <c r="AM38" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:39">
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -5052,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -5082,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -5121,12 +5238,137 @@
         <v>0</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" t="n">
         <v>0</v>
       </c>
       <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5141,7 +5383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5151,12 +5393,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
         <v>19</v>
@@ -5164,7 +5406,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="n">
         <v>16</v>
@@ -5172,23 +5414,23 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
         <v>8</v>
@@ -5196,47 +5438,47 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B12" t="n">
         <v>4</v>
@@ -5244,23 +5486,23 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
@@ -5268,7 +5510,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
@@ -5284,7 +5526,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -5292,7 +5534,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -5300,7 +5542,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -5308,7 +5550,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -5316,7 +5558,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" t="n">
         <v>2</v>
@@ -5324,7 +5566,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -5340,7 +5582,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -5348,7 +5590,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -5356,7 +5598,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -5364,7 +5606,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -5372,7 +5614,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -5380,7 +5622,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -5388,7 +5630,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -5396,7 +5638,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -5404,7 +5646,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -5412,7 +5654,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -5420,7 +5662,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -5428,7 +5670,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -5436,7 +5678,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -5444,7 +5686,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -5452,9 +5694,17 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5469,7 +5719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM39"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5477,7 +5727,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5592,8 +5842,11 @@
       <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:39">
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5658,10 +5911,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -5709,10 +5962,13 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5723,10 +5979,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5738,13 +5994,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -5756,10 +6012,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -5771,16 +6027,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -5789,13 +6045,13 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -5804,19 +6060,19 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
@@ -5825,13 +6081,16 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:39">
+      <c r="AN3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5851,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -5949,8 +6208,11 @@
       <c r="AM4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:39">
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5982,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -6018,10 +6280,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -6057,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
@@ -6068,8 +6330,11 @@
       <c r="AM5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:39">
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -6104,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -6134,22 +6399,22 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -6161,16 +6426,16 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -6179,16 +6444,19 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -6199,10 +6467,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -6256,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -6268,10 +6536,10 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -6283,16 +6551,16 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7" t="n">
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
@@ -6306,8 +6574,11 @@
       <c r="AM7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="AN7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -6321,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -6411,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
@@ -6425,8 +6696,11 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -6542,10 +6816,13 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -6556,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -6589,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -6610,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -6622,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -6661,10 +6938,13 @@
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -6678,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -6711,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -6732,19 +7012,19 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -6782,8 +7062,11 @@
       <c r="AM11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:39">
+      <c r="AN11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -6860,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -6901,8 +7184,11 @@
       <c r="AM12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:39">
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -7020,8 +7306,11 @@
       <c r="AM13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:39">
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -7139,8 +7428,11 @@
       <c r="AM14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:39">
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -7258,19 +7550,22 @@
       <c r="AM15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:39">
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -7279,16 +7574,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -7297,13 +7592,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -7312,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -7324,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -7336,10 +7631,10 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -7348,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -7360,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
@@ -7372,13 +7667,16 @@
         <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -7389,43 +7687,43 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -7434,19 +7732,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -7455,19 +7753,19 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -7476,13 +7774,13 @@
         <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17" t="n">
         <v>0</v>
@@ -7491,18 +7789,21 @@
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -7511,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -7520,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -7535,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -7544,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -7559,13 +7860,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -7577,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
@@ -7589,19 +7890,19 @@
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" t="n">
         <v>0</v>
@@ -7615,8 +7916,11 @@
       <c r="AM18" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:39">
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -7627,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -7636,13 +7940,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -7669,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -7693,10 +7997,10 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -7705,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
@@ -7714,10 +8018,10 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
@@ -7732,10 +8036,13 @@
         <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -7749,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -7758,13 +8065,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -7779,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -7791,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -7815,19 +8122,19 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
@@ -7836,10 +8143,10 @@
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" t="n">
         <v>0</v>
@@ -7853,19 +8160,22 @@
       <c r="AM20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:39">
+      <c r="AN20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -7874,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -7883,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -7901,13 +8211,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -7931,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
@@ -7952,10 +8262,10 @@
         <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
@@ -7972,13 +8282,16 @@
       <c r="AM21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:39">
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -7987,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -7996,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8005,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -8029,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -8053,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
@@ -8068,16 +8381,16 @@
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" t="n">
         <v>0</v>
@@ -8091,8 +8404,11 @@
       <c r="AM22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:39">
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -8202,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
         <v>0</v>
@@ -8210,8 +8526,11 @@
       <c r="AM23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:39">
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -8228,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -8324,13 +8643,16 @@
         <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:39">
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -8350,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -8362,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -8386,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -8407,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -8428,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
         <v>0</v>
@@ -8448,8 +8770,11 @@
       <c r="AM25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:39">
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -8484,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -8508,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -8529,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
@@ -8550,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI26" t="n">
         <v>0</v>
@@ -8565,10 +8890,13 @@
         <v>0</v>
       </c>
       <c r="AM26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -8612,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -8686,8 +9014,11 @@
       <c r="AM27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:39">
+      <c r="AN27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -8734,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -8805,8 +9136,11 @@
       <c r="AM28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:39">
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -8814,16 +9148,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -8832,25 +9166,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -8871,22 +9205,22 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -8895,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -8907,10 +9241,10 @@
         <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
         <v>0</v>
@@ -8922,10 +9256,13 @@
         <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -8936,16 +9273,16 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -8954,25 +9291,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -8984,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -8993,22 +9330,22 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
@@ -9017,7 +9354,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -9029,10 +9366,10 @@
         <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30" t="n">
         <v>0</v>
@@ -9043,8 +9380,11 @@
       <c r="AM30" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:39">
+      <c r="AN30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -9052,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -9076,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -9106,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -9142,10 +9482,10 @@
         <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
@@ -9162,8 +9502,11 @@
       <c r="AM31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:39">
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -9198,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -9207,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -9264,10 +9607,10 @@
         <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32" t="n">
         <v>0</v>
@@ -9281,8 +9624,11 @@
       <c r="AM32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:39">
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -9329,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -9400,8 +9746,11 @@
       <c r="AM33" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:39">
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -9519,8 +9868,11 @@
       <c r="AM34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:39">
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -9537,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -9630,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" t="n">
         <v>0</v>
@@ -9638,8 +9990,11 @@
       <c r="AM35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:39">
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -9650,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -9659,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -9743,22 +10098,25 @@
         <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" t="n">
         <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:39">
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -9865,19 +10223,22 @@
         <v>0</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK37" t="n">
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:39">
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -9888,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -9978,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38" t="n">
         <v>0</v>
@@ -9993,15 +10354,18 @@
         <v>0</v>
       </c>
       <c r="AM38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -10022,10 +10386,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10043,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10055,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -10073,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
@@ -10100,7 +10464,7 @@
         <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ39" t="n">
         <v>0</v>
@@ -10109,9 +10473,134 @@
         <v>0</v>
       </c>
       <c r="AL39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10126,7 +10615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10136,20 +10625,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>15</v>
@@ -10165,7 +10654,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>13</v>
@@ -10173,7 +10662,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>10</v>
@@ -10181,7 +10670,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>9</v>
@@ -10189,7 +10678,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>9</v>
@@ -10197,7 +10686,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
@@ -10205,7 +10694,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>5</v>
@@ -10213,15 +10702,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>4</v>
@@ -10229,7 +10718,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="n">
         <v>3</v>
@@ -10237,7 +10726,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -10245,15 +10734,15 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="n">
         <v>2</v>
@@ -10261,7 +10750,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -10269,7 +10758,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -10277,7 +10766,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -10285,7 +10774,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -10293,7 +10782,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -10301,7 +10790,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -10309,7 +10798,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -10317,7 +10806,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -10325,7 +10814,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -10333,7 +10822,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -10341,7 +10830,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -10349,7 +10838,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -10357,15 +10846,15 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -10373,7 +10862,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -10381,7 +10870,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -10389,7 +10878,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -10397,7 +10886,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -10413,7 +10902,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -10421,7 +10910,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -10429,7 +10918,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -10437,9 +10926,17 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10454,7 +10951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM39"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10462,7 +10959,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10577,8 +11074,11 @@
       <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:39">
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10592,16 +11092,16 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10622,10 +11122,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -10643,7 +11143,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
@@ -10652,16 +11152,16 @@
         <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -10679,25 +11179,28 @@
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -10708,64 +11211,64 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -10774,16 +11277,16 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -10801,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
@@ -10810,18 +11313,21 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:39">
+      <c r="AN3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -10833,10 +11339,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -10848,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -10863,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -10872,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -10934,13 +11440,16 @@
       <c r="AM4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:39">
+      <c r="AN4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -10967,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -11006,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -11053,13 +11562,16 @@
       <c r="AM5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:39">
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -11068,22 +11580,22 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -11092,25 +11604,25 @@
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -11128,34 +11640,34 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -11167,18 +11679,21 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -11187,55 +11702,55 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -11253,19 +11768,19 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" t="n">
         <v>1</v>
@@ -11274,10 +11789,10 @@
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
@@ -11289,10 +11804,13 @@
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -11357,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -11375,7 +11893,7 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -11390,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -11410,8 +11928,11 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -11446,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -11455,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -11467,7 +11988,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -11476,10 +11997,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -11500,16 +12021,16 @@
         <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -11524,13 +12045,16 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -11541,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -11550,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -11568,16 +12092,16 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -11589,19 +12113,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -11619,19 +12143,19 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
@@ -11646,10 +12170,13 @@
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
+        <v>1</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -11660,10 +12187,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -11672,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -11696,10 +12223,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -11714,10 +12241,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -11759,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
@@ -11767,8 +12294,11 @@
       <c r="AM11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:39">
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -11779,16 +12309,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -11812,16 +12342,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -11833,10 +12363,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -11854,40 +12384,43 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -11910,7 +12443,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -11931,13 +12464,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>1</v>
@@ -11955,7 +12488,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
         <v>1</v>
@@ -11976,13 +12509,13 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -11991,45 +12524,48 @@
         <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" t="n">
         <v>1</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -12050,10 +12586,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -12062,7 +12598,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -12080,7 +12616,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -12110,13 +12646,13 @@
         <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" t="n">
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
@@ -12124,13 +12660,16 @@
       <c r="AM14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:39">
+      <c r="AN14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -12145,7 +12684,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -12172,7 +12711,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -12190,7 +12729,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -12202,7 +12741,7 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -12243,19 +12782,22 @@
       <c r="AM15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:39">
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -12264,31 +12806,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -12297,10 +12839,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -12309,10 +12851,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -12321,7 +12863,7 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>1</v>
@@ -12333,19 +12875,19 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
@@ -12357,27 +12899,30 @@
         <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -12386,31 +12931,31 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -12419,10 +12964,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -12431,7 +12976,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -12443,10 +12988,10 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -12455,19 +13000,19 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17" t="n">
         <v>0</v>
@@ -12476,13 +13021,16 @@
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -12490,10 +13038,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -12502,13 +13050,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -12517,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -12526,10 +13074,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -12538,7 +13086,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -12550,7 +13098,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -12559,7 +13107,7 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -12568,40 +13116,43 @@
         <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:39">
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -12612,22 +13163,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -12636,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -12645,40 +13196,40 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
         <v>1</v>
@@ -12687,7 +13238,7 @@
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -12696,42 +13247,45 @@
         <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
         <v>1</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19" t="n">
         <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:39">
+      <c r="AN19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -12743,28 +13297,28 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -12782,31 +13336,31 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
         <v>1</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -12818,13 +13372,13 @@
         <v>1</v>
       </c>
       <c r="AG20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" t="n">
         <v>0</v>
@@ -12833,18 +13387,21 @@
         <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:39">
+      <c r="AN20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -12853,97 +13410,97 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21" t="n">
         <v>0</v>
@@ -12955,10 +13512,13 @@
         <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -13002,7 +13562,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -13035,7 +13595,7 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
         <v>1</v>
@@ -13074,10 +13634,13 @@
         <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -13091,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -13106,13 +13669,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -13121,16 +13684,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -13157,10 +13720,10 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -13178,25 +13741,28 @@
         <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -13210,10 +13776,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -13228,13 +13794,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -13243,7 +13809,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -13252,7 +13818,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -13300,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24" t="n">
         <v>0</v>
@@ -13309,13 +13875,16 @@
         <v>1</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -13335,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -13347,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -13392,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -13428,13 +13997,16 @@
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:39">
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -13445,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -13457,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -13469,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -13514,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
@@ -13552,8 +14124,11 @@
       <c r="AM26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:39">
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -13597,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -13615,10 +14190,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -13671,8 +14246,11 @@
       <c r="AM27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:39">
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -13686,7 +14264,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -13695,7 +14273,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -13716,13 +14294,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -13734,13 +14312,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -13758,7 +14336,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -13788,10 +14366,13 @@
         <v>0</v>
       </c>
       <c r="AM28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -13799,13 +14380,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -13817,25 +14398,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -13844,10 +14425,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -13859,19 +14440,19 @@
         <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -13895,22 +14476,25 @@
         <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -13918,19 +14502,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -13945,22 +14529,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -13969,31 +14553,31 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
@@ -14002,13 +14586,13 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="n">
         <v>0</v>
@@ -14017,10 +14601,10 @@
         <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" t="n">
         <v>0</v>
@@ -14028,8 +14612,11 @@
       <c r="AM30" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:39">
+      <c r="AN30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -14043,19 +14630,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -14097,7 +14684,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -14109,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
@@ -14130,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
@@ -14147,8 +14734,11 @@
       <c r="AM31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:39">
+      <c r="AN31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -14159,7 +14749,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -14168,10 +14758,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -14192,7 +14782,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -14213,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -14225,16 +14815,16 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -14249,7 +14839,7 @@
         <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" t="n">
         <v>0</v>
@@ -14264,15 +14854,18 @@
         <v>0</v>
       </c>
       <c r="AM32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -14281,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -14290,7 +14883,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -14299,7 +14892,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -14314,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -14335,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -14347,16 +14940,16 @@
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
@@ -14371,7 +14964,7 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33" t="n">
         <v>0</v>
@@ -14385,28 +14978,31 @@
       <c r="AM33" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:39">
+      <c r="AN33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -14504,8 +15100,11 @@
       <c r="AM34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:39">
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -14519,16 +15118,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -14615,7 +15214,7 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" t="n">
         <v>0</v>
@@ -14623,8 +15222,11 @@
       <c r="AM35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:39">
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -14635,7 +15237,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -14644,7 +15246,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -14659,7 +15261,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -14677,7 +15279,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -14734,16 +15336,19 @@
         <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -14781,7 +15386,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -14799,7 +15404,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -14856,13 +15461,16 @@
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:39">
+      <c r="AN37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -14873,7 +15481,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -14882,7 +15490,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -14930,7 +15538,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -14969,7 +15577,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" t="n">
         <v>0</v>
@@ -14980,8 +15588,11 @@
       <c r="AM38" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:39">
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -14995,16 +15606,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -15025,7 +15636,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -15043,7 +15654,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -15052,7 +15663,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -15061,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="n">
         <v>0</v>
@@ -15091,12 +15702,137 @@
         <v>0</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" t="n">
         <v>0</v>
       </c>
       <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15111,7 +15847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15121,12 +15857,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="n">
         <v>27</v>
@@ -15142,7 +15878,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="n">
         <v>23</v>
@@ -15150,15 +15886,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>21</v>
@@ -15166,23 +15902,23 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>16</v>
@@ -15190,15 +15926,15 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B11" t="n">
         <v>11</v>
@@ -15206,7 +15942,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n">
         <v>11</v>
@@ -15214,7 +15950,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
         <v>10</v>
@@ -15222,15 +15958,15 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
         <v>8</v>
@@ -15238,15 +15974,15 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
@@ -15254,23 +15990,23 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" t="n">
         <v>4</v>
@@ -15278,7 +16014,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" t="n">
         <v>4</v>
@@ -15286,39 +16022,39 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B26" t="n">
         <v>3</v>
@@ -15326,7 +16062,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B27" t="n">
         <v>3</v>
@@ -15334,10 +16070,10 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -15345,12 +16081,12 @@
         <v>33</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B30" t="n">
         <v>2</v>
@@ -15358,7 +16094,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="n">
         <v>2</v>
@@ -15366,7 +16102,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B32" t="n">
         <v>2</v>
@@ -15374,7 +16110,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
@@ -15382,15 +16118,15 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -15398,7 +16134,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -15406,7 +16142,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -15414,17 +16150,25 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>ACA:FP</t>
   </si>
   <si>
     <t>AKTAV:FH</t>
+  </si>
+  <si>
+    <t>ALBAV:FH</t>
   </si>
   <si>
     <t>ALPHA:GA</t>
@@ -487,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +498,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,8 +616,11 @@
       <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:40">
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -688,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -718,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -735,8 +741,11 @@
       <c r="AN2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:40">
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -857,8 +866,11 @@
       <c r="AN3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:40">
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -979,8 +991,11 @@
       <c r="AN4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:40">
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1101,8 +1116,11 @@
       <c r="AN5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:40">
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1209,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
@@ -1223,8 +1241,11 @@
       <c r="AN6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:40">
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
@@ -1345,8 +1366,11 @@
       <c r="AN7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:40">
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1357,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1375,13 +1399,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1414,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1429,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1450,13 +1474,13 @@
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
@@ -1467,8 +1491,11 @@
       <c r="AN8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:40">
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1482,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1500,13 +1527,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1539,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -1554,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
@@ -1575,13 +1602,13 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -1589,8 +1616,11 @@
       <c r="AN9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:40">
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1631,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1655,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1711,8 +1741,11 @@
       <c r="AN10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:40">
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1723,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1756,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1780,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1801,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1816,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
@@ -1833,8 +1866,11 @@
       <c r="AN11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:40">
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1848,10 +1884,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1911,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -1926,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
@@ -1941,13 +1977,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
@@ -1955,13 +1991,16 @@
       <c r="AN12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:40">
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1970,16 +2009,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1988,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2003,13 +2042,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -2018,10 +2057,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -2036,31 +2075,31 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
@@ -2072,39 +2111,42 @@
         <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -2128,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -2143,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -2155,34 +2197,34 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" t="n">
         <v>1</v>
@@ -2191,16 +2233,19 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>1</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2223,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -2232,13 +2277,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2280,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2298,19 +2343,19 @@
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" t="n">
         <v>0</v>
@@ -2319,10 +2364,13 @@
         <v>1</v>
       </c>
       <c r="AN15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2333,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2348,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -2357,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2393,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -2423,16 +2471,16 @@
         <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" t="n">
         <v>1</v>
       </c>
       <c r="AK16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
@@ -2441,10 +2489,13 @@
         <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40">
+        <v>1</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2458,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -2488,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2518,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -2551,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
@@ -2565,8 +2616,11 @@
       <c r="AN17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:40">
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2676,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" t="n">
         <v>0</v>
@@ -2687,8 +2741,11 @@
       <c r="AN18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:40">
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2809,13 +2866,16 @@
       <c r="AN19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:40">
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2833,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2854,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2863,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2931,19 +2991,22 @@
       <c r="AN20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:40">
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2958,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2973,13 +3036,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2988,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -3006,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -3039,13 +3102,13 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -3053,8 +3116,11 @@
       <c r="AN21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:40">
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3068,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -3095,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -3128,10 +3194,10 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -3143,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
@@ -3164,19 +3230,22 @@
         <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" t="n">
         <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:40">
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3220,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -3253,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -3268,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
@@ -3297,8 +3366,11 @@
       <c r="AN23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:40">
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -3419,13 +3491,16 @@
       <c r="AN24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:40">
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -3434,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -3452,13 +3527,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -3467,10 +3542,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3488,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3503,25 +3578,25 @@
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
@@ -3536,18 +3611,21 @@
         <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -3559,43 +3637,43 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -3613,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -3628,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26" t="n">
         <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26" t="n">
         <v>0</v>
@@ -3661,10 +3739,13 @@
         <v>0</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40">
+        <v>1</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3675,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -3696,16 +3777,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -3714,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -3738,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -3747,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
@@ -3785,8 +3866,11 @@
       <c r="AN27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:40">
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -3800,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -3830,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3860,10 +3944,10 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -3872,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -3899,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" t="n">
         <v>0</v>
@@ -3907,8 +3991,11 @@
       <c r="AN28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:40">
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -3982,16 +4069,16 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
@@ -4024,13 +4111,16 @@
         <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN29" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:40">
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -4068,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -4107,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -4116,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -4151,13 +4241,16 @@
       <c r="AN30" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:40">
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -4193,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -4273,19 +4366,22 @@
       <c r="AN31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:40">
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -4315,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -4345,10 +4441,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -4381,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" t="n">
         <v>0</v>
@@ -4395,8 +4491,11 @@
       <c r="AN32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:40">
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -4410,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -4440,16 +4539,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -4470,10 +4569,10 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
@@ -4506,10 +4605,10 @@
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
@@ -4517,8 +4616,11 @@
       <c r="AN33" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:40">
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -4529,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -4538,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -4559,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -4568,13 +4670,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -4592,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
@@ -4601,13 +4703,13 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
@@ -4625,10 +4727,10 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="n">
         <v>0</v>
@@ -4637,10 +4739,13 @@
         <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -4654,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -4663,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -4681,10 +4786,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -4717,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
@@ -4726,13 +4831,13 @@
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -4750,10 +4855,10 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
@@ -4761,8 +4866,11 @@
       <c r="AN35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:40">
+      <c r="AO35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -4806,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -4883,8 +4991,11 @@
       <c r="AN36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:40">
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -4931,10 +5042,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -4985,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI37" t="n">
         <v>0</v>
@@ -5005,8 +5116,11 @@
       <c r="AN37" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:40">
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -5056,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5110,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ38" t="n">
         <v>0</v>
@@ -5127,8 +5241,11 @@
       <c r="AN38" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:40">
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -5169,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -5238,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="AK39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" t="n">
         <v>0</v>
@@ -5249,8 +5366,11 @@
       <c r="AN39" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:40">
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -5294,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -5324,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
@@ -5363,12 +5483,140 @@
         <v>0</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM40" t="n">
         <v>0</v>
       </c>
       <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5383,7 +5631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5393,12 +5641,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
         <v>19</v>
@@ -5406,7 +5654,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="n">
         <v>16</v>
@@ -5414,7 +5662,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
         <v>11</v>
@@ -5422,7 +5670,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="n">
         <v>9</v>
@@ -5430,7 +5678,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
         <v>8</v>
@@ -5438,7 +5686,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>7</v>
@@ -5446,7 +5694,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
@@ -5454,7 +5702,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>6</v>
@@ -5462,7 +5710,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
         <v>5</v>
@@ -5470,7 +5718,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -5478,7 +5726,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="n">
         <v>4</v>
@@ -5486,7 +5734,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
         <v>4</v>
@@ -5502,7 +5750,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
@@ -5510,7 +5758,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
@@ -5518,7 +5766,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -5526,7 +5774,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -5534,7 +5782,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -5542,7 +5790,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -5550,7 +5798,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -5558,7 +5806,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22" t="n">
         <v>2</v>
@@ -5566,7 +5814,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -5574,7 +5822,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -5590,7 +5838,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -5598,7 +5846,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -5606,7 +5854,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -5614,7 +5862,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -5622,7 +5870,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -5630,7 +5878,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -5638,7 +5886,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -5646,7 +5894,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -5654,7 +5902,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -5662,7 +5910,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -5670,7 +5918,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -5678,7 +5926,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -5686,7 +5934,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -5694,7 +5942,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -5702,9 +5950,17 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5719,7 +5975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5727,7 +5983,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5845,8 +6101,11 @@
       <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:40">
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5914,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -5965,10 +6224,13 @@
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5982,10 +6244,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -5997,13 +6259,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -6015,10 +6277,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -6030,16 +6292,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -6048,13 +6310,13 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
         <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -6063,19 +6325,19 @@
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
@@ -6084,18 +6346,21 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:40">
+      <c r="AO3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -6107,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -6125,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -6140,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -6155,13 +6420,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -6173,10 +6438,10 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -6191,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -6200,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" t="n">
         <v>0</v>
@@ -6211,8 +6476,11 @@
       <c r="AN4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:40">
+      <c r="AO4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6223,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -6235,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -6333,8 +6601,11 @@
       <c r="AN5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:40">
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -6345,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -6369,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -6405,10 +6676,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -6444,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
@@ -6455,8 +6726,11 @@
       <c r="AN6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:40">
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -6494,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -6524,22 +6798,22 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -6551,16 +6825,16 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
@@ -6569,16 +6843,19 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -6592,10 +6869,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6649,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -6661,10 +6938,10 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -6676,16 +6953,16 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
@@ -6699,8 +6976,11 @@
       <c r="AN8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:40">
+      <c r="AO8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -6717,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6807,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
@@ -6821,8 +7101,11 @@
       <c r="AN9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:40">
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -6941,10 +7224,13 @@
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -6958,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -6991,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -7012,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -7024,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -7063,10 +7349,13 @@
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -7083,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -7116,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -7137,19 +7426,19 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -7187,8 +7476,11 @@
       <c r="AN12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:40">
+      <c r="AO12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -7268,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -7309,8 +7601,11 @@
       <c r="AN13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:40">
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -7431,8 +7726,11 @@
       <c r="AN14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:40">
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -7553,8 +7851,11 @@
       <c r="AN15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:40">
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -7675,13 +7976,16 @@
       <c r="AN16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:40">
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -7690,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -7699,16 +8003,16 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -7717,13 +8021,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -7732,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -7744,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -7756,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -7768,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -7780,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
         <v>0</v>
@@ -7792,13 +8096,16 @@
         <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -7812,43 +8119,43 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -7857,19 +8164,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -7878,19 +8185,19 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
         <v>1</v>
@@ -7899,13 +8206,13 @@
         <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
@@ -7914,18 +8221,21 @@
         <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40">
+        <v>1</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -7937,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -7946,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -7961,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -7970,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -7985,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -8003,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -8015,19 +8325,19 @@
         <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
@@ -8041,8 +8351,11 @@
       <c r="AN19" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:40">
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -8056,7 +8369,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -8065,13 +8378,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8098,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -8122,10 +8435,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -8134,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
@@ -8143,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
         <v>0</v>
@@ -8161,10 +8474,13 @@
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -8181,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -8190,13 +8506,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -8211,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -8223,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -8247,19 +8563,19 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -8268,10 +8584,10 @@
         <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
@@ -8285,13 +8601,16 @@
       <c r="AN21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:40">
+      <c r="AO21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -8300,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -8309,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8318,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -8336,13 +8655,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -8366,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
@@ -8387,10 +8706,10 @@
         <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
         <v>0</v>
@@ -8407,13 +8726,16 @@
       <c r="AN22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:40">
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -8425,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -8434,7 +8756,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -8443,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -8467,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -8491,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -8506,16 +8828,16 @@
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23" t="n">
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
@@ -8529,8 +8851,11 @@
       <c r="AN23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:40">
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -8643,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -8651,8 +8976,11 @@
       <c r="AN24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:40">
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -8672,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -8768,13 +9096,16 @@
         <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:40">
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -8797,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -8809,7 +9140,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -8833,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -8854,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
@@ -8875,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26" t="n">
         <v>0</v>
@@ -8895,8 +9226,11 @@
       <c r="AN26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:40">
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -8934,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -8958,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -8979,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
@@ -9000,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ27" t="n">
         <v>0</v>
@@ -9015,10 +9349,13 @@
         <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -9065,7 +9402,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -9139,8 +9476,11 @@
       <c r="AN28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:40">
+      <c r="AO28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -9190,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -9261,8 +9601,11 @@
       <c r="AN29" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:40">
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -9270,19 +9613,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -9291,25 +9634,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -9330,22 +9673,22 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
@@ -9354,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -9366,10 +9709,10 @@
         <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="n">
         <v>0</v>
@@ -9381,10 +9724,13 @@
         <v>0</v>
       </c>
       <c r="AN30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -9398,16 +9744,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -9416,25 +9762,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -9446,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -9455,22 +9801,22 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -9479,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
@@ -9491,10 +9837,10 @@
         <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" t="n">
         <v>0</v>
@@ -9505,8 +9851,11 @@
       <c r="AN31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:40">
+      <c r="AO31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -9514,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -9541,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -9571,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -9607,10 +9956,10 @@
         <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ32" t="n">
         <v>0</v>
@@ -9627,8 +9976,11 @@
       <c r="AN32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:40">
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -9666,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -9675,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -9732,10 +10084,10 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
@@ -9749,8 +10101,11 @@
       <c r="AN33" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:40">
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -9800,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -9871,8 +10226,11 @@
       <c r="AN34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:40">
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -9993,8 +10351,11 @@
       <c r="AN35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:40">
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -10005,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -10014,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -10107,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" t="n">
         <v>0</v>
@@ -10115,8 +10476,11 @@
       <c r="AN36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:40">
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -10130,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -10139,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -10223,22 +10587,25 @@
         <v>0</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" t="n">
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN37" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:40">
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -10348,19 +10715,22 @@
         <v>0</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" t="n">
         <v>0</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN38" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:40">
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -10374,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -10464,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ39" t="n">
         <v>0</v>
@@ -10479,15 +10849,18 @@
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -10511,10 +10884,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10532,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -10544,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -10562,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="n">
         <v>0</v>
@@ -10589,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK40" t="n">
         <v>0</v>
@@ -10598,9 +10971,137 @@
         <v>0</v>
       </c>
       <c r="AM40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10615,7 +11116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10625,12 +11126,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="n">
         <v>19</v>
@@ -10638,7 +11139,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="n">
         <v>15</v>
@@ -10654,7 +11155,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>13</v>
@@ -10662,23 +11163,23 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="n">
         <v>9</v>
@@ -10686,23 +11187,23 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -10710,23 +11211,23 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -10734,7 +11235,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
@@ -10742,15 +11243,15 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -10758,7 +11259,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -10766,7 +11267,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -10774,7 +11275,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -10782,23 +11283,23 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
         <v>2</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -10806,7 +11307,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -10814,7 +11315,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -10822,7 +11323,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -10830,7 +11331,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -10838,7 +11339,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -10846,7 +11347,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -10857,12 +11358,12 @@
         <v>11</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -10870,7 +11371,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -10878,7 +11379,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -10886,7 +11387,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -10894,7 +11395,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -10910,7 +11411,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -10918,7 +11419,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -10926,7 +11427,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -10934,9 +11435,17 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10951,7 +11460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10959,7 +11468,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11077,8 +11586,11 @@
       <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:40">
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -11089,22 +11601,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -11125,10 +11637,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -11146,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>1</v>
@@ -11155,16 +11667,16 @@
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
         <v>1</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -11182,25 +11694,28 @@
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -11214,64 +11729,64 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -11280,16 +11795,16 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
         <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -11307,7 +11822,7 @@
         <v>1</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
@@ -11316,18 +11831,21 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:40">
+      <c r="AO3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -11339,10 +11857,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -11354,10 +11872,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -11369,46 +11887,46 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -11423,7 +11941,7 @@
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -11435,7 +11953,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -11443,13 +11961,16 @@
       <c r="AN4" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:40">
+      <c r="AO4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -11464,10 +11985,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -11479,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -11494,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -11503,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -11565,19 +12086,22 @@
       <c r="AN5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:40">
+      <c r="AO5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -11601,7 +12125,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -11640,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -11687,13 +12211,16 @@
       <c r="AN6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:40">
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -11705,22 +12232,22 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -11729,25 +12256,25 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -11765,34 +12292,34 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
@@ -11804,18 +12331,21 @@
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -11827,55 +12357,55 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -11893,19 +12423,19 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="n">
         <v>1</v>
@@ -11914,10 +12444,10 @@
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
@@ -11929,10 +12459,13 @@
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -12000,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -12018,7 +12551,7 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -12033,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
@@ -12053,8 +12586,11 @@
       <c r="AN9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:40">
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -12092,7 +12628,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -12101,7 +12637,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -12113,7 +12649,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -12122,10 +12658,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -12146,16 +12682,16 @@
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
@@ -12170,13 +12706,16 @@
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -12187,10 +12726,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -12199,7 +12738,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -12217,16 +12756,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -12238,19 +12777,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -12268,19 +12807,19 @@
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
@@ -12295,10 +12834,13 @@
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>1</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -12312,10 +12854,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -12324,7 +12866,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -12348,10 +12890,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -12366,10 +12908,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -12411,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
@@ -12419,8 +12961,11 @@
       <c r="AN12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:40">
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -12431,19 +12976,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -12467,16 +13012,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -12488,10 +13033,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -12509,40 +13054,43 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -12553,7 +13101,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -12568,7 +13116,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -12589,13 +13137,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -12613,7 +13161,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
         <v>1</v>
@@ -12634,13 +13182,13 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
@@ -12649,27 +13197,30 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" t="n">
         <v>1</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -12678,19 +13229,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -12711,10 +13262,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -12723,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -12741,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -12771,13 +13322,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -12785,13 +13336,16 @@
       <c r="AN15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:40">
+      <c r="AO15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -12809,7 +13363,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -12836,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -12854,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -12866,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -12907,22 +13461,25 @@
       <c r="AN16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:40">
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -12931,31 +13488,31 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -12964,10 +13521,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -12976,10 +13533,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -12988,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
         <v>1</v>
@@ -13000,19 +13557,19 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
         <v>0</v>
@@ -13024,30 +13581,33 @@
         <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -13056,31 +13616,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -13089,10 +13649,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -13101,7 +13661,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -13113,10 +13673,10 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -13125,19 +13685,19 @@
         <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
@@ -13146,13 +13706,16 @@
         <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40">
+        <v>1</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -13160,13 +13723,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -13175,13 +13738,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -13190,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -13199,10 +13762,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -13211,7 +13774,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -13223,7 +13786,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -13232,7 +13795,7 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -13241,40 +13804,43 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
         <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
         <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:40">
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -13288,22 +13854,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -13312,7 +13878,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
@@ -13321,40 +13887,40 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
         <v>1</v>
@@ -13363,7 +13929,7 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
         <v>1</v>
@@ -13372,36 +13938,39 @@
         <v>1</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
         <v>1</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20" t="n">
         <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:40">
+      <c r="AO20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -13410,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -13422,28 +13991,28 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -13461,31 +14030,31 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>1</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
         <v>1</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
         <v>1</v>
@@ -13497,13 +14066,13 @@
         <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
         <v>1</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
@@ -13512,18 +14081,21 @@
         <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:40">
+      <c r="AO21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -13535,97 +14107,97 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22" t="n">
         <v>0</v>
@@ -13637,10 +14209,13 @@
         <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40">
+        <v>1</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -13651,7 +14226,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -13687,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -13720,7 +14295,7 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
         <v>1</v>
@@ -13759,10 +14334,13 @@
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -13779,7 +14357,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -13794,13 +14372,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -13809,16 +14387,16 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -13845,10 +14423,10 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -13866,25 +14444,28 @@
         <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="n">
         <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -13901,10 +14482,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -13919,13 +14500,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -13934,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -13943,7 +14524,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -13991,7 +14572,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
@@ -14000,13 +14581,16 @@
         <v>1</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40">
+        <v>1</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -14017,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -14029,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -14041,7 +14625,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -14086,7 +14670,7 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
@@ -14122,13 +14706,16 @@
         <v>0</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:40">
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -14142,7 +14729,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -14154,7 +14741,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -14166,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -14211,7 +14798,7 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
@@ -14249,8 +14836,11 @@
       <c r="AN27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:40">
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -14261,7 +14851,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -14297,7 +14887,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -14315,10 +14905,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -14371,8 +14961,11 @@
       <c r="AN28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:40">
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -14389,7 +14982,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -14398,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -14419,13 +15012,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -14437,13 +15030,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -14461,7 +15054,7 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -14491,10 +15084,13 @@
         <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -14502,16 +15098,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -14523,25 +15119,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -14550,10 +15146,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -14565,19 +15161,19 @@
         <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
@@ -14601,22 +15197,25 @@
         <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="n">
         <v>0</v>
       </c>
       <c r="AM30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -14624,7 +15223,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -14633,13 +15232,13 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -14654,22 +15253,22 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -14678,31 +15277,31 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -14711,13 +15310,13 @@
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
@@ -14726,10 +15325,10 @@
         <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
@@ -14737,8 +15336,11 @@
       <c r="AN31" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:40">
+      <c r="AO31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -14755,19 +15357,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -14809,7 +15411,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -14821,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32" t="n">
         <v>0</v>
@@ -14842,7 +15444,7 @@
         <v>0</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32" t="n">
         <v>0</v>
@@ -14859,8 +15461,11 @@
       <c r="AN32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:40">
+      <c r="AO32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -14874,7 +15479,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -14883,10 +15488,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -14907,7 +15512,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -14928,7 +15533,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -14940,16 +15545,16 @@
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
@@ -14964,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
         <v>0</v>
@@ -14979,15 +15584,18 @@
         <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -14999,7 +15607,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -15008,7 +15616,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -15017,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -15032,7 +15640,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -15053,7 +15661,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -15065,16 +15673,16 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
@@ -15089,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK34" t="n">
         <v>0</v>
@@ -15103,13 +15711,16 @@
       <c r="AN34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:40">
+      <c r="AO34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -15118,16 +15729,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -15225,8 +15836,11 @@
       <c r="AN35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:40">
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -15237,22 +15851,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -15339,7 +15953,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" t="n">
         <v>0</v>
@@ -15347,8 +15961,11 @@
       <c r="AN36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:40">
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -15362,7 +15979,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -15371,7 +15988,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -15386,7 +16003,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -15404,7 +16021,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -15461,16 +16078,19 @@
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -15511,7 +16131,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -15529,7 +16149,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -15586,13 +16206,16 @@
         <v>0</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN38" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:40">
+      <c r="AO38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -15606,7 +16229,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -15615,7 +16238,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -15663,7 +16286,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -15702,7 +16325,7 @@
         <v>0</v>
       </c>
       <c r="AK39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" t="n">
         <v>0</v>
@@ -15713,8 +16336,11 @@
       <c r="AN39" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:40">
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -15731,16 +16357,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -15761,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -15779,7 +16405,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -15788,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
@@ -15797,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="n">
         <v>0</v>
@@ -15827,12 +16453,140 @@
         <v>0</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM40" t="n">
         <v>0</v>
       </c>
       <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15847,7 +16601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15857,12 +16611,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
         <v>27</v>
@@ -15878,7 +16632,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>23</v>
@@ -15886,7 +16640,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>22</v>
@@ -15894,7 +16648,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>21</v>
@@ -15902,7 +16656,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
         <v>20</v>
@@ -15910,7 +16664,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
         <v>17</v>
@@ -15918,7 +16672,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
         <v>16</v>
@@ -15926,23 +16680,23 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B12" t="n">
         <v>11</v>
@@ -15950,15 +16704,15 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
         <v>10</v>
@@ -15966,31 +16720,31 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
@@ -15998,7 +16752,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B19" t="n">
         <v>5</v>
@@ -16006,15 +16760,15 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" t="n">
         <v>4</v>
@@ -16022,7 +16776,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B22" t="n">
         <v>4</v>
@@ -16030,7 +16784,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n">
         <v>4</v>
@@ -16038,7 +16792,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B24" t="n">
         <v>4</v>
@@ -16046,7 +16800,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B25" t="n">
         <v>4</v>
@@ -16054,15 +16808,15 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B27" t="n">
         <v>3</v>
@@ -16070,7 +16824,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B28" t="n">
         <v>3</v>
@@ -16078,7 +16832,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" t="n">
         <v>3</v>
@@ -16086,15 +16840,15 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B31" t="n">
         <v>2</v>
@@ -16102,7 +16856,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B32" t="n">
         <v>2</v>
@@ -16110,7 +16864,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
@@ -16118,7 +16872,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B34" t="n">
         <v>2</v>
@@ -16126,15 +16880,15 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -16142,7 +16896,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -16150,7 +16904,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -16158,17 +16912,25 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -8,8 +8,8 @@
   <sheets>
     <sheet name="2006-9-15_2008-9-15" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2006-9-15_2008-9-15_RANK" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2010-6-30_2012-6-30" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2010-6-30_2012-6-30_RANK" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2009-1-1_2012-1-1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2009-1-1_2012-1-1_RANK" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Full Period" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Full Period_RANK" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
@@ -39,7 +39,7 @@
     <t>BCP:PL</t>
   </si>
   <si>
-    <t>BDM:IM</t>
+    <t>BDB:IM</t>
   </si>
   <si>
     <t>BKT:SM</t>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -6316,28 +6316,28 @@
         <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
@@ -6360,7 +6360,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -6369,10 +6369,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -6426,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
@@ -6465,19 +6465,19 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -6640,10 +6640,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -6804,10 +6804,10 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -6890,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -6905,10 +6905,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -6920,13 +6920,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -6956,7 +6956,7 @@
         <v>1</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
@@ -6997,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -7087,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -7393,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -7405,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -7459,10 +7459,10 @@
         <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
@@ -7590,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -7747,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -7828,16 +7828,16 @@
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -8149,13 +8149,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -8164,16 +8164,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
         <v>1</v>
@@ -8200,16 +8200,16 @@
         <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18" t="n">
         <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -8262,13 +8262,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
@@ -8280,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -8289,10 +8289,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>1</v>
@@ -8477,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -8506,13 +8506,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -8563,10 +8563,10 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -8575,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -8587,7 +8587,7 @@
         <v>1</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
@@ -8735,7 +8735,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -8747,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -8756,7 +8756,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -8828,16 +8828,16 @@
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
         <v>0</v>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -9215,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" t="n">
         <v>0</v>
@@ -9292,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
@@ -9334,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -9459,10 +9459,10 @@
         <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK28" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="AO28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30" t="n">
         <v>0</v>
@@ -9744,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -9753,10 +9753,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -9765,7 +9765,7 @@
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
@@ -9774,7 +9774,7 @@
         <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -9804,10 +9804,10 @@
         <v>1</v>
       </c>
       <c r="Y31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -9825,22 +9825,22 @@
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH31" t="n">
         <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31" t="n">
         <v>1</v>
       </c>
       <c r="AK31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" t="n">
         <v>0</v>
@@ -9863,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -9902,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -9920,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32" t="n">
         <v>0</v>
@@ -10087,7 +10087,7 @@
         <v>1</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
@@ -10116,13 +10116,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -10143,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10155,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10176,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK34" t="n">
         <v>0</v>
@@ -10227,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
@@ -10593,10 +10593,10 @@
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" t="n">
         <v>0</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="AM38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" t="n">
         <v>0</v>
@@ -10959,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40" t="n">
         <v>1</v>
@@ -10977,7 +10977,7 @@
         <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:41">
@@ -10985,7 +10985,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -11000,7 +11000,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -11012,10 +11012,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11033,7 +11033,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11045,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41" t="n">
         <v>0</v>
@@ -11099,7 +11099,7 @@
         <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" t="n">
         <v>0</v>
@@ -11134,12 +11134,12 @@
         <v>29</v>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="n">
         <v>15</v>
@@ -11147,7 +11147,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>14</v>
@@ -11155,10 +11155,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11166,12 +11166,12 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
         <v>10</v>
@@ -11179,55 +11179,55 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="n">
         <v>6</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -11235,23 +11235,23 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -11259,7 +11259,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -11267,7 +11267,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -11275,7 +11275,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -11283,23 +11283,23 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -11307,7 +11307,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -11315,7 +11315,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -11323,7 +11323,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -11331,7 +11331,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -11339,7 +11339,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -11347,7 +11347,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -11355,15 +11355,15 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -11371,7 +11371,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -11395,7 +11395,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -11403,7 +11403,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -11411,7 +11411,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -11419,7 +11419,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -11427,7 +11427,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -11435,7 +11435,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -11443,7 +11443,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -24,9 +24,6 @@
     <t>ACA:FP</t>
   </si>
   <si>
-    <t>AKTAV:FH</t>
-  </si>
-  <si>
     <t>ALBAV:FH</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>BDB:IM</t>
+  </si>
+  <si>
+    <t>BKIR:ID</t>
   </si>
   <si>
     <t>BKT:SM</t>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1881,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -2384,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2506,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -3634,13 +3634,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -4506,10 +4506,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -4756,19 +4756,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5657,7 +5657,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5766,7 +5766,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -5774,7 +5774,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -5806,7 +5806,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B22" t="n">
         <v>2</v>
@@ -5814,7 +5814,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -5830,7 +5830,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -5862,7 +5862,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -5870,15 +5870,15 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -5886,7 +5886,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -5926,7 +5926,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -6119,16 +6119,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -6235,13 +6235,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -6295,13 +6295,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -6322,16 +6322,16 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -6352,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -6363,19 +6363,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -6390,10 +6390,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -6438,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -6450,13 +6450,13 @@
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -6468,13 +6468,13 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
         <v>0</v>
@@ -6488,10 +6488,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -6515,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -6640,10 +6640,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -6735,7 +6735,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -6780,10 +6780,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -6813,10 +6813,10 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -6828,16 +6828,16 @@
         <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -6860,7 +6860,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -6872,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6890,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -6905,10 +6905,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -6938,10 +6938,10 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -6953,16 +6953,16 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -7369,16 +7369,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -7744,10 +7744,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -8119,16 +8119,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -8244,16 +8244,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -8494,16 +8494,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -8753,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -8863,10 +8863,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -9369,16 +9369,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -9628,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -9738,22 +9738,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -10003,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -10113,22 +10113,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -10378,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -10869,10 +10869,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -11003,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -11131,15 +11131,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B3" t="n">
         <v>15</v>
@@ -11150,12 +11150,12 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>12</v>
@@ -11163,7 +11163,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>10</v>
@@ -11171,15 +11171,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
@@ -11187,23 +11187,23 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
@@ -11211,10 +11211,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="n">
         <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11227,7 +11227,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -11235,23 +11235,23 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -11259,7 +11259,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -11267,7 +11267,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -11275,7 +11275,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -11283,23 +11283,23 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -11307,7 +11307,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -11315,7 +11315,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -11323,7 +11323,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -11331,7 +11331,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -11339,7 +11339,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -11347,7 +11347,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -11355,23 +11355,23 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -11395,7 +11395,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -11403,7 +11403,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -11427,7 +11427,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -11435,7 +11435,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -11443,7 +11443,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -11601,19 +11601,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -11729,25 +11729,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -11756,10 +11756,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -11768,7 +11768,7 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -11777,10 +11777,10 @@
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -11807,28 +11807,28 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -11845,7 +11845,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -11857,13 +11857,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -11905,28 +11905,28 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -11941,7 +11941,7 @@
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -11953,13 +11953,13 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
         <v>1</v>
@@ -11970,7 +11970,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -11985,7 +11985,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -12015,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -12024,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -12087,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -12095,13 +12095,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -12113,10 +12113,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -12128,7 +12128,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -12167,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -12220,7 +12220,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -12232,13 +12232,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -12247,37 +12247,37 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -12292,37 +12292,37 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
@@ -12334,10 +12334,10 @@
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -12345,37 +12345,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -12384,25 +12384,25 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -12423,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
         <v>1</v>
@@ -12432,22 +12432,22 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
@@ -12459,10 +12459,10 @@
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -12738,7 +12738,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -12851,19 +12851,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -13101,16 +13101,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -13226,7 +13226,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -13235,7 +13235,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -13488,7 +13488,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -13601,19 +13601,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -13723,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -13854,16 +13854,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -13979,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -14104,7 +14104,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -14238,7 +14238,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -14351,10 +14351,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -14363,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -14479,16 +14479,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -14726,10 +14726,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -14863,7 +14863,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -14976,10 +14976,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -14988,7 +14988,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -15104,16 +15104,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -15223,19 +15223,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -15354,16 +15354,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -15488,7 +15488,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -15604,16 +15604,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -15854,13 +15854,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -15976,19 +15976,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -16354,10 +16354,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -16485,7 +16485,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -16619,20 +16619,20 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>23</v>
@@ -16640,7 +16640,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>22</v>
@@ -16648,23 +16648,23 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B8" t="n">
         <v>17</v>
@@ -16672,23 +16672,23 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>12</v>
@@ -16696,15 +16696,15 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B13" t="n">
         <v>11</v>
@@ -16720,23 +16720,23 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
         <v>6</v>
@@ -16744,23 +16744,23 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B20" t="n">
         <v>5</v>
@@ -16768,23 +16768,23 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B23" t="n">
         <v>4</v>
@@ -16800,7 +16800,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="n">
         <v>4</v>
@@ -16808,7 +16808,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B26" t="n">
         <v>4</v>
@@ -16816,23 +16816,23 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B29" t="n">
         <v>3</v>
@@ -16840,7 +16840,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="n">
         <v>3</v>
@@ -16848,15 +16848,15 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B32" t="n">
         <v>2</v>
@@ -16872,7 +16872,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B34" t="n">
         <v>2</v>
@@ -16880,7 +16880,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B35" t="n">
         <v>2</v>
@@ -16888,10 +16888,10 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -16912,7 +16912,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -16920,10 +16920,10 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>ACA:FP</t>
   </si>
   <si>
     <t>ALBAV:FH</t>
+  </si>
+  <si>
+    <t>ALBK:ID</t>
   </si>
   <si>
     <t>ALPHA:GA</t>
@@ -490,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO41"/>
+  <dimension ref="A1:AP42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +501,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:42">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,8 +622,11 @@
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:41">
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,10 +637,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -697,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -727,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
@@ -744,8 +750,11 @@
       <c r="AO2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:41">
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -869,8 +878,11 @@
       <c r="AO3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:41">
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -884,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -950,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -994,8 +1006,11 @@
       <c r="AO4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:41">
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1119,8 +1134,11 @@
       <c r="AO5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:41">
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1230,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
@@ -1244,8 +1262,11 @@
       <c r="AO6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:41">
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1358,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -1369,8 +1390,11 @@
       <c r="AO7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:41">
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1381,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1494,8 +1518,11 @@
       <c r="AO8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:41">
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1506,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1527,13 +1554,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1566,13 +1593,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -1581,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
@@ -1602,13 +1629,13 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -1619,8 +1646,11 @@
       <c r="AO9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:41">
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1634,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1655,13 +1685,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1694,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -1709,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -1730,13 +1760,13 @@
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
@@ -1744,8 +1774,11 @@
       <c r="AO10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:41">
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1789,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1813,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1869,8 +1902,11 @@
       <c r="AO11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:41">
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1881,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1917,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1941,13 +1977,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -1962,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
@@ -1977,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
@@ -1994,8 +2030,11 @@
       <c r="AO12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:41">
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2009,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2075,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -2090,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -2105,13 +2144,13 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
@@ -2119,13 +2158,16 @@
       <c r="AO13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:41">
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2134,19 +2176,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -2155,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2170,13 +2212,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -2185,10 +2227,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -2203,31 +2245,31 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
         <v>0</v>
@@ -2239,42 +2281,45 @@
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2298,13 +2343,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -2313,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -2325,34 +2370,34 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" t="n">
         <v>1</v>
@@ -2361,16 +2406,19 @@
         <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41">
+        <v>1</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2396,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -2405,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2453,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -2471,19 +2519,19 @@
         <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
         <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
@@ -2492,10 +2540,13 @@
         <v>1</v>
       </c>
       <c r="AO16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2506,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2524,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -2533,13 +2584,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2569,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -2599,16 +2650,16 @@
         <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17" t="n">
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
@@ -2617,10 +2668,13 @@
         <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41">
+        <v>1</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2634,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -2667,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -2697,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
@@ -2730,13 +2784,13 @@
         <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
@@ -2744,8 +2798,11 @@
       <c r="AO18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:41">
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2858,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
@@ -2869,8 +2926,11 @@
       <c r="AO19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:41">
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2994,13 +3054,16 @@
       <c r="AO20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:41">
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -3021,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -3042,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -3051,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -3119,13 +3182,16 @@
       <c r="AO21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:41">
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -3149,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -3164,13 +3230,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3179,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -3197,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -3230,13 +3296,13 @@
         <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
         <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN22" t="n">
         <v>0</v>
@@ -3244,8 +3310,11 @@
       <c r="AO22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:41">
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3259,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -3289,10 +3358,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -3322,10 +3391,10 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
@@ -3337,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
@@ -3358,19 +3427,22 @@
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:41">
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -3417,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -3450,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -3465,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" t="n">
         <v>0</v>
@@ -3494,8 +3566,11 @@
       <c r="AO24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:41">
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3619,13 +3694,16 @@
       <c r="AO25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:41">
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -3634,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -3655,13 +3733,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3670,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -3691,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -3706,25 +3784,25 @@
         <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26" t="n">
         <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ26" t="n">
         <v>0</v>
@@ -3739,69 +3817,72 @@
         <v>0</v>
       </c>
       <c r="AN26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -3819,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -3834,25 +3915,25 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" t="n">
         <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI27" t="n">
         <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK27" t="n">
         <v>0</v>
@@ -3867,10 +3948,13 @@
         <v>0</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41">
+        <v>1</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -3881,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -3905,16 +3989,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3923,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -3947,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -3956,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -3994,8 +4078,11 @@
       <c r="AO28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:41">
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -4009,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -4042,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -4072,10 +4159,10 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -4084,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -4111,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
         <v>0</v>
@@ -4119,8 +4206,11 @@
       <c r="AO29" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:41">
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -4197,16 +4287,16 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30" t="n">
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -4239,13 +4329,16 @@
         <v>0</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO30" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:41">
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -4286,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -4325,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
@@ -4334,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
@@ -4369,13 +4462,16 @@
       <c r="AO31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:41">
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -4414,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -4494,19 +4590,22 @@
       <c r="AO32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:41">
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -4539,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -4569,10 +4668,10 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
@@ -4605,10 +4704,10 @@
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
@@ -4619,8 +4718,11 @@
       <c r="AO33" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:41">
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -4634,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -4667,16 +4769,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -4697,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
@@ -4733,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN34" t="n">
         <v>0</v>
@@ -4744,8 +4846,11 @@
       <c r="AO34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:41">
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -4756,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -4765,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -4789,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -4798,13 +4903,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -4822,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
@@ -4831,13 +4936,13 @@
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -4855,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
@@ -4867,10 +4972,13 @@
         <v>0</v>
       </c>
       <c r="AO35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -4884,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -4893,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -4914,10 +5022,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -4950,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36" t="n">
         <v>0</v>
@@ -4959,13 +5067,13 @@
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG36" t="n">
         <v>0</v>
@@ -4983,10 +5091,10 @@
         <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN36" t="n">
         <v>0</v>
@@ -4994,8 +5102,11 @@
       <c r="AO36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:41">
+      <c r="AP36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -5042,10 +5153,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5119,8 +5230,11 @@
       <c r="AO37" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:41">
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -5170,10 +5284,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -5224,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ38" t="n">
         <v>0</v>
@@ -5244,8 +5358,11 @@
       <c r="AO38" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:41">
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -5298,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -5352,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39" t="n">
         <v>0</v>
@@ -5369,8 +5486,11 @@
       <c r="AO39" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:41">
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -5414,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -5483,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" t="n">
         <v>0</v>
@@ -5494,8 +5614,11 @@
       <c r="AO40" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:41">
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -5542,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -5572,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
@@ -5611,12 +5734,143 @@
         <v>0</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN41" t="n">
         <v>0</v>
       </c>
       <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5631,7 +5885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5641,12 +5895,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>20</v>
@@ -5654,15 +5908,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>11</v>
@@ -5670,7 +5924,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
         <v>9</v>
@@ -5678,7 +5932,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
         <v>8</v>
@@ -5686,7 +5940,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>7</v>
@@ -5694,7 +5948,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
@@ -5702,7 +5956,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
         <v>6</v>
@@ -5718,7 +5972,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -5726,15 +5980,15 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B13" t="n">
         <v>4</v>
@@ -5750,7 +6004,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
@@ -5758,7 +6012,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
@@ -5766,7 +6020,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -5774,7 +6028,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -5782,7 +6036,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -5790,7 +6044,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -5798,7 +6052,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -5806,7 +6060,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B22" t="n">
         <v>2</v>
@@ -5814,15 +6068,15 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -5830,7 +6084,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -5838,7 +6092,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -5846,7 +6100,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -5854,7 +6108,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -5862,7 +6116,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -5870,7 +6124,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -5878,15 +6132,15 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -5894,7 +6148,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -5902,7 +6156,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -5910,7 +6164,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -5918,7 +6172,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -5926,7 +6180,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -5934,7 +6188,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -5942,7 +6196,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -5950,7 +6204,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -5958,9 +6212,17 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5975,7 +6237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO41"/>
+  <dimension ref="A1:AP42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5983,7 +6245,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:42">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6104,8 +6366,11 @@
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:41">
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6119,19 +6384,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -6143,10 +6408,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -6176,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -6227,10 +6492,13 @@
         <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6241,16 +6509,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -6265,10 +6533,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -6280,10 +6548,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -6295,10 +6563,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -6313,10 +6581,10 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -6325,16 +6593,16 @@
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
@@ -6343,19 +6611,22 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6363,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -6381,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -6393,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -6420,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -6479,8 +6750,11 @@
       <c r="AO4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:41">
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6488,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -6503,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -6515,13 +6789,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -6548,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -6604,8 +6878,11 @@
       <c r="AO5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:41">
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -6631,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -6643,10 +6920,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -6729,13 +7006,16 @@
       <c r="AO6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:41">
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -6744,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -6765,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -6780,10 +7060,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -6795,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -6813,10 +7093,10 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -6828,16 +7108,16 @@
         <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
@@ -6852,15 +7132,18 @@
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -6872,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6893,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -6908,10 +7191,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -6923,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -6941,10 +7224,10 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -6956,16 +7239,16 @@
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
@@ -6979,8 +7262,11 @@
       <c r="AO8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:41">
+      <c r="AP8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -7104,8 +7390,11 @@
       <c r="AO9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:41">
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -7229,8 +7518,11 @@
       <c r="AO10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:41">
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -7354,8 +7646,11 @@
       <c r="AO11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:41">
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -7369,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -7378,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -7393,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -7426,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -7459,10 +7754,10 @@
         <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
@@ -7477,10 +7772,13 @@
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -7491,13 +7789,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -7506,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -7521,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -7554,13 +7852,13 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -7587,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" t="n">
         <v>1</v>
@@ -7604,8 +7902,11 @@
       <c r="AO13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:41">
+      <c r="AP13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -7643,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -7688,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -7718,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -7729,8 +8030,11 @@
       <c r="AO14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:41">
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -7744,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -7768,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -7780,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -7828,16 +8132,16 @@
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
@@ -7852,10 +8156,13 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -7872,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -7896,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -7908,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -7956,16 +8263,16 @@
         <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
@@ -7979,8 +8286,11 @@
       <c r="AO16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:41">
+      <c r="AP16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -8104,22 +8414,25 @@
       <c r="AO17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:41">
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -8128,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -8137,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -8167,16 +8480,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -8188,10 +8501,10 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -8203,16 +8516,16 @@
         <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
         <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
@@ -8224,13 +8537,16 @@
         <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -8241,19 +8557,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -8262,16 +8578,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -8289,10 +8605,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -8304,7 +8620,7 @@
         <v>1</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -8313,13 +8629,13 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
@@ -8328,19 +8644,19 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" t="n">
         <v>0</v>
@@ -8349,18 +8665,21 @@
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41">
+        <v>1</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -8372,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -8381,25 +8700,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -8417,19 +8736,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -8441,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -8456,16 +8775,16 @@
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" t="n">
         <v>0</v>
@@ -8477,10 +8796,13 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -8494,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -8503,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -8584,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
         <v>0</v>
@@ -8604,8 +8926,11 @@
       <c r="AO21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:41">
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -8616,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -8631,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -8643,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -8712,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22" t="n">
         <v>0</v>
@@ -8729,8 +9054,11 @@
       <c r="AO22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:41">
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -8753,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -8771,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -8854,8 +9182,11 @@
       <c r="AO23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:41">
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -8863,10 +9194,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -8878,10 +9209,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -8979,8 +9310,11 @@
       <c r="AO24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:41">
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -8988,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -9006,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -9104,8 +9438,11 @@
       <c r="AO25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:41">
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -9215,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="AK26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" t="n">
         <v>0</v>
@@ -9229,8 +9566,11 @@
       <c r="AO26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:41">
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -9268,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9343,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
@@ -9354,8 +9694,11 @@
       <c r="AO27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:41">
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -9369,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -9378,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -9396,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -9459,10 +9802,10 @@
         <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK28" t="n">
         <v>0</v>
@@ -9479,8 +9822,11 @@
       <c r="AO28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:41">
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -9497,16 +9843,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -9548,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -9587,10 +9933,10 @@
         <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" t="n">
         <v>0</v>
@@ -9604,8 +9950,11 @@
       <c r="AO29" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:41">
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -9616,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -9628,10 +9977,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -9676,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -9712,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="n">
         <v>0</v>
@@ -9729,8 +10078,11 @@
       <c r="AO30" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:41">
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -9741,10 +10093,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -9753,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -9762,16 +10114,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -9780,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -9795,13 +10147,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -9813,10 +10165,10 @@
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -9828,19 +10180,19 @@
         <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="n">
         <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" t="n">
         <v>0</v>
@@ -9852,10 +10204,13 @@
         <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -9872,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -9881,34 +10236,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -9923,13 +10278,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -9941,10 +10296,10 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE32" t="n">
         <v>0</v>
@@ -9956,16 +10311,16 @@
         <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32" t="n">
         <v>0</v>
@@ -9979,8 +10334,11 @@
       <c r="AO32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:41">
+      <c r="AP32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -10003,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -10018,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10030,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10084,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
@@ -10104,8 +10462,11 @@
       <c r="AO33" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:41">
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -10113,13 +10474,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -10128,10 +10489,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -10143,10 +10504,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10176,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -10227,10 +10588,13 @@
         <v>0</v>
       </c>
       <c r="AO34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -10238,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -10247,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -10256,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -10265,13 +10629,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10304,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -10340,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" t="n">
         <v>0</v>
@@ -10354,8 +10718,11 @@
       <c r="AO35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:41">
+      <c r="AP35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -10378,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -10393,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10479,8 +10846,11 @@
       <c r="AO36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:41">
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -10491,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -10506,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -10554,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
@@ -10593,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
@@ -10604,8 +10974,11 @@
       <c r="AO37" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:41">
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -10682,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38" t="n">
         <v>0</v>
@@ -10715,13 +11088,13 @@
         <v>0</v>
       </c>
       <c r="AK38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" t="n">
         <v>0</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN38" t="n">
         <v>0</v>
@@ -10729,8 +11102,11 @@
       <c r="AO38" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:41">
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -10843,7 +11219,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM39" t="n">
         <v>0</v>
@@ -10854,8 +11230,11 @@
       <c r="AO39" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:41">
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -10869,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -10959,10 +11338,10 @@
         <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK40" t="n">
         <v>0</v>
@@ -10979,8 +11358,11 @@
       <c r="AO40" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:41">
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -10997,13 +11379,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -11087,10 +11469,10 @@
         <v>0</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41" t="n">
         <v>0</v>
@@ -11102,6 +11484,137 @@
         <v>0</v>
       </c>
       <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11116,7 +11629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11126,12 +11639,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="n">
         <v>16</v>
@@ -11139,15 +11652,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B4" t="n">
         <v>15</v>
@@ -11155,7 +11668,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>12</v>
@@ -11171,15 +11684,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
@@ -11187,7 +11700,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
         <v>7</v>
@@ -11203,7 +11716,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
@@ -11211,15 +11724,15 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
         <v>3</v>
@@ -11227,7 +11740,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -11235,7 +11748,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
@@ -11243,7 +11756,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
@@ -11251,23 +11764,23 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -11275,7 +11788,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -11283,7 +11796,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -11291,7 +11804,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B22" t="n">
         <v>2</v>
@@ -11299,23 +11812,23 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -11323,7 +11836,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -11331,7 +11844,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -11339,7 +11852,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -11347,7 +11860,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -11355,7 +11868,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -11363,7 +11876,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -11371,23 +11884,23 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -11395,7 +11908,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -11403,7 +11916,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -11411,7 +11924,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -11419,7 +11932,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -11427,7 +11940,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -11435,7 +11948,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -11443,9 +11956,17 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11460,7 +11981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO41"/>
+  <dimension ref="A1:AP42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11468,7 +11989,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:42">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11589,8 +12110,11 @@
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:41">
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -11607,19 +12131,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -11640,10 +12164,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -11661,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
@@ -11670,16 +12194,16 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
         <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -11697,25 +12221,28 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -11729,10 +12256,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -11750,10 +12277,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -11765,46 +12292,46 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
         <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -11816,10 +12343,10 @@
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
@@ -11828,19 +12355,22 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:41">
+      <c r="AP3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -11857,16 +12387,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -11875,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -11884,22 +12414,22 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -11926,10 +12456,10 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -11941,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -11964,13 +12494,16 @@
       <c r="AO4" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:41">
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -11985,13 +12518,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -12003,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -12018,7 +12551,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -12027,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -12089,19 +12622,22 @@
       <c r="AO5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:41">
+      <c r="AP5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -12113,7 +12649,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -12128,7 +12664,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -12167,7 +12703,7 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -12214,13 +12750,16 @@
       <c r="AO6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:41">
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -12232,25 +12771,25 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -12259,25 +12798,25 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -12295,34 +12834,34 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
@@ -12334,78 +12873,81 @@
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -12429,28 +12971,28 @@
         <v>1</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
@@ -12462,10 +13004,13 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -12476,10 +13021,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -12509,16 +13054,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -12533,7 +13078,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -12554,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -12566,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
@@ -12589,8 +13134,11 @@
       <c r="AO9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:41">
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -12661,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -12679,7 +13227,7 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -12694,7 +13242,7 @@
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
@@ -12714,8 +13262,11 @@
       <c r="AO10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:41">
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -12738,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -12756,7 +13307,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -12765,7 +13316,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -12777,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -12786,10 +13337,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -12810,16 +13361,16 @@
         <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
@@ -12834,13 +13385,16 @@
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -12851,10 +13405,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -12863,7 +13417,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -12884,16 +13438,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -12905,19 +13459,19 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -12935,19 +13489,19 @@
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
@@ -12962,10 +13516,13 @@
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41">
+        <v>1</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -12976,13 +13533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -12991,10 +13548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -13018,10 +13575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -13036,10 +13593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -13081,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
@@ -13089,8 +13646,11 @@
       <c r="AO13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:41">
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -13101,22 +13661,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -13140,16 +13700,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -13161,10 +13721,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -13182,40 +13742,43 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -13238,13 +13801,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -13265,13 +13828,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>1</v>
@@ -13289,7 +13852,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
         <v>1</v>
@@ -13310,13 +13873,13 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
@@ -13325,27 +13888,30 @@
         <v>1</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" t="n">
         <v>1</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15" t="n">
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -13354,13 +13920,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -13369,7 +13935,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -13390,10 +13956,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -13402,7 +13968,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -13420,7 +13986,7 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -13450,13 +14016,13 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16" t="n">
         <v>0</v>
@@ -13464,13 +14030,16 @@
       <c r="AO16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:41">
+      <c r="AP16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -13488,10 +14057,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -13518,7 +14087,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -13536,7 +14105,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -13548,7 +14117,7 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -13589,13 +14158,16 @@
       <c r="AO17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:41">
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -13604,7 +14176,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -13613,34 +14185,34 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -13649,10 +14221,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -13661,10 +14233,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
@@ -13673,7 +14245,7 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
         <v>1</v>
@@ -13685,19 +14257,19 @@
         <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
@@ -13709,30 +14281,33 @@
         <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -13741,34 +14316,34 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -13777,10 +14352,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -13789,7 +14364,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -13801,10 +14376,10 @@
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
@@ -13813,19 +14388,19 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" t="n">
         <v>0</v>
@@ -13834,13 +14409,16 @@
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41">
+        <v>1</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -13854,7 +14432,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -13863,16 +14441,16 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -13881,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -13890,10 +14468,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -13902,7 +14480,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -13914,7 +14492,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -13923,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -13932,40 +14510,43 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
         <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:41">
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -13979,25 +14560,25 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -14006,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
@@ -14015,40 +14596,40 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
         <v>1</v>
@@ -14057,7 +14638,7 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
         <v>1</v>
@@ -14066,45 +14647,48 @@
         <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" t="n">
         <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:41">
+      <c r="AP21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -14119,28 +14703,28 @@
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>1</v>
@@ -14158,31 +14742,31 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>1</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
         <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
@@ -14194,13 +14778,13 @@
         <v>1</v>
       </c>
       <c r="AI22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
         <v>1</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" t="n">
         <v>0</v>
@@ -14209,123 +14793,126 @@
         <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:41">
+      <c r="AP22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" t="n">
         <v>0</v>
@@ -14337,10 +14924,13 @@
         <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41">
+        <v>1</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -14363,10 +14953,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -14390,7 +14980,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -14423,7 +15013,7 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
         <v>1</v>
@@ -14462,10 +15052,13 @@
         <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -14482,16 +15075,16 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -14500,13 +15093,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -14515,16 +15108,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -14551,10 +15144,10 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -14572,25 +15165,28 @@
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -14607,16 +15203,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -14628,13 +15224,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -14643,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -14652,7 +15248,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -14700,7 +15296,7 @@
         <v>0</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" t="n">
         <v>0</v>
@@ -14709,13 +15305,16 @@
         <v>1</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41">
+        <v>1</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -14726,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -14741,7 +15340,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -14753,7 +15352,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -14798,7 +15397,7 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
@@ -14834,13 +15433,16 @@
         <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:41">
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -14854,7 +15456,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -14863,13 +15465,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -14881,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -14926,7 +15528,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -14964,8 +15566,11 @@
       <c r="AO28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:41">
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -14976,7 +15581,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -14988,10 +15593,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -15015,7 +15620,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -15033,10 +15638,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -15089,8 +15694,11 @@
       <c r="AO29" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:41">
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -15101,25 +15709,25 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -15140,13 +15748,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -15158,13 +15766,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -15182,7 +15790,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -15212,10 +15820,13 @@
         <v>0</v>
       </c>
       <c r="AO30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -15226,46 +15837,46 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>1</v>
@@ -15274,10 +15885,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -15289,19 +15900,19 @@
         <v>1</v>
       </c>
       <c r="Y31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -15325,22 +15936,25 @@
         <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
       </c>
       <c r="AN31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -15357,7 +15971,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -15366,7 +15980,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -15381,22 +15995,22 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -15405,31 +16019,31 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE32" t="n">
         <v>0</v>
@@ -15438,13 +16052,13 @@
         <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32" t="n">
         <v>0</v>
       </c>
       <c r="AI32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ32" t="n">
         <v>0</v>
@@ -15453,10 +16067,10 @@
         <v>0</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN32" t="n">
         <v>0</v>
@@ -15464,8 +16078,11 @@
       <c r="AO32" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:41">
+      <c r="AP32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -15482,13 +16099,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -15497,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -15539,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -15551,7 +16168,7 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -15572,7 +16189,7 @@
         <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
@@ -15589,8 +16206,11 @@
       <c r="AO33" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:41">
+      <c r="AP33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -15604,7 +16224,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -15613,13 +16233,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -15640,7 +16260,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -15661,7 +16281,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -15673,16 +16293,16 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
@@ -15697,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
         <v>0</v>
@@ -15712,15 +16332,18 @@
         <v>0</v>
       </c>
       <c r="AO34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -15732,7 +16355,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -15741,10 +16364,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -15753,7 +16376,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -15768,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -15789,7 +16412,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -15801,16 +16424,16 @@
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35" t="n">
         <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35" t="n">
         <v>0</v>
@@ -15825,7 +16448,7 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" t="n">
         <v>0</v>
@@ -15839,13 +16462,16 @@
       <c r="AO35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:41">
+      <c r="AP35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -15854,19 +16480,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -15964,8 +16590,11 @@
       <c r="AO36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:41">
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -15976,25 +16605,25 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -16081,7 +16710,7 @@
         <v>0</v>
       </c>
       <c r="AM37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" t="n">
         <v>0</v>
@@ -16089,8 +16718,11 @@
       <c r="AO37" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:41">
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -16104,7 +16736,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -16113,7 +16745,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -16131,7 +16763,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -16149,7 +16781,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -16206,16 +16838,19 @@
         <v>0</v>
       </c>
       <c r="AM38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -16259,7 +16894,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -16277,7 +16912,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -16334,13 +16969,16 @@
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO39" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:41">
+      <c r="AP39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -16354,7 +16992,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -16366,7 +17004,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -16414,7 +17052,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
@@ -16453,7 +17091,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" t="n">
         <v>0</v>
@@ -16464,8 +17102,11 @@
       <c r="AO40" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:41">
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -16482,19 +17123,19 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -16515,7 +17156,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -16533,7 +17174,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -16542,7 +17183,7 @@
         <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
@@ -16551,7 +17192,7 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -16581,12 +17222,143 @@
         <v>0</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN41" t="n">
         <v>0</v>
       </c>
       <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16601,7 +17373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16611,36 +17383,36 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>22</v>
@@ -16648,7 +17420,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="n">
         <v>20</v>
@@ -16656,15 +17428,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
         <v>17</v>
@@ -16683,12 +17455,12 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
         <v>12</v>
@@ -16696,7 +17468,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>12</v>
@@ -16704,7 +17476,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="n">
         <v>11</v>
@@ -16712,7 +17484,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="n">
         <v>10</v>
@@ -16720,7 +17492,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="n">
         <v>9</v>
@@ -16728,23 +17500,23 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
@@ -16752,7 +17524,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
@@ -16760,47 +17532,47 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="n">
         <v>6</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B25" t="n">
         <v>4</v>
@@ -16808,7 +17580,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B26" t="n">
         <v>4</v>
@@ -16816,7 +17588,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="n">
         <v>4</v>
@@ -16824,7 +17596,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="n">
         <v>4</v>
@@ -16832,15 +17604,15 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="n">
         <v>3</v>
@@ -16848,7 +17620,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B31" t="n">
         <v>3</v>
@@ -16856,23 +17628,23 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B34" t="n">
         <v>2</v>
@@ -16880,7 +17652,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B35" t="n">
         <v>2</v>
@@ -16888,7 +17660,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B36" t="n">
         <v>2</v>
@@ -16896,15 +17668,15 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -16912,7 +17684,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -16920,7 +17692,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -16928,9 +17700,17 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>CVAL:IM</t>
+  </si>
+  <si>
+    <t>DANSKE:DC</t>
   </si>
   <si>
     <t>DEXB:BB</t>
@@ -496,7 +499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ43"/>
+  <dimension ref="A1:AR44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +507,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:44">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,8 +634,11 @@
       <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:43">
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -715,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -745,16 +751,16 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
@@ -762,8 +768,11 @@
       <c r="AQ2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:43">
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -893,8 +902,11 @@
       <c r="AQ3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:43">
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -965,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -977,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1024,8 +1036,11 @@
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:43">
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1096,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1155,8 +1170,11 @@
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:43">
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1227,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1236,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>1</v>
@@ -1245,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -1254,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -1269,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
         <v>1</v>
@@ -1278,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
@@ -1286,8 +1304,11 @@
       <c r="AQ6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:43">
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1358,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1417,8 +1438,11 @@
       <c r="AQ7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:43">
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1534,10 +1558,10 @@
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
@@ -1548,8 +1572,11 @@
       <c r="AQ8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:43">
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1679,8 +1706,11 @@
       <c r="AQ9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:43">
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1751,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1810,8 +1840,11 @@
       <c r="AQ10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:43">
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1888,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>1</v>
@@ -1897,22 +1930,22 @@
         <v>1</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
@@ -1924,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
         <v>1</v>
@@ -1933,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
@@ -1941,8 +1974,11 @@
       <c r="AQ11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:43">
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2072,8 +2108,11 @@
       <c r="AQ12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:43">
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2144,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -2203,8 +2242,11 @@
       <c r="AQ13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:43">
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2275,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -2287,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -2302,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
@@ -2317,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
         <v>1</v>
@@ -2326,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14" t="n">
         <v>0</v>
@@ -2334,8 +2376,11 @@
       <c r="AQ14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:43">
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2406,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -2465,8 +2510,11 @@
       <c r="AQ15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:43">
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2543,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -2555,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
         <v>1</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
         <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -2582,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16" t="n">
         <v>0</v>
@@ -2591,13 +2639,16 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:43">
+      <c r="AR16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2683,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2713,22 +2764,25 @@
         <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:43">
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2835,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
         <v>1</v>
@@ -2844,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
@@ -2853,13 +2907,16 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:43">
+      <c r="AR18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2939,13 +2996,13 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
         <v>1</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2975,13 +3032,13 @@
         <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
         <v>1</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19" t="n">
         <v>0</v>
@@ -2989,8 +3046,11 @@
       <c r="AQ19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:43">
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3061,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -3106,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20" t="n">
         <v>0</v>
@@ -3120,8 +3180,11 @@
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:43">
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3251,8 +3314,11 @@
       <c r="AQ21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:43">
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3323,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -3382,8 +3448,11 @@
       <c r="AQ22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:43">
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3454,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -3513,8 +3582,11 @@
       <c r="AQ23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:43">
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -3534,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -3570,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -3597,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -3630,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO24" t="n">
         <v>1</v>
@@ -3644,8 +3716,11 @@
       <c r="AQ24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:43">
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3659,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -3716,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -3728,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -3743,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
         <v>0</v>
@@ -3764,19 +3839,22 @@
         <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO25" t="n">
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:43">
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -3826,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3862,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -3877,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI26" t="n">
         <v>0</v>
@@ -3906,8 +3984,11 @@
       <c r="AQ26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:43">
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3978,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -4037,40 +4118,43 @@
       <c r="AQ27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:43">
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4079,13 +4163,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -4094,10 +4178,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -4109,13 +4193,13 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -4130,25 +4214,25 @@
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
         <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ28" t="n">
         <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" t="n">
         <v>0</v>
@@ -4163,24 +4247,27 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -4189,25 +4276,25 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1</v>
@@ -4216,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -4228,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -4240,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -4249,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -4264,25 +4351,25 @@
         <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29" t="n">
         <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
@@ -4297,10 +4384,13 @@
         <v>0</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:43">
+        <v>1</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -4314,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -4338,10 +4428,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -4350,13 +4440,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -4371,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -4383,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
@@ -4392,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -4430,8 +4520,11 @@
       <c r="AQ30" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:43">
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -4445,10 +4538,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -4481,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4514,10 +4607,10 @@
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -4526,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
@@ -4553,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP31" t="n">
         <v>0</v>
@@ -4561,8 +4654,11 @@
       <c r="AQ31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:43">
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -4579,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -4633,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -4645,16 +4741,16 @@
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" t="n">
         <v>0</v>
@@ -4687,13 +4783,16 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:43">
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -4740,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -4779,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -4788,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
@@ -4823,13 +4922,16 @@
       <c r="AQ33" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:43">
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -4871,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -4954,13 +5056,16 @@
       <c r="AQ34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:43">
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -4969,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -5005,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5026,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -5035,10 +5140,10 @@
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35" t="n">
         <v>0</v>
@@ -5071,10 +5176,10 @@
         <v>0</v>
       </c>
       <c r="AM35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO35" t="n">
         <v>0</v>
@@ -5085,8 +5190,11 @@
       <c r="AQ35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:43">
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -5100,10 +5208,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -5136,19 +5244,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -5169,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -5205,10 +5313,10 @@
         <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP36" t="n">
         <v>0</v>
@@ -5216,8 +5324,11 @@
       <c r="AQ36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:43">
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -5231,10 +5342,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -5243,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -5267,19 +5378,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -5288,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -5300,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC37" t="n">
         <v>0</v>
@@ -5309,13 +5420,13 @@
         <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
         <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH37" t="n">
         <v>0</v>
@@ -5333,10 +5444,10 @@
         <v>0</v>
       </c>
       <c r="AM37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO37" t="n">
         <v>0</v>
@@ -5345,10 +5456,13 @@
         <v>0</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -5362,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -5374,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -5434,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -5443,13 +5557,13 @@
         <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG38" t="n">
         <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI38" t="n">
         <v>0</v>
@@ -5467,10 +5581,10 @@
         <v>0</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP38" t="n">
         <v>0</v>
@@ -5478,8 +5592,11 @@
       <c r="AQ38" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:43">
+      <c r="AR38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -5529,13 +5646,13 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -5550,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -5609,8 +5726,11 @@
       <c r="AQ39" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:43">
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -5627,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -5681,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -5720,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="AK40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" t="n">
         <v>0</v>
@@ -5740,8 +5860,11 @@
       <c r="AQ40" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:43">
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -5758,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -5797,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -5812,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -5854,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM41" t="n">
         <v>0</v>
@@ -5871,8 +5994,11 @@
       <c r="AQ41" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:43">
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -5922,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -5991,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="AN42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" t="n">
         <v>0</v>
@@ -6002,8 +6128,11 @@
       <c r="AQ42" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:43">
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -6053,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6086,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC43" t="n">
         <v>0</v>
@@ -6125,12 +6254,149 @@
         <v>0</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP43" t="n">
         <v>0</v>
       </c>
       <c r="AQ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6145,7 +6411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6155,7 +6421,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6163,15 +6429,15 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6179,7 +6445,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6192,7 +6458,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="n">
         <v>9</v>
@@ -6211,20 +6477,20 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>6</v>
@@ -6232,26 +6498,26 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6259,15 +6525,15 @@
         <v>28</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6275,68 +6541,68 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B24" t="n">
         <v>2</v>
@@ -6344,127 +6610,127 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -6472,7 +6738,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -6480,7 +6746,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -6488,9 +6754,17 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6505,7 +6779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ43"/>
+  <dimension ref="A1:AR44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6513,7 +6787,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:44">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6640,8 +6914,11 @@
       <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:43">
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6718,10 +6995,10 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -6769,10 +7046,13 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6843,10 +7123,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -6861,10 +7141,10 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>0</v>
@@ -6873,16 +7153,16 @@
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
@@ -6891,19 +7171,22 @@
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -7033,8 +7316,11 @@
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:43">
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -7105,10 +7391,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -7164,8 +7450,11 @@
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:43">
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -7239,10 +7528,10 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -7295,8 +7584,11 @@
       <c r="AQ6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:43">
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -7426,8 +7718,11 @@
       <c r="AQ7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:43">
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -7557,8 +7852,11 @@
       <c r="AQ8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:43">
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -7632,7 +7930,7 @@
         <v>1</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -7647,13 +7945,13 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
         <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -7662,19 +7960,19 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
         <v>1</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
@@ -7686,10 +7984,13 @@
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -7819,8 +8120,11 @@
       <c r="AQ10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:43">
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -7950,8 +8254,11 @@
       <c r="AQ11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:43">
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -8081,8 +8388,11 @@
       <c r="AQ12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:43">
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -8212,8 +8522,11 @@
       <c r="AQ13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:43">
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -8290,10 +8603,10 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -8323,13 +8636,13 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
         <v>1</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
@@ -8341,10 +8654,13 @@
         <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -8430,10 +8746,10 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -8460,10 +8776,10 @@
         <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" t="n">
         <v>0</v>
@@ -8474,8 +8790,11 @@
       <c r="AQ15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:43">
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -8605,8 +8924,11 @@
       <c r="AQ16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:43">
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -8677,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -8710,19 +9032,19 @@
         <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
         <v>1</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17" t="n">
         <v>0</v>
@@ -8734,10 +9056,13 @@
         <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -8867,8 +9192,11 @@
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:43">
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -8998,8 +9326,11 @@
       <c r="AQ19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:43">
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -9070,16 +9401,16 @@
         <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
         <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -9088,13 +9419,13 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
         <v>1</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
@@ -9103,19 +9434,19 @@
         <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
         <v>1</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20" t="n">
         <v>0</v>
@@ -9124,13 +9455,16 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:43">
+      <c r="AR20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -9204,13 +9538,13 @@
         <v>1</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
@@ -9219,10 +9553,10 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" t="n">
         <v>0</v>
@@ -9234,19 +9568,19 @@
         <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN21" t="n">
         <v>0</v>
@@ -9255,13 +9589,16 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:43">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -9391,8 +9728,11 @@
       <c r="AQ22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:43">
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -9502,10 +9842,10 @@
         <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -9522,8 +9862,11 @@
       <c r="AQ23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:43">
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -9552,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9567,7 +9910,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9653,8 +9996,11 @@
       <c r="AQ24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:43">
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -9665,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -9683,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9698,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9784,8 +10130,11 @@
       <c r="AQ25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:43">
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -9793,10 +10142,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -9915,8 +10264,11 @@
       <c r="AQ26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:43">
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -9924,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -9945,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10046,8 +10398,11 @@
       <c r="AQ27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:43">
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -10118,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -10163,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="AM28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN28" t="n">
         <v>0</v>
@@ -10177,8 +10532,11 @@
       <c r="AQ28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:43">
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -10222,7 +10580,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10297,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO29" t="n">
         <v>0</v>
@@ -10308,8 +10666,11 @@
       <c r="AQ29" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:43">
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -10329,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -10338,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10353,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10419,10 +10780,10 @@
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" t="n">
         <v>0</v>
@@ -10439,8 +10800,11 @@
       <c r="AQ30" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:43">
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -10451,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -10460,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -10514,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
@@ -10553,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN31" t="n">
         <v>0</v>
@@ -10570,8 +10934,11 @@
       <c r="AQ31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:43">
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -10648,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
@@ -10684,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" t="n">
         <v>0</v>
@@ -10701,8 +11068,11 @@
       <c r="AQ32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:43">
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -10713,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -10722,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -10734,22 +11104,22 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10758,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -10779,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
@@ -10791,10 +11161,10 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
         <v>0</v>
@@ -10806,19 +11176,19 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN33" t="n">
         <v>0</v>
@@ -10830,10 +11200,13 @@
         <v>0</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -10853,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -10862,34 +11235,34 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -10904,16 +11277,16 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
@@ -10925,10 +11298,10 @@
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" t="n">
         <v>0</v>
@@ -10940,16 +11313,16 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN34" t="n">
         <v>0</v>
@@ -10963,8 +11336,11 @@
       <c r="AQ34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:43">
+      <c r="AR34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -10993,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -11008,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -11017,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11074,10 +11450,10 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
@@ -11094,8 +11470,11 @@
       <c r="AQ35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:43">
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -11103,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -11115,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -11172,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
@@ -11223,10 +11602,13 @@
         <v>0</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -11234,7 +11616,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -11246,7 +11628,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -11255,7 +11637,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -11267,10 +11649,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -11297,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -11306,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37" t="n">
         <v>0</v>
@@ -11342,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN37" t="n">
         <v>0</v>
@@ -11356,8 +11738,11 @@
       <c r="AQ37" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:43">
+      <c r="AR37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -11368,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -11386,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11398,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11487,8 +11872,11 @@
       <c r="AQ38" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:43">
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -11499,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -11517,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -11568,7 +11956,7 @@
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="n">
         <v>0</v>
@@ -11607,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" t="n">
         <v>0</v>
@@ -11618,8 +12006,11 @@
       <c r="AQ39" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:43">
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -11702,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" t="n">
         <v>0</v>
@@ -11735,13 +12126,13 @@
         <v>0</v>
       </c>
       <c r="AM40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" t="n">
         <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP40" t="n">
         <v>0</v>
@@ -11749,8 +12140,11 @@
       <c r="AQ40" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:43">
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -11869,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO41" t="n">
         <v>0</v>
@@ -11880,8 +12274,11 @@
       <c r="AQ41" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:43">
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -11901,7 +12298,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -11991,10 +12388,10 @@
         <v>0</v>
       </c>
       <c r="AK42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" t="n">
         <v>0</v>
@@ -12011,8 +12408,11 @@
       <c r="AQ42" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:43">
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -12032,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -12041,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -12125,10 +12525,10 @@
         <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN43" t="n">
         <v>0</v>
@@ -12140,6 +12540,143 @@
         <v>0</v>
       </c>
       <c r="AQ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12154,7 +12691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12164,7 +12701,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -12172,7 +12709,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -12180,15 +12717,15 @@
         <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -12196,7 +12733,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -12217,10 +12754,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -12228,7 +12765,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -12249,7 +12786,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" t="n">
         <v>4</v>
@@ -12257,7 +12794,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B13" t="n">
         <v>4</v>
@@ -12265,15 +12802,15 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
@@ -12281,7 +12818,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
@@ -12297,7 +12834,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
         <v>3</v>
@@ -12305,7 +12842,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="n">
         <v>3</v>
@@ -12313,7 +12850,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -12321,7 +12858,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -12329,7 +12866,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B22" t="n">
         <v>2</v>
@@ -12337,7 +12874,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B23" t="n">
         <v>2</v>
@@ -12353,7 +12890,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B25" t="n">
         <v>2</v>
@@ -12361,7 +12898,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -12369,7 +12906,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -12377,7 +12914,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -12393,7 +12930,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -12401,7 +12938,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -12409,7 +12946,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -12417,7 +12954,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -12425,7 +12962,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -12433,23 +12970,23 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -12465,7 +13002,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -12473,7 +13010,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -12489,7 +13026,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -12497,9 +13034,17 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12514,7 +13059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ43"/>
+  <dimension ref="A1:AR44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12522,7 +13067,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:44">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12649,8 +13194,11 @@
       <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:43">
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -12721,13 +13269,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>1</v>
@@ -12736,16 +13284,16 @@
         <v>1</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -12763,25 +13311,28 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -12855,28 +13406,28 @@
         <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -12888,10 +13439,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
@@ -12900,19 +13451,22 @@
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:43">
+      <c r="AR3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -12983,7 +13537,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -13001,13 +13555,13 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>1</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
@@ -13016,10 +13570,10 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
@@ -13037,13 +13591,16 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:43">
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -13114,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -13171,10 +13728,13 @@
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -13245,16 +13805,16 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
         <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -13263,13 +13823,13 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -13287,10 +13847,10 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
@@ -13302,10 +13862,13 @@
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -13376,7 +13939,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -13435,8 +13998,11 @@
       <c r="AQ7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:43">
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -13507,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -13519,10 +14085,10 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -13566,8 +14132,11 @@
       <c r="AQ8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:43">
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -13638,7 +14207,7 @@
         <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -13656,16 +14225,16 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
         <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>1</v>
@@ -13674,16 +14243,16 @@
         <v>1</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
         <v>1</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
@@ -13692,13 +14261,16 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:43">
+      <c r="AR9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -13769,7 +14341,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -13790,10 +14362,10 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -13828,8 +14400,11 @@
       <c r="AQ10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:43">
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -13903,10 +14478,10 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -13936,10 +14511,10 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
@@ -13959,8 +14534,11 @@
       <c r="AQ11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:43">
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -14055,10 +14633,10 @@
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12" t="n">
         <v>0</v>
@@ -14090,8 +14668,11 @@
       <c r="AQ12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:43">
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -14162,19 +14743,19 @@
         <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
         <v>1</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -14189,7 +14770,7 @@
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
         <v>1</v>
@@ -14198,13 +14779,13 @@
         <v>1</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -14216,13 +14797,16 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:43">
+      <c r="AR13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -14293,16 +14877,16 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -14352,8 +14936,11 @@
       <c r="AQ14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:43">
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -14424,7 +15011,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -14475,16 +15062,19 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:43">
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -14555,19 +15145,19 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>1</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -14582,7 +15172,7 @@
         <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
         <v>1</v>
@@ -14591,10 +15181,10 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
         <v>1</v>
@@ -14606,16 +15196,19 @@
         <v>1</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -14686,7 +15279,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -14698,10 +15291,10 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -14728,25 +15321,28 @@
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17" t="n">
         <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -14876,8 +15472,11 @@
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:43">
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -14954,10 +15553,10 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -14966,10 +15565,10 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -15007,8 +15606,11 @@
       <c r="AQ19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:43">
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -15079,16 +15681,16 @@
         <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -15097,19 +15699,19 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
         <v>1</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
         <v>1</v>
@@ -15124,7 +15726,7 @@
         <v>1</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20" t="n">
         <v>0</v>
@@ -15133,13 +15735,16 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:43">
+      <c r="AR20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -15264,13 +15869,16 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:43">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -15341,7 +15949,7 @@
         <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -15350,25 +15958,25 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
         <v>1</v>
@@ -15377,31 +15985,34 @@
         <v>1</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
         <v>1</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:43">
+      <c r="AR22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -15472,34 +16083,34 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
         <v>1</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
         <v>1</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
         <v>1</v>
@@ -15508,16 +16119,16 @@
         <v>1</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN23" t="n">
         <v>0</v>
@@ -15526,36 +16137,39 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:43">
+      <c r="AR23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -15570,49 +16184,49 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -15621,31 +16235,31 @@
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -15657,18 +16271,21 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -15680,106 +16297,106 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25" t="n">
         <v>0</v>
@@ -15791,10 +16408,13 @@
         <v>0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:43">
+        <v>1</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -15805,10 +16425,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -15850,7 +16470,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -15883,7 +16503,7 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -15922,10 +16542,13 @@
         <v>0</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -15939,16 +16562,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -15966,13 +16589,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -15990,13 +16613,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -16017,10 +16640,10 @@
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
@@ -16038,25 +16661,28 @@
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -16076,16 +16702,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -16097,13 +16723,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -16112,7 +16738,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -16121,13 +16747,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -16172,7 +16798,7 @@
         <v>0</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN28" t="n">
         <v>0</v>
@@ -16181,13 +16807,16 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:43">
+        <v>1</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -16201,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -16219,7 +16848,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -16231,7 +16860,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -16258,7 +16887,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -16276,7 +16905,7 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -16312,13 +16941,16 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:43">
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -16332,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -16347,10 +16979,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -16362,7 +16994,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -16389,7 +17021,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -16410,7 +17042,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -16448,8 +17080,11 @@
       <c r="AQ30" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:43">
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -16460,10 +17095,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -16505,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -16520,13 +17155,13 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -16579,8 +17214,11 @@
       <c r="AQ31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:43">
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -16591,19 +17229,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -16615,7 +17253,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -16642,7 +17280,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -16651,16 +17289,16 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
@@ -16678,7 +17316,7 @@
         <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" t="n">
         <v>0</v>
@@ -16708,10 +17346,13 @@
         <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -16725,7 +17366,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -16734,10 +17375,10 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -16746,7 +17387,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -16755,13 +17396,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -16770,19 +17411,19 @@
         <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -16791,19 +17432,19 @@
         <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
         <v>0</v>
@@ -16827,22 +17468,25 @@
         <v>0</v>
       </c>
       <c r="AM33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO33" t="n">
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -16856,7 +17500,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -16868,7 +17512,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -16886,22 +17530,22 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -16910,34 +17554,34 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" t="n">
         <v>0</v>
@@ -16946,13 +17590,13 @@
         <v>0</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34" t="n">
         <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="n">
         <v>0</v>
@@ -16961,10 +17605,10 @@
         <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP34" t="n">
         <v>0</v>
@@ -16972,8 +17616,11 @@
       <c r="AQ34" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:43">
+      <c r="AR34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -16993,7 +17640,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -17005,13 +17652,13 @@
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -17044,7 +17691,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -17053,7 +17700,7 @@
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35" t="n">
         <v>0</v>
@@ -17065,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -17086,7 +17733,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
@@ -17103,8 +17750,11 @@
       <c r="AQ35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:43">
+      <c r="AR35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -17124,7 +17774,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -17142,10 +17792,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -17160,7 +17810,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -17175,13 +17825,13 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
@@ -17193,16 +17843,16 @@
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
         <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
         <v>0</v>
@@ -17217,7 +17867,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" t="n">
         <v>0</v>
@@ -17232,15 +17882,18 @@
         <v>0</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -17255,7 +17908,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -17264,10 +17917,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -17276,7 +17929,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -17291,7 +17944,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -17306,7 +17959,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -17315,7 +17968,7 @@
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37" t="n">
         <v>0</v>
@@ -17327,16 +17980,16 @@
         <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG37" t="n">
         <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI37" t="n">
         <v>0</v>
@@ -17351,7 +18004,7 @@
         <v>0</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN37" t="n">
         <v>0</v>
@@ -17365,13 +18018,16 @@
       <c r="AQ37" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:43">
+      <c r="AR37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -17386,19 +18042,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -17496,8 +18152,11 @@
       <c r="AQ38" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:43">
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -17511,13 +18170,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -17526,10 +18185,10 @@
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -17568,7 +18227,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -17619,7 +18278,7 @@
         <v>0</v>
       </c>
       <c r="AO39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" t="n">
         <v>0</v>
@@ -17627,8 +18286,11 @@
       <c r="AQ39" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:43">
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -17642,7 +18304,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -17654,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -17675,7 +18337,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -17693,13 +18355,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -17750,16 +18412,19 @@
         <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:43">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -17806,7 +18471,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -17824,13 +18489,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -17884,13 +18549,16 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ41" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:43">
+      <c r="AR41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -17910,7 +18578,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -17922,7 +18590,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -17970,7 +18638,7 @@
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42" t="n">
         <v>0</v>
@@ -18009,7 +18677,7 @@
         <v>0</v>
       </c>
       <c r="AN42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" t="n">
         <v>0</v>
@@ -18020,8 +18688,11 @@
       <c r="AQ42" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:43">
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -18032,7 +18703,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -18041,19 +18712,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -18077,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -18092,10 +18763,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
@@ -18104,7 +18775,7 @@
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" t="n">
         <v>0</v>
@@ -18113,7 +18784,7 @@
         <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
         <v>0</v>
@@ -18143,12 +18814,149 @@
         <v>0</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP43" t="n">
         <v>0</v>
       </c>
       <c r="AQ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18163,7 +18971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18173,15 +18981,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -18189,7 +18997,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -18197,7 +19005,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -18205,15 +19013,15 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -18221,7 +19029,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -18229,7 +19037,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -18237,7 +19045,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -18245,15 +19053,15 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -18261,15 +19069,15 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -18277,7 +19085,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -18285,7 +19093,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -18293,15 +19101,15 @@
         <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -18309,31 +19117,31 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -18341,15 +19149,15 @@
         <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -18357,12 +19165,12 @@
         <v>8</v>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B25" t="n">
         <v>5</v>
@@ -18370,71 +19178,71 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B34" t="n">
         <v>3</v>
@@ -18442,23 +19250,23 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B37" t="n">
         <v>2</v>
@@ -18466,7 +19274,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B38" t="n">
         <v>2</v>
@@ -18474,31 +19282,31 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -18506,9 +19314,17 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -90,6 +90,9 @@
     <t>DANSKE:DC</t>
   </si>
   <si>
+    <t>DBK:GR</t>
+  </si>
+  <si>
     <t>DEXB:BB</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
   </si>
   <si>
     <t>SAN:SM</t>
+  </si>
+  <si>
+    <t>STAN:LN</t>
   </si>
   <si>
     <t>TATT:GA</t>
@@ -499,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR44"/>
+  <dimension ref="A1:AT46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +513,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:46">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,8 +643,14 @@
       <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:44">
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -724,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -754,25 +766,31 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:44">
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -894,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
@@ -905,8 +923,14 @@
       <c r="AR3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:44">
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -980,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -992,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -1039,8 +1063,14 @@
       <c r="AR4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:44">
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1114,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -1173,8 +1203,14 @@
       <c r="AR5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:44">
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1248,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1257,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
         <v>1</v>
@@ -1266,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -1275,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
@@ -1290,25 +1326,31 @@
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
         <v>1</v>
       </c>
       <c r="AO6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:44">
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1382,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1441,8 +1483,14 @@
       <c r="AR7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:44">
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1516,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1561,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
         <v>0</v>
@@ -1575,8 +1623,14 @@
       <c r="AR8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:44">
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1709,8 +1763,14 @@
       <c r="AR9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:44">
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1784,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1843,8 +1903,14 @@
       <c r="AR10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:44">
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1924,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
         <v>1</v>
@@ -1933,22 +1999,22 @@
         <v>1</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
@@ -1960,25 +2026,31 @@
         <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:44">
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2111,8 +2183,14 @@
       <c r="AR12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:44">
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2186,13 +2264,13 @@
         <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -2245,8 +2323,14 @@
       <c r="AR13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:44">
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2320,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -2332,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -2347,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" t="n">
         <v>0</v>
@@ -2362,25 +2446,31 @@
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
         <v>1</v>
       </c>
       <c r="AO14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:44">
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2454,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -2513,8 +2603,14 @@
       <c r="AR15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:44">
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2594,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -2606,25 +2702,25 @@
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
         <v>1</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
         <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
         <v>1</v>
@@ -2633,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16" t="n">
         <v>0</v>
@@ -2642,13 +2738,19 @@
         <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2737,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -2767,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
         <v>0</v>
@@ -2779,10 +2881,16 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:44">
+        <v>1</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2892,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
         <v>1</v>
@@ -2901,22 +3009,28 @@
         <v>1</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18" t="n">
         <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2999,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
         <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
@@ -3035,22 +3149,28 @@
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:44">
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3124,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -3169,13 +3289,13 @@
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
@@ -3183,8 +3303,14 @@
       <c r="AR20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:44">
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3317,8 +3443,14 @@
       <c r="AR21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:44">
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3392,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -3451,8 +3583,14 @@
       <c r="AR22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:44">
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3526,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -3585,8 +3723,14 @@
       <c r="AR23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:44">
+      <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -3672,10 +3816,10 @@
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>0</v>
@@ -3705,22 +3849,28 @@
         <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:44">
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3740,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -3776,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -3791,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -3806,10 +3956,10 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -3839,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25" t="n">
         <v>0</v>
@@ -3848,13 +3998,19 @@
         <v>1</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:44">
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -3868,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -3925,10 +4081,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -3940,10 +4096,10 @@
         <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
@@ -3955,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26" t="n">
         <v>0</v>
@@ -3979,16 +4135,22 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26" t="n">
         <v>0</v>
       </c>
       <c r="AR26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:44">
+        <v>1</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -4038,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4059,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -4077,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
@@ -4092,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ27" t="n">
         <v>0</v>
@@ -4121,8 +4283,14 @@
       <c r="AR27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:44">
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -4196,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -4255,40 +4423,46 @@
       <c r="AR28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:44">
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4297,13 +4471,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -4312,10 +4486,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -4330,13 +4504,13 @@
         <v>1</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -4351,25 +4525,25 @@
         <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
         <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
@@ -4384,24 +4558,30 @@
         <v>0</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -4410,25 +4590,25 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>1</v>
@@ -4437,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -4449,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -4464,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -4473,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
@@ -4488,25 +4668,25 @@
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI30" t="n">
         <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" t="n">
         <v>0</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN30" t="n">
         <v>0</v>
@@ -4523,8 +4703,14 @@
       <c r="AR30" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:44">
+      <c r="AS30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -4538,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -4562,10 +4748,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -4574,13 +4760,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -4595,10 +4781,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
@@ -4610,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -4619,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
@@ -4646,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP31" t="n">
         <v>0</v>
@@ -4657,8 +4843,14 @@
       <c r="AR31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:44">
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -4672,10 +4864,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -4708,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4729,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -4744,10 +4936,10 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE32" t="n">
         <v>0</v>
@@ -4756,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32" t="n">
         <v>0</v>
@@ -4783,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" t="n">
         <v>0</v>
@@ -4791,8 +4983,14 @@
       <c r="AR32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:44">
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -4809,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -4863,10 +5061,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -4878,16 +5076,16 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
@@ -4914,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP33" t="n">
         <v>0</v>
@@ -4923,10 +5121,16 @@
         <v>0</v>
       </c>
       <c r="AR33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:44">
+        <v>1</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -4973,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -5015,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
@@ -5024,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH34" t="n">
         <v>0</v>
@@ -5059,13 +5263,19 @@
       <c r="AR34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:44">
+      <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -5107,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -5131,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -5193,13 +5403,19 @@
       <c r="AR35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:44">
+      <c r="AS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -5208,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -5244,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5265,10 +5481,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
@@ -5277,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -5313,10 +5529,10 @@
         <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP36" t="n">
         <v>0</v>
@@ -5327,8 +5543,14 @@
       <c r="AR36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:44">
+      <c r="AS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -5342,10 +5564,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -5378,19 +5600,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -5399,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -5414,10 +5636,10 @@
         <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE37" t="n">
         <v>0</v>
@@ -5453,16 +5675,22 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR37" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:44">
+      <c r="AS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -5476,10 +5704,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -5488,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -5512,19 +5740,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -5533,10 +5761,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
@@ -5548,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -5557,13 +5785,13 @@
         <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
         <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38" t="n">
         <v>0</v>
@@ -5581,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="AN38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" t="n">
         <v>1</v>
@@ -5593,10 +5821,16 @@
         <v>0</v>
       </c>
       <c r="AR38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -5610,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -5622,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -5667,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -5685,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE39" t="n">
         <v>0</v>
@@ -5694,13 +5928,13 @@
         <v>0</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH39" t="n">
         <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ39" t="n">
         <v>0</v>
@@ -5721,16 +5955,22 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR39" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:44">
+      <c r="AS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -5780,13 +6020,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -5804,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
@@ -5863,8 +6103,14 @@
       <c r="AR40" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:44">
+      <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -5878,10 +6124,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -5920,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -5938,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
@@ -5977,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" t="n">
         <v>0</v>
@@ -5997,8 +6243,14 @@
       <c r="AR41" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:44">
+      <c r="AS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -6054,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -6069,10 +6321,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
@@ -6131,8 +6383,14 @@
       <c r="AR42" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:44">
+      <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -6149,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -6182,13 +6440,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -6203,10 +6461,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
@@ -6248,13 +6506,13 @@
         <v>0</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN43" t="n">
         <v>0</v>
       </c>
       <c r="AO43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" t="n">
         <v>0</v>
@@ -6265,8 +6523,14 @@
       <c r="AR43" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:44">
+      <c r="AS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -6337,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -6352,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -6397,6 +6661,292 @@
         <v>0</v>
       </c>
       <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6411,7 +6961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6421,7 +6971,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6429,15 +6979,15 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6445,7 +6995,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6458,7 +7008,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B6" t="n">
         <v>9</v>
@@ -6466,10 +7016,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6477,7 +7027,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6490,18 +7040,18 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6509,71 +7059,71 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6581,7 +7131,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6589,63 +7139,63 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6653,31 +7203,31 @@
         <v>6</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6685,23 +7235,23 @@
         <v>26</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6709,52 +7259,52 @@
         <v>3</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -6765,6 +7315,22 @@
         <v>10</v>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6779,7 +7345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR44"/>
+  <dimension ref="A1:AT46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6787,7 +7353,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:46">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6917,8 +7483,14 @@
       <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:44">
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6998,10 +7570,10 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -7049,10 +7621,16 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -7126,10 +7704,10 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -7144,10 +7722,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -7156,16 +7734,16 @@
         <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -7174,7 +7752,7 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
@@ -7185,8 +7763,14 @@
       <c r="AR3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:44">
+      <c r="AS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -7319,8 +7903,14 @@
       <c r="AR4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:44">
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -7394,10 +7984,10 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -7453,8 +8043,14 @@
       <c r="AR5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:44">
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -7531,10 +8127,10 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -7587,8 +8183,14 @@
       <c r="AR6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:44">
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -7721,8 +8323,14 @@
       <c r="AR7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:44">
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -7855,8 +8463,14 @@
       <c r="AR8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:44">
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -7933,7 +8547,7 @@
         <v>1</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -7948,13 +8562,13 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
         <v>1</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -7963,19 +8577,19 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
         <v>1</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
@@ -7987,10 +8601,16 @@
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -8123,8 +8743,14 @@
       <c r="AR10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:44">
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -8257,8 +8883,14 @@
       <c r="AR11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:44">
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -8391,8 +9023,14 @@
       <c r="AR12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:44">
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -8525,8 +9163,14 @@
       <c r="AR13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:44">
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -8606,10 +9250,10 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8639,13 +9283,13 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
         <v>1</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" t="n">
         <v>0</v>
@@ -8657,10 +9301,16 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -8749,10 +9399,10 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15" t="n">
         <v>0</v>
@@ -8779,13 +9429,13 @@
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
@@ -8793,8 +9443,14 @@
       <c r="AR15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:44">
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -8927,8 +9583,14 @@
       <c r="AR16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:44">
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -9002,7 +9664,7 @@
         <v>1</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -9035,19 +9697,19 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
         <v>1</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17" t="n">
         <v>0</v>
@@ -9059,10 +9721,16 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -9195,8 +9863,14 @@
       <c r="AR18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:44">
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -9329,8 +10003,14 @@
       <c r="AR19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:44">
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -9404,16 +10084,16 @@
         <v>1</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
         <v>1</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -9422,13 +10102,13 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
         <v>1</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
@@ -9437,19 +10117,19 @@
         <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
         <v>1</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20" t="n">
         <v>0</v>
@@ -9458,13 +10138,19 @@
         <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -9541,13 +10227,13 @@
         <v>1</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -9556,10 +10242,10 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -9571,34 +10257,40 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21" t="n">
         <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:44">
+      <c r="AS21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -9731,8 +10423,14 @@
       <c r="AR22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:44">
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -9845,10 +10543,10 @@
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN23" t="n">
         <v>0</v>
@@ -9865,8 +10563,14 @@
       <c r="AR23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:44">
+      <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -9999,8 +10703,14 @@
       <c r="AR24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:44">
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -10029,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -10044,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -10133,8 +10843,14 @@
       <c r="AR25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:44">
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -10145,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -10163,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10178,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10267,8 +10983,14 @@
       <c r="AR26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:44">
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -10276,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -10401,8 +11123,14 @@
       <c r="AR27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:44">
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -10410,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -10431,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10473,7 +11201,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -10535,8 +11263,14 @@
       <c r="AR28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:44">
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -10607,10 +11341,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
@@ -10655,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO29" t="n">
         <v>0</v>
@@ -10669,8 +11403,14 @@
       <c r="AR29" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:44">
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -10714,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10795,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30" t="n">
         <v>0</v>
@@ -10803,8 +11543,14 @@
       <c r="AR30" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:44">
+      <c r="AS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -10824,7 +11570,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -10833,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10848,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10917,10 +11663,10 @@
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN31" t="n">
         <v>0</v>
@@ -10937,8 +11683,14 @@
       <c r="AR31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:44">
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -10949,7 +11701,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -10958,7 +11710,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -11015,7 +11767,7 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
@@ -11054,10 +11806,10 @@
         <v>0</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO32" t="n">
         <v>0</v>
@@ -11071,8 +11823,14 @@
       <c r="AR32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:44">
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -11143,7 +11901,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -11152,7 +11910,7 @@
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
@@ -11188,13 +11946,13 @@
         <v>0</v>
       </c>
       <c r="AM33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN33" t="n">
         <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP33" t="n">
         <v>0</v>
@@ -11205,8 +11963,14 @@
       <c r="AR33" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:44">
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -11217,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -11226,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -11238,22 +12002,22 @@
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -11262,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -11286,7 +12050,7 @@
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
@@ -11298,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
         <v>0</v>
@@ -11313,19 +12077,19 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
         <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO34" t="n">
         <v>0</v>
@@ -11337,10 +12101,16 @@
         <v>0</v>
       </c>
       <c r="AR34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -11360,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -11369,34 +12139,34 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -11411,19 +12181,19 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35" t="n">
         <v>0</v>
@@ -11435,10 +12205,10 @@
         <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH35" t="n">
         <v>0</v>
@@ -11450,16 +12220,16 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO35" t="n">
         <v>0</v>
@@ -11473,8 +12243,14 @@
       <c r="AR35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:44">
+      <c r="AS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -11503,7 +12279,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -11518,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -11527,7 +12303,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -11587,10 +12363,10 @@
         <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN36" t="n">
         <v>0</v>
@@ -11607,8 +12383,14 @@
       <c r="AR36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:44">
+      <c r="AS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -11616,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -11628,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -11679,7 +12461,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -11688,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
         <v>0</v>
@@ -11739,10 +12521,16 @@
         <v>0</v>
       </c>
       <c r="AR37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -11750,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -11762,7 +12550,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -11771,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11783,10 +12571,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11813,10 +12601,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
@@ -11825,7 +12613,7 @@
         <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" t="n">
         <v>0</v>
@@ -11861,7 +12649,7 @@
         <v>0</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO38" t="n">
         <v>0</v>
@@ -11875,8 +12663,14 @@
       <c r="AR38" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:44">
+      <c r="AS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -11887,7 +12681,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -11905,7 +12699,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -11917,7 +12711,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -12009,8 +12803,14 @@
       <c r="AR39" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:44">
+      <c r="AS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -12021,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -12039,7 +12839,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -12093,7 +12893,7 @@
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="n">
         <v>0</v>
@@ -12132,7 +12932,7 @@
         <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" t="n">
         <v>0</v>
@@ -12143,8 +12943,14 @@
       <c r="AR40" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:44">
+      <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -12173,7 +12979,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -12185,7 +12991,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -12197,7 +13003,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -12242,10 +13048,10 @@
         <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI41" t="n">
         <v>0</v>
@@ -12263,7 +13069,7 @@
         <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" t="n">
         <v>0</v>
@@ -12277,8 +13083,14 @@
       <c r="AR41" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:44">
+      <c r="AS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -12364,7 +13176,7 @@
         <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -12406,13 +13218,19 @@
         <v>0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR42" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:44">
+      <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -12432,7 +13250,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -12525,10 +13343,10 @@
         <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN43" t="n">
         <v>0</v>
@@ -12537,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ43" t="n">
         <v>0</v>
@@ -12545,8 +13363,14 @@
       <c r="AR43" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:44">
+      <c r="AS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -12575,7 +13399,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -12677,6 +13501,292 @@
         <v>0</v>
       </c>
       <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12691,7 +13801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12701,7 +13811,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -12709,7 +13819,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -12717,15 +13827,15 @@
         <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -12733,7 +13843,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -12746,23 +13856,23 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
@@ -12778,7 +13888,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -12786,23 +13896,23 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B14" t="n">
         <v>4</v>
@@ -12810,23 +13920,23 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B17" t="n">
         <v>3</v>
@@ -12834,7 +13944,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="n">
         <v>3</v>
@@ -12842,7 +13952,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B19" t="n">
         <v>3</v>
@@ -12850,15 +13960,15 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -12866,7 +13976,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="n">
         <v>2</v>
@@ -12874,7 +13984,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
         <v>2</v>
@@ -12882,7 +13992,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B24" t="n">
         <v>2</v>
@@ -12898,23 +14008,23 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -12922,7 +14032,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -12930,7 +14040,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -12938,7 +14048,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -12946,7 +14056,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -12954,7 +14064,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -12962,7 +14072,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -12978,7 +14088,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -12986,18 +14096,18 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -13010,7 +14120,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -13018,7 +14128,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -13026,7 +14136,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -13034,7 +14144,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -13042,9 +14152,25 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13059,7 +14185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR44"/>
+  <dimension ref="A1:AT46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13067,7 +14193,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:46">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13197,8 +14323,14 @@
       <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:44">
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -13272,13 +14404,13 @@
         <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
         <v>1</v>
@@ -13287,16 +14419,16 @@
         <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
         <v>1</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -13314,25 +14446,31 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -13409,28 +14547,28 @@
         <v>1</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -13442,10 +14580,10 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -13463,10 +14601,16 @@
         <v>1</v>
       </c>
       <c r="AR3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -13540,7 +14684,7 @@
         <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -13558,13 +14702,13 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
         <v>1</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -13573,10 +14717,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" t="n">
         <v>0</v>
@@ -13588,19 +14732,25 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -13674,7 +14824,7 @@
         <v>1</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -13722,7 +14872,7 @@
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
@@ -13731,10 +14881,16 @@
         <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -13808,16 +14964,16 @@
         <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>1</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -13826,13 +14982,13 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -13850,10 +15006,10 @@
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6" t="n">
         <v>0</v>
@@ -13865,10 +15021,16 @@
         <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -13942,7 +15104,7 @@
         <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -14001,8 +15163,14 @@
       <c r="AR7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:44">
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -14076,7 +15244,7 @@
         <v>1</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -14088,10 +15256,10 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -14135,8 +15303,14 @@
       <c r="AR8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:44">
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -14210,7 +15384,7 @@
         <v>1</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -14228,16 +15402,16 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
         <v>1</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -14246,31 +15420,37 @@
         <v>1</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
         <v>1</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -14344,7 +15524,7 @@
         <v>1</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -14365,10 +15545,10 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -14403,8 +15583,14 @@
       <c r="AR10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:44">
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -14481,10 +15667,10 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -14514,10 +15700,10 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -14537,8 +15723,14 @@
       <c r="AR11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:44">
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -14636,10 +15828,10 @@
         <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
@@ -14671,8 +15863,14 @@
       <c r="AR12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:44">
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -14746,19 +15944,19 @@
         <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>1</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -14773,7 +15971,7 @@
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>1</v>
@@ -14782,13 +15980,13 @@
         <v>1</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
@@ -14800,13 +15998,19 @@
         <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -14880,16 +16084,16 @@
         <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
         <v>1</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -14939,8 +16143,14 @@
       <c r="AR14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:44">
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -15014,7 +16224,7 @@
         <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -15065,16 +16275,22 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:44">
+        <v>1</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -15148,19 +16364,19 @@
         <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
         <v>1</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -15175,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
         <v>1</v>
@@ -15184,10 +16400,10 @@
         <v>1</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
         <v>1</v>
@@ -15199,16 +16415,22 @@
         <v>1</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -15282,7 +16504,7 @@
         <v>1</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -15294,10 +16516,10 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -15324,25 +16546,31 @@
         <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" t="n">
         <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -15464,7 +16692,7 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18" t="n">
         <v>0</v>
@@ -15475,8 +16703,14 @@
       <c r="AR18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:44">
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -15556,10 +16790,10 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -15568,10 +16802,10 @@
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -15609,8 +16843,14 @@
       <c r="AR19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:44">
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -15684,16 +16924,16 @@
         <v>1</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -15702,19 +16942,19 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
         <v>1</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
         <v>1</v>
@@ -15729,7 +16969,7 @@
         <v>1</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20" t="n">
         <v>0</v>
@@ -15738,13 +16978,19 @@
         <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -15872,13 +17118,19 @@
         <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:44">
+      <c r="AS21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -15952,7 +17204,7 @@
         <v>1</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -15961,25 +17213,25 @@
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
         <v>1</v>
@@ -15988,19 +17240,19 @@
         <v>1</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" t="n">
         <v>1</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22" t="n">
         <v>0</v>
@@ -16009,10 +17261,16 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -16086,34 +17344,34 @@
         <v>1</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
         <v>1</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
         <v>1</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
         <v>1</v>
@@ -16122,16 +17380,16 @@
         <v>1</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="n">
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23" t="n">
         <v>0</v>
@@ -16140,13 +17398,19 @@
         <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -16268,7 +17532,7 @@
         <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24" t="n">
         <v>0</v>
@@ -16279,31 +17543,37 @@
       <c r="AR24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:44">
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -16318,52 +17588,52 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -16372,54 +17642,60 @@
         <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
         <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25" t="n">
         <v>0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -16431,112 +17707,112 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26" t="n">
         <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP26" t="n">
         <v>0</v>
@@ -16547,8 +17823,14 @@
       <c r="AR26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:44">
+      <c r="AS26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -16559,10 +17841,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -16604,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -16619,7 +17901,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -16640,7 +17922,7 @@
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
         <v>1</v>
@@ -16670,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP27" t="n">
         <v>0</v>
@@ -16679,10 +17961,16 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -16696,16 +17984,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -16723,13 +18011,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -16747,7 +18035,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -16756,7 +18044,7 @@
         <v>1</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -16777,10 +18065,10 @@
         <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH28" t="n">
         <v>0</v>
@@ -16798,7 +18086,7 @@
         <v>0</v>
       </c>
       <c r="AM28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN28" t="n">
         <v>0</v>
@@ -16807,16 +18095,22 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -16836,16 +18130,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -16857,13 +18151,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -16872,7 +18166,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -16881,7 +18175,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -16890,7 +18184,7 @@
         <v>1</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
@@ -16935,22 +18229,28 @@
         <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:44">
+        <v>1</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -16964,7 +18264,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -16982,7 +18282,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -16994,7 +18294,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -17024,7 +18324,7 @@
         <v>1</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -17042,7 +18342,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -17081,10 +18381,16 @@
         <v>0</v>
       </c>
       <c r="AR30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:44">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -17098,7 +18404,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -17113,10 +18419,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -17128,7 +18434,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -17158,7 +18464,7 @@
         <v>1</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
@@ -17179,7 +18485,7 @@
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
@@ -17217,8 +18523,14 @@
       <c r="AR31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:44">
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -17229,10 +18541,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -17274,7 +18586,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -17292,13 +18604,13 @@
         <v>1</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
@@ -17351,8 +18663,14 @@
       <c r="AR32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:44">
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -17363,19 +18681,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -17387,7 +18705,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -17414,7 +18732,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -17426,16 +18744,16 @@
         <v>1</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
@@ -17453,7 +18771,7 @@
         <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
@@ -17474,7 +18792,7 @@
         <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP33" t="n">
         <v>0</v>
@@ -17483,10 +18801,16 @@
         <v>0</v>
       </c>
       <c r="AR33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -17500,7 +18824,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -17509,10 +18833,10 @@
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -17521,7 +18845,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -17530,13 +18854,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -17545,22 +18869,22 @@
         <v>1</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>1</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
@@ -17569,19 +18893,19 @@
         <v>1</v>
       </c>
       <c r="AB34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
         <v>0</v>
@@ -17605,7 +18929,7 @@
         <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO34" t="n">
         <v>1</v>
@@ -17614,13 +18938,19 @@
         <v>0</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -17634,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -17646,7 +18976,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -17664,22 +18994,22 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -17688,37 +19018,37 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" t="n">
         <v>1</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH35" t="n">
         <v>0</v>
@@ -17727,13 +19057,13 @@
         <v>0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK35" t="n">
         <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
@@ -17745,16 +19075,22 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -17774,7 +19110,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -17786,13 +19122,13 @@
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -17828,7 +19164,7 @@
         <v>1</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
@@ -17837,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" t="n">
         <v>0</v>
@@ -17849,7 +19185,7 @@
         <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG36" t="n">
         <v>0</v>
@@ -17870,7 +19206,7 @@
         <v>0</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN36" t="n">
         <v>0</v>
@@ -17887,8 +19223,14 @@
       <c r="AR36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:44">
+      <c r="AS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -17908,7 +19250,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -17926,10 +19268,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -17944,7 +19286,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -17962,13 +19304,13 @@
         <v>1</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
         <v>0</v>
@@ -17980,16 +19322,16 @@
         <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
         <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI37" t="n">
         <v>0</v>
@@ -18004,7 +19346,7 @@
         <v>0</v>
       </c>
       <c r="AM37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" t="n">
         <v>0</v>
@@ -18019,15 +19361,21 @@
         <v>0</v>
       </c>
       <c r="AR37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -18042,7 +19390,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -18051,10 +19399,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -18063,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -18078,7 +19426,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -18093,10 +19441,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
@@ -18105,7 +19453,7 @@
         <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" t="n">
         <v>0</v>
@@ -18117,16 +19465,16 @@
         <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH38" t="n">
         <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ38" t="n">
         <v>0</v>
@@ -18141,10 +19489,10 @@
         <v>0</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP38" t="n">
         <v>0</v>
@@ -18155,13 +19503,19 @@
       <c r="AR38" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:44">
+      <c r="AS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -18176,19 +19530,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -18227,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -18289,8 +19643,14 @@
       <c r="AR39" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:44">
+      <c r="AS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -18304,13 +19664,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -18319,10 +19679,10 @@
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -18364,7 +19724,7 @@
         <v>1</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
@@ -18415,7 +19775,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" t="n">
         <v>0</v>
@@ -18423,13 +19783,19 @@
       <c r="AR40" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:44">
+      <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -18450,10 +19816,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -18471,7 +19837,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -18489,7 +19855,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -18498,7 +19864,7 @@
         <v>1</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
@@ -18510,7 +19876,7 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -18549,16 +19915,22 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" t="n">
         <v>0</v>
       </c>
       <c r="AR41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:44">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -18572,7 +19944,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -18584,7 +19956,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -18629,10 +20001,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
@@ -18689,10 +20061,16 @@
         <v>0</v>
       </c>
       <c r="AR42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:44">
+        <v>1</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -18712,7 +20090,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -18724,7 +20102,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -18739,7 +20117,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -18757,7 +20135,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -18766,7 +20144,7 @@
         <v>1</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
@@ -18775,7 +20153,7 @@
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC43" t="n">
         <v>0</v>
@@ -18814,7 +20192,7 @@
         <v>0</v>
       </c>
       <c r="AO43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" t="n">
         <v>0</v>
@@ -18823,10 +20201,16 @@
         <v>0</v>
       </c>
       <c r="AR43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:44">
+        <v>1</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -18837,7 +20221,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -18852,10 +20236,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -18882,7 +20266,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -18897,13 +20281,13 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA44" t="n">
         <v>0</v>
@@ -18921,7 +20305,7 @@
         <v>0</v>
       </c>
       <c r="AF44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="n">
         <v>0</v>
@@ -18957,6 +20341,292 @@
         <v>0</v>
       </c>
       <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18971,7 +20641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18981,31 +20651,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -19013,15 +20683,15 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -19029,7 +20699,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -19037,7 +20707,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -19045,7 +20715,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -19053,15 +20723,15 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -19069,47 +20739,47 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -19117,47 +20787,47 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -19165,166 +20835,182 @@
         <v>8</v>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
         <v>6</v>
-      </c>
-      <c r="B29" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="n">
         <v>5</v>
-      </c>
-      <c r="B32" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/granger_casualties_test.xlsx
+++ b/Output/granger_casualties_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>ACA:FP</t>
   </si>
@@ -138,7 +138,13 @@
     <t>SAN:SM</t>
   </si>
   <si>
+    <t>SHBA:SS</t>
+  </si>
+  <si>
     <t>STAN:LN</t>
+  </si>
+  <si>
+    <t>SWEDA:SS</t>
   </si>
   <si>
     <t>TATT:GA</t>
@@ -505,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT46"/>
+  <dimension ref="A1:AV48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +519,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,8 +655,14 @@
       <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:46">
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,13 +796,19 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:46">
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -912,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
@@ -929,8 +947,14 @@
       <c r="AT3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:46">
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1069,8 +1093,14 @@
       <c r="AT4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:46">
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1209,8 +1239,14 @@
       <c r="AT5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:46">
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1335,22 +1371,28 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:46">
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1489,8 +1531,14 @@
       <c r="AT7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:46">
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1615,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
@@ -1629,8 +1677,14 @@
       <c r="AT8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:46">
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1769,8 +1823,14 @@
       <c r="AT9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:46">
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1909,8 +1969,14 @@
       <c r="AT10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:46">
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2035,22 +2101,28 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:46">
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2189,8 +2261,14 @@
       <c r="AT12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:46">
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2329,8 +2407,14 @@
       <c r="AT13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:46">
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2455,22 +2539,28 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:46">
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2609,8 +2699,14 @@
       <c r="AT15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:46">
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2732,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
@@ -2744,13 +2840,19 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2875,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
         <v>0</v>
@@ -2887,10 +2989,16 @@
         <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:46">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3015,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" t="n">
         <v>0</v>
@@ -3024,13 +3132,19 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3155,22 +3269,28 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:46">
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3295,13 +3415,13 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS20" t="n">
         <v>0</v>
@@ -3309,8 +3429,14 @@
       <c r="AT20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:46">
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3449,8 +3575,14 @@
       <c r="AT21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:46">
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3721,14 @@
       <c r="AT22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:46">
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3729,8 +3867,14 @@
       <c r="AT23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:46">
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -3855,22 +3999,28 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:46">
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3995,22 +4145,28 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:46">
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -4135,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" t="n">
         <v>0</v>
@@ -4147,10 +4303,16 @@
         <v>0</v>
       </c>
       <c r="AT26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:46">
+        <v>1</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -4289,8 +4451,14 @@
       <c r="AT27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:46">
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -4429,8 +4597,14 @@
       <c r="AT28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:46">
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -4569,8 +4743,14 @@
       <c r="AT29" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:46">
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -4704,13 +4884,19 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -4832,10 +5018,10 @@
         <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ31" t="n">
         <v>0</v>
@@ -4849,8 +5035,14 @@
       <c r="AT31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:46">
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -4989,8 +5181,14 @@
       <c r="AT32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:46">
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -5112,25 +5310,31 @@
         <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="n">
         <v>0</v>
       </c>
       <c r="AR33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS33" t="n">
         <v>0</v>
       </c>
       <c r="AT33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:46">
+        <v>1</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -5269,8 +5473,14 @@
       <c r="AT34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:46">
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -5409,8 +5619,14 @@
       <c r="AT35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:46">
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -5549,8 +5765,14 @@
       <c r="AT36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:46">
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -5675,22 +5897,28 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:46">
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -5812,10 +6040,10 @@
         <v>0</v>
       </c>
       <c r="AO38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38" t="n">
         <v>0</v>
@@ -5829,8 +6057,14 @@
       <c r="AT38" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:46">
+      <c r="AU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -5955,22 +6189,28 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -6098,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR40" t="n">
         <v>0</v>
@@ -6109,8 +6349,14 @@
       <c r="AT40" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:46">
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -6124,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -6181,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
@@ -6249,8 +6495,14 @@
       <c r="AT41" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:46">
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -6264,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -6306,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -6389,8 +6641,14 @@
       <c r="AT42" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:46">
+      <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -6407,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -6446,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -6479,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE43" t="n">
         <v>0</v>
@@ -6506,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="AM43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN43" t="n">
         <v>0</v>
@@ -6529,8 +6787,14 @@
       <c r="AT43" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:46">
+      <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -6586,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -6601,10 +6865,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
@@ -6669,8 +6933,14 @@
       <c r="AT44" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:46">
+      <c r="AU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -6687,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -6720,13 +6990,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -6741,10 +7011,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
@@ -6786,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="AM45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN45" t="n">
         <v>0</v>
@@ -6798,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" t="n">
         <v>0</v>
@@ -6809,8 +7079,14 @@
       <c r="AT45" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:46">
+      <c r="AU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -6881,10 +7157,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
@@ -6899,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
         <v>0</v>
@@ -6947,6 +7223,304 @@
         <v>0</v>
       </c>
       <c r="AT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6961,7 +7535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6971,7 +7545,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6979,7 +7553,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7003,28 +7577,28 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B8" t="n">
         <v>9</v>
@@ -7032,7 +7606,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
         <v>7</v>
@@ -7056,7 +7630,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n">
         <v>7</v>
@@ -7072,15 +7646,15 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n">
         <v>6</v>
@@ -7088,7 +7662,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B16" t="n">
         <v>6</v>
@@ -7096,7 +7670,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
         <v>6</v>
@@ -7104,7 +7678,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
@@ -7120,7 +7694,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
         <v>5</v>
@@ -7128,7 +7702,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B21" t="n">
         <v>4</v>
@@ -7136,7 +7710,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B22" t="n">
         <v>4</v>
@@ -7144,7 +7718,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B23" t="n">
         <v>4</v>
@@ -7152,15 +7726,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" t="n">
         <v>3</v>
@@ -7168,7 +7742,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" t="n">
         <v>3</v>
@@ -7176,7 +7750,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" t="n">
         <v>3</v>
@@ -7192,7 +7766,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B29" t="n">
         <v>3</v>
@@ -7200,7 +7774,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B30" t="n">
         <v>3</v>
@@ -7208,7 +7782,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B31" t="n">
         <v>3</v>
@@ -7216,7 +7790,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B32" t="n">
         <v>3</v>
@@ -7224,15 +7798,15 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B34" t="n">
         <v>2</v>
@@ -7240,7 +7814,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B35" t="n">
         <v>2</v>
@@ -7248,7 +7822,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B36" t="n">
         <v>2</v>
@@ -7256,7 +7830,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B37" t="n">
         <v>2</v>
@@ -7272,7 +7846,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B39" t="n">
         <v>2</v>
@@ -7280,7 +7854,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B40" t="n">
         <v>2</v>
@@ -7288,10 +7862,10 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7304,15 +7878,15 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -7328,9 +7902,25 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7345,7 +7935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT46"/>
+  <dimension ref="A1:AV48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7353,7 +7943,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7489,8 +8079,14 @@
       <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:46">
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7627,10 +8223,16 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -7758,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -7769,8 +8371,14 @@
       <c r="AT3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:46">
+      <c r="AU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -7909,8 +8517,14 @@
       <c r="AT4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:46">
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -8049,8 +8663,14 @@
       <c r="AT5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:46">
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -8189,8 +8809,14 @@
       <c r="AT6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:46">
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -8329,8 +8955,14 @@
       <c r="AT7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:46">
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -8469,8 +9101,14 @@
       <c r="AT8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:46">
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -8607,10 +9245,16 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -8732,7 +9376,7 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
@@ -8749,8 +9393,14 @@
       <c r="AT10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:46">
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -8889,8 +9539,14 @@
       <c r="AT11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:46">
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -9029,8 +9685,14 @@
       <c r="AT12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:46">
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -9169,8 +9831,14 @@
       <c r="AT13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:46">
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -9307,10 +9975,16 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -9435,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
@@ -9449,8 +10123,14 @@
       <c r="AT15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:46">
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -9589,8 +10269,14 @@
       <c r="AT16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:46">
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -9727,10 +10413,16 @@
         <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -9869,8 +10561,14 @@
       <c r="AT18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:46">
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -10009,8 +10707,14 @@
       <c r="AT19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:46">
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -10132,25 +10836,31 @@
         <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20" t="n">
         <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -10272,10 +10982,10 @@
         <v>1</v>
       </c>
       <c r="AO21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
@@ -10284,13 +10994,19 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:46">
+      <c r="AU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -10429,8 +11145,14 @@
       <c r="AT22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:46">
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -10569,8 +11291,14 @@
       <c r="AT23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:46">
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -10709,8 +11437,14 @@
       <c r="AT24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:46">
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -10849,8 +11583,14 @@
       <c r="AT25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:46">
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -10989,8 +11729,14 @@
       <c r="AT26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:46">
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -11129,8 +11875,14 @@
       <c r="AT27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:46">
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -11269,8 +12021,14 @@
       <c r="AT28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:46">
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -11409,8 +12167,14 @@
       <c r="AT29" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:46">
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -11535,13 +12299,13 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" t="n">
         <v>0</v>
       </c>
       <c r="AR30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS30" t="n">
         <v>0</v>
@@ -11549,8 +12313,14 @@
       <c r="AT30" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:46">
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -11689,8 +12459,14 @@
       <c r="AT31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:46">
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -11829,8 +12605,14 @@
       <c r="AT32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:46">
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -11952,10 +12734,10 @@
         <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="n">
         <v>0</v>
@@ -11969,8 +12751,14 @@
       <c r="AT33" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:46">
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -12109,8 +12897,14 @@
       <c r="AT34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:46">
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -12247,10 +13041,16 @@
         <v>0</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -12389,8 +13189,14 @@
       <c r="AT36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:46">
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -12529,8 +13335,14 @@
       <c r="AT37" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:46">
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -12667,10 +13479,16 @@
         <v>0</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -12809,8 +13627,14 @@
       <c r="AT39" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:46">
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -12949,8 +13773,14 @@
       <c r="AT40" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:46">
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -12970,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -12991,7 +13821,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -13048,10 +13878,10 @@
         <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" t="n">
         <v>0</v>
@@ -13089,8 +13919,14 @@
       <c r="AT41" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:46">
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -13119,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -13131,7 +13967,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -13143,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -13176,7 +14012,7 @@
         <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -13188,10 +14024,10 @@
         <v>0</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42" t="n">
         <v>0</v>
@@ -13212,7 +14048,7 @@
         <v>0</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP42" t="n">
         <v>0</v>
@@ -13229,8 +14065,14 @@
       <c r="AT42" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:46">
+      <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -13238,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -13259,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -13328,7 +14170,7 @@
         <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH43" t="n">
         <v>0</v>
@@ -13355,7 +14197,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" t="n">
         <v>0</v>
@@ -13369,8 +14211,14 @@
       <c r="AT43" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:46">
+      <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -13456,7 +14304,7 @@
         <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -13504,13 +14352,19 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT44" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:46">
+      <c r="AU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -13530,7 +14384,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -13626,10 +14480,10 @@
         <v>0</v>
       </c>
       <c r="AM45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO45" t="n">
         <v>0</v>
@@ -13641,7 +14495,7 @@
         <v>0</v>
       </c>
       <c r="AR45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS45" t="n">
         <v>0</v>
@@ -13649,8 +14503,14 @@
       <c r="AT45" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:46">
+      <c r="AU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -13679,7 +14539,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -13787,6 +14647,304 @@
         <v>0</v>
       </c>
       <c r="AT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13801,7 +14959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13811,23 +14969,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -13856,7 +15014,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>9</v>
@@ -13864,7 +15022,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B8" t="n">
         <v>9</v>
@@ -13880,23 +15038,23 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B12" t="n">
         <v>5</v>
@@ -13904,7 +15062,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
         <v>5</v>
@@ -13912,7 +15070,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B14" t="n">
         <v>4</v>
@@ -13920,7 +15078,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -13928,7 +15086,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
@@ -13936,15 +15094,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B18" t="n">
         <v>3</v>
@@ -13952,7 +15110,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B19" t="n">
         <v>3</v>
@@ -13960,7 +15118,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B20" t="n">
         <v>3</v>
@@ -13968,23 +15126,23 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B23" t="n">
         <v>2</v>
@@ -13992,7 +15150,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n">
         <v>2</v>
@@ -14000,7 +15158,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B25" t="n">
         <v>2</v>
@@ -14008,7 +15166,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
         <v>2</v>
@@ -14016,7 +15174,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
         <v>2</v>
@@ -14024,18 +15182,18 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -14048,7 +15206,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -14056,7 +15214,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -14064,7 +15222,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -14072,7 +15230,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -14080,7 +15238,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -14088,7 +15246,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -14096,7 +15254,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -14104,7 +15262,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -14112,31 +15270,31 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -14144,7 +15302,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -14152,7 +15310,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -14160,7 +15318,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -14168,9 +15326,25 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14185,7 +15359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT46"/>
+  <dimension ref="A1:AV48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14193,7 +15367,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14329,8 +15503,14 @@
       <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:46">
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14458,19 +15638,25 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -14595,7 +15781,7 @@
         <v>1</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="n">
         <v>1</v>
@@ -14607,10 +15793,16 @@
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -14732,10 +15924,10 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ4" t="n">
         <v>0</v>
@@ -14744,13 +15936,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -14872,10 +16070,10 @@
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
@@ -14887,10 +16085,16 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -15027,10 +16231,16 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -15169,8 +16379,14 @@
       <c r="AT7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:46">
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -15309,8 +16525,14 @@
       <c r="AT8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:46">
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -15432,25 +16654,31 @@
         <v>1</v>
       </c>
       <c r="AO9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -15589,8 +16817,14 @@
       <c r="AT10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:46">
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -15712,13 +16946,13 @@
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -15729,8 +16963,14 @@
       <c r="AT11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:46">
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -15869,8 +17109,14 @@
       <c r="AT12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:46">
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -16004,13 +17250,19 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -16149,8 +17401,14 @@
       <c r="AT14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:46">
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -16281,16 +17539,22 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46">
+        <v>1</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -16412,25 +17676,31 @@
         <v>1</v>
       </c>
       <c r="AO16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16" t="n">
         <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -16558,19 +17828,25 @@
         <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -16692,10 +17968,10 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" t="n">
         <v>0</v>
@@ -16709,8 +17985,14 @@
       <c r="AT18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:46">
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -16849,8 +18131,14 @@
       <c r="AT19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:46">
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -16972,7 +18260,7 @@
         <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20" t="n">
         <v>0</v>
@@ -16984,13 +18272,19 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -17124,13 +18418,19 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:46">
+      <c r="AU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -17258,7 +18558,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -17267,10 +18567,16 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -17404,13 +18710,19 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -17532,10 +18844,10 @@
         <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" t="n">
         <v>0</v>
@@ -17549,8 +18861,14 @@
       <c r="AT24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:46">
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -17672,10 +18990,10 @@
         <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25" t="n">
         <v>0</v>
@@ -17689,8 +19007,14 @@
       <c r="AT25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:46">
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -17815,22 +19139,28 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -17952,10 +19282,10 @@
         <v>0</v>
       </c>
       <c r="AO27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27" t="n">
         <v>0</v>
@@ -17969,8 +19299,14 @@
       <c r="AT27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:46">
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -18092,10 +19428,10 @@
         <v>0</v>
       </c>
       <c r="AO28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28" t="n">
         <v>0</v>
@@ -18107,10 +19443,16 @@
         <v>0</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -18232,16 +19574,16 @@
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS29" t="n">
         <v>1</v>
@@ -18249,8 +19591,14 @@
       <c r="AT29" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:46">
+      <c r="AU29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -18381,16 +19729,22 @@
         <v>0</v>
       </c>
       <c r="AR30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS30" t="n">
         <v>0</v>
       </c>
       <c r="AT30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:46">
+        <v>1</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -18529,8 +19883,14 @@
       <c r="AT31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:46">
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -18669,8 +20029,14 @@
       <c r="AT32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:46">
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -18792,10 +20158,10 @@
         <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="n">
         <v>0</v>
@@ -18809,8 +20175,14 @@
       <c r="AT33" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:46">
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -18935,10 +20307,10 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR34" t="n">
         <v>0</v>
@@ -18947,10 +20319,16 @@
         <v>0</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -19075,22 +20453,28 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS35" t="n">
         <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -19227,10 +20611,16 @@
         <v>0</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -19369,8 +20759,14 @@
       <c r="AT37" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:46">
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -19495,7 +20891,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38" t="n">
         <v>0</v>
@@ -19507,10 +20903,16 @@
         <v>0</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -19649,8 +21051,14 @@
       <c r="AT39" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:46">
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -19789,13 +21197,19 @@
       <c r="AT40" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:46">
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -19810,19 +21224,19 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -19876,7 +21290,7 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -19929,13 +21343,19 @@
       <c r="AT41" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:46">
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -19944,7 +21364,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -19959,7 +21379,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -20016,7 +21436,7 @@
         <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -20061,7 +21481,7 @@
         <v>0</v>
       </c>
       <c r="AR42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" t="n">
         <v>0</v>
@@ -20069,8 +21489,14 @@
       <c r="AT42" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:46">
+      <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -20081,7 +21507,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -20090,7 +21516,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -20099,10 +21525,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -20117,7 +21543,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -20126,7 +21552,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -20135,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -20153,7 +21579,7 @@
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" t="n">
         <v>0</v>
@@ -20168,7 +21594,7 @@
         <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH43" t="n">
         <v>0</v>
@@ -20189,7 +21615,7 @@
         <v>0</v>
       </c>
       <c r="AN43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO43" t="n">
         <v>0</v>
@@ -20201,16 +21627,22 @@
         <v>0</v>
       </c>
       <c r="AR43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" t="n">
         <v>0</v>
       </c>
       <c r="AT43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:46">
+        <v>0</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -20224,7 +21656,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -20236,7 +21668,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -20281,10 +21713,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
@@ -20347,10 +21779,16 @@
         <v>0</v>
       </c>
       <c r="AT44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:46">
+        <v>1</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -20370,7 +21808,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -20382,7 +21820,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -20397,7 +21835,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -20415,7 +21853,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -20436,7 +21874,7 @@
         <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -20478,7 +21916,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" t="n">
         <v>0</v>
@@ -20487,10 +21925,16 @@
         <v>0</v>
       </c>
       <c r="AT45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:46">
+        <v>1</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -20501,7 +21945,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -20516,10 +21960,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -20546,7 +21990,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -20561,16 +22005,16 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="n">
         <v>0</v>
@@ -20588,7 +22032,7 @@
         <v>0</v>
       </c>
       <c r="AG46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46" t="n">
         <v>0</v>
@@ -20627,6 +22071,304 @@
         <v>0</v>
       </c>
       <c r="AT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20641,7 +22383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20651,7 +22393,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -20659,7 +22401,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -20667,7 +22409,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -20683,7 +22425,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -20704,18 +22446,18 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
         <v>20</v>
-      </c>
-      <c r="B8" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -20728,7 +22470,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
         <v>15</v>
@@ -20736,15 +22478,15 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13" t="n">
         <v>14</v>
@@ -20752,18 +22494,18 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -20784,23 +22526,23 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B20" t="n">
         <v>9</v>
@@ -20808,7 +22550,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B21" t="n">
         <v>9</v>
@@ -20816,15 +22558,15 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
         <v>8</v>
@@ -20832,7 +22574,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B24" t="n">
         <v>8</v>
@@ -20840,15 +22582,15 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B26" t="n">
         <v>6</v>
@@ -20856,7 +22598,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B27" t="n">
         <v>6</v>
@@ -20864,7 +22606,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B28" t="n">
         <v>6</v>
@@ -20880,7 +22622,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" t="n">
         <v>6</v>
@@ -20888,15 +22630,15 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n">
         <v>5</v>
@@ -20904,7 +22646,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B33" t="n">
         <v>5</v>
@@ -20912,7 +22654,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B34" t="n">
         <v>5</v>
@@ -20920,23 +22662,23 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B37" t="n">
         <v>4</v>
@@ -20944,7 +22686,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B38" t="n">
         <v>4</v>
@@ -20952,65 +22694,81 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="n">
         <v>0</v>
       </c>
     </row>
